--- a/Template_v3.0.xlsx
+++ b/Template_v3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woowahan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B31D7F-FC11-4BF0-92A5-45D4F0ED773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E07AFD5-9A83-4B4A-AD30-B1F315724E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갑지_협력사 전체 정산 확인용" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>협력사아이디</t>
   </si>
@@ -351,10 +351,6 @@
     <t>정산예정금액
 (A+B+C)
 -(D+E+F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 세금계산서에 포함되는 항목은 배달료와 관리비입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1157,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1401,12 +1397,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1415,7 +1412,7 @@
     <cellStyle name="표준 2" xfId="3" xr:uid="{6C012901-2BFE-487A-AFA8-7FE77934B938}"/>
     <cellStyle name="표준 2 2" xfId="4" xr:uid="{340692B9-28FF-445F-9366-82209681EDA2}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1464,16 +1461,6 @@
     <dxf>
       <font>
         <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -1844,7 +1831,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:Q28"/>
+  <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1956,10 +1943,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>116</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>13</v>
@@ -2059,7 +2046,7 @@
       <c r="D19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="82"/>
+      <c r="E19" s="81"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -2073,44 +2060,29 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:14" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" s="83" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="2:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B23" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B24" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D25"/>
@@ -2120,29 +2092,16 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B21:B24 C23:E24">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:O12">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I7">
@@ -2217,7 +2176,7 @@
     </row>
     <row r="9" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3"/>
     </row>
@@ -2229,7 +2188,7 @@
     </row>
     <row r="11" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3"/>
     </row>
@@ -2241,13 +2200,13 @@
     </row>
     <row r="13" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3"/>
     </row>
@@ -11685,7 +11644,7 @@
     <col min="2" max="2" width="18.58203125" style="54" customWidth="1"/>
     <col min="3" max="3" width="18.58203125" style="80" customWidth="1"/>
     <col min="4" max="4" width="18.58203125" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="30" style="80" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="80" customWidth="1"/>
     <col min="7" max="11" width="18.58203125" customWidth="1"/>
   </cols>
@@ -11746,7 +11705,7 @@
     </row>
     <row r="8" spans="2:34" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>7</v>
@@ -11775,10 +11734,10 @@
         <v>36</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13282,7 +13241,7 @@
     </row>
     <row r="8" spans="2:33" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>7</v>
@@ -13309,7 +13268,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:33" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14577,7 +14536,7 @@
     </row>
     <row r="2" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="55"/>
       <c r="P2" s="55"/>
@@ -14611,13 +14570,13 @@
       <c r="P5" s="55"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" s="55"/>
     </row>
     <row r="6" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="55"/>
       <c r="P6" s="55"/>
@@ -14627,7 +14586,7 @@
     </row>
     <row r="7" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="55"/>
       <c r="P7" s="55"/>
@@ -14637,7 +14596,7 @@
     </row>
     <row r="8" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="55"/>
       <c r="P8" s="55"/>
@@ -14647,7 +14606,7 @@
     </row>
     <row r="9" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="55"/>
       <c r="P9" s="55"/>
@@ -14657,7 +14616,7 @@
     </row>
     <row r="10" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="55"/>
       <c r="P10" s="55"/>
@@ -14667,7 +14626,7 @@
     </row>
     <row r="11" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="55"/>
       <c r="P11" s="55"/>
@@ -14687,7 +14646,7 @@
       <c r="A13" s="60"/>
       <c r="E13" s="55"/>
       <c r="L13" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="59"/>
       <c r="N13" s="59"/>
@@ -14697,11 +14656,11 @@
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U13" s="59"/>
       <c r="V13" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W13" s="58"/>
       <c r="X13" s="58"/>
@@ -14710,7 +14669,7 @@
     </row>
     <row r="14" spans="1:26" s="56" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="68" t="s">
         <v>1</v>
@@ -14719,73 +14678,73 @@
         <v>2</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="N14" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="74" t="s">
+      <c r="O14" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="O14" s="75" t="s">
+      <c r="P14" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" s="74" t="s">
+      <c r="U14" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="U14" s="75" t="s">
+      <c r="V14" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="V14" s="68" t="s">
+      <c r="W14" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="W14" s="68" t="s">
+      <c r="X14" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="X14" s="68" t="s">
+      <c r="Y14" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="Y14" s="68" t="s">
-        <v>107</v>
-      </c>
       <c r="Z14" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">

--- a/Template_v3.0.xlsx
+++ b/Template_v3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woowahan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E07AFD5-9A83-4B4A-AD30-B1F315724E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A56B0-9895-487B-868E-4CC49D2F8FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갑지_협력사 전체 정산 확인용" sheetId="1" r:id="rId1"/>
@@ -11634,7 +11634,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3E8C7F-80C6-4349-8D0F-47525EE87B76}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:AH211"/>
+  <dimension ref="B1:AH411"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -11642,8 +11642,8 @@
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="18.58203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="18.58203125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="18.58203125" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="30" style="80" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="80" customWidth="1"/>
     <col min="7" max="11" width="18.58203125" customWidth="1"/>
@@ -13168,6 +13168,1406 @@
       <c r="E211" s="79"/>
       <c r="F211" s="79"/>
     </row>
+    <row r="212" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="79"/>
+      <c r="F212" s="79"/>
+    </row>
+    <row r="213" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="48"/>
+      <c r="E213" s="79"/>
+      <c r="F213" s="79"/>
+    </row>
+    <row r="214" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="79"/>
+      <c r="F214" s="79"/>
+    </row>
+    <row r="215" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="48"/>
+      <c r="E215" s="79"/>
+      <c r="F215" s="79"/>
+    </row>
+    <row r="216" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="48"/>
+      <c r="E216" s="79"/>
+      <c r="F216" s="79"/>
+    </row>
+    <row r="217" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="48"/>
+      <c r="E217" s="79"/>
+      <c r="F217" s="79"/>
+    </row>
+    <row r="218" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="79"/>
+      <c r="F218" s="79"/>
+    </row>
+    <row r="219" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="48"/>
+      <c r="E219" s="79"/>
+      <c r="F219" s="79"/>
+    </row>
+    <row r="220" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="48"/>
+      <c r="E220" s="79"/>
+      <c r="F220" s="79"/>
+    </row>
+    <row r="221" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="48"/>
+      <c r="E221" s="79"/>
+      <c r="F221" s="79"/>
+    </row>
+    <row r="222" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="48"/>
+      <c r="E222" s="79"/>
+      <c r="F222" s="79"/>
+    </row>
+    <row r="223" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="48"/>
+      <c r="E223" s="79"/>
+      <c r="F223" s="79"/>
+    </row>
+    <row r="224" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="79"/>
+      <c r="F224" s="79"/>
+    </row>
+    <row r="225" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="79"/>
+      <c r="F225" s="79"/>
+    </row>
+    <row r="226" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="79"/>
+      <c r="F226" s="79"/>
+    </row>
+    <row r="227" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="79"/>
+      <c r="F227" s="79"/>
+    </row>
+    <row r="228" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B228" s="53"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="48"/>
+      <c r="E228" s="79"/>
+      <c r="F228" s="79"/>
+    </row>
+    <row r="229" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B229" s="53"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="48"/>
+      <c r="E229" s="79"/>
+      <c r="F229" s="79"/>
+    </row>
+    <row r="230" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B230" s="53"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="48"/>
+      <c r="E230" s="79"/>
+      <c r="F230" s="79"/>
+    </row>
+    <row r="231" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="48"/>
+      <c r="E231" s="79"/>
+      <c r="F231" s="79"/>
+    </row>
+    <row r="232" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="48"/>
+      <c r="E232" s="79"/>
+      <c r="F232" s="79"/>
+    </row>
+    <row r="233" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B233" s="53"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="48"/>
+      <c r="E233" s="79"/>
+      <c r="F233" s="79"/>
+    </row>
+    <row r="234" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B234" s="53"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="79"/>
+      <c r="F234" s="79"/>
+    </row>
+    <row r="235" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B235" s="53"/>
+      <c r="C235" s="53"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="79"/>
+      <c r="F235" s="79"/>
+    </row>
+    <row r="236" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B236" s="53"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="48"/>
+      <c r="E236" s="79"/>
+      <c r="F236" s="79"/>
+    </row>
+    <row r="237" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B237" s="53"/>
+      <c r="C237" s="53"/>
+      <c r="D237" s="48"/>
+      <c r="E237" s="79"/>
+      <c r="F237" s="79"/>
+    </row>
+    <row r="238" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B238" s="53"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="48"/>
+      <c r="E238" s="79"/>
+      <c r="F238" s="79"/>
+    </row>
+    <row r="239" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B239" s="53"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="48"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="79"/>
+    </row>
+    <row r="240" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B240" s="53"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="79"/>
+      <c r="F240" s="79"/>
+    </row>
+    <row r="241" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B241" s="53"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="48"/>
+      <c r="E241" s="79"/>
+      <c r="F241" s="79"/>
+    </row>
+    <row r="242" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="79"/>
+      <c r="F242" s="79"/>
+    </row>
+    <row r="243" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B243" s="53"/>
+      <c r="C243" s="53"/>
+      <c r="D243" s="48"/>
+      <c r="E243" s="79"/>
+      <c r="F243" s="79"/>
+    </row>
+    <row r="244" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B244" s="53"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="48"/>
+      <c r="E244" s="79"/>
+      <c r="F244" s="79"/>
+    </row>
+    <row r="245" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B245" s="53"/>
+      <c r="C245" s="53"/>
+      <c r="D245" s="48"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+    </row>
+    <row r="246" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B246" s="53"/>
+      <c r="C246" s="53"/>
+      <c r="D246" s="48"/>
+      <c r="E246" s="79"/>
+      <c r="F246" s="79"/>
+    </row>
+    <row r="247" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B247" s="53"/>
+      <c r="C247" s="53"/>
+      <c r="D247" s="48"/>
+      <c r="E247" s="79"/>
+      <c r="F247" s="79"/>
+    </row>
+    <row r="248" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B248" s="53"/>
+      <c r="C248" s="53"/>
+      <c r="D248" s="48"/>
+      <c r="E248" s="79"/>
+      <c r="F248" s="79"/>
+    </row>
+    <row r="249" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B249" s="53"/>
+      <c r="C249" s="53"/>
+      <c r="D249" s="48"/>
+      <c r="E249" s="79"/>
+      <c r="F249" s="79"/>
+    </row>
+    <row r="250" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B250" s="53"/>
+      <c r="C250" s="53"/>
+      <c r="D250" s="48"/>
+      <c r="E250" s="79"/>
+      <c r="F250" s="79"/>
+    </row>
+    <row r="251" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B251" s="53"/>
+      <c r="C251" s="53"/>
+      <c r="D251" s="48"/>
+      <c r="E251" s="79"/>
+      <c r="F251" s="79"/>
+    </row>
+    <row r="252" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B252" s="53"/>
+      <c r="C252" s="53"/>
+      <c r="D252" s="48"/>
+      <c r="E252" s="79"/>
+      <c r="F252" s="79"/>
+    </row>
+    <row r="253" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B253" s="53"/>
+      <c r="C253" s="53"/>
+      <c r="D253" s="48"/>
+      <c r="E253" s="79"/>
+      <c r="F253" s="79"/>
+    </row>
+    <row r="254" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B254" s="53"/>
+      <c r="C254" s="53"/>
+      <c r="D254" s="48"/>
+      <c r="E254" s="79"/>
+      <c r="F254" s="79"/>
+    </row>
+    <row r="255" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B255" s="53"/>
+      <c r="C255" s="53"/>
+      <c r="D255" s="48"/>
+      <c r="E255" s="79"/>
+      <c r="F255" s="79"/>
+    </row>
+    <row r="256" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B256" s="53"/>
+      <c r="C256" s="53"/>
+      <c r="D256" s="48"/>
+      <c r="E256" s="79"/>
+      <c r="F256" s="79"/>
+    </row>
+    <row r="257" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B257" s="53"/>
+      <c r="C257" s="53"/>
+      <c r="D257" s="48"/>
+      <c r="E257" s="79"/>
+      <c r="F257" s="79"/>
+    </row>
+    <row r="258" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B258" s="53"/>
+      <c r="C258" s="53"/>
+      <c r="D258" s="48"/>
+      <c r="E258" s="79"/>
+      <c r="F258" s="79"/>
+    </row>
+    <row r="259" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B259" s="53"/>
+      <c r="C259" s="53"/>
+      <c r="D259" s="48"/>
+      <c r="E259" s="79"/>
+      <c r="F259" s="79"/>
+    </row>
+    <row r="260" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B260" s="53"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="48"/>
+      <c r="E260" s="79"/>
+      <c r="F260" s="79"/>
+    </row>
+    <row r="261" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B261" s="53"/>
+      <c r="C261" s="53"/>
+      <c r="D261" s="48"/>
+      <c r="E261" s="79"/>
+      <c r="F261" s="79"/>
+    </row>
+    <row r="262" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B262" s="53"/>
+      <c r="C262" s="53"/>
+      <c r="D262" s="48"/>
+      <c r="E262" s="79"/>
+      <c r="F262" s="79"/>
+    </row>
+    <row r="263" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B263" s="53"/>
+      <c r="C263" s="53"/>
+      <c r="D263" s="48"/>
+      <c r="E263" s="79"/>
+      <c r="F263" s="79"/>
+    </row>
+    <row r="264" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B264" s="53"/>
+      <c r="C264" s="53"/>
+      <c r="D264" s="48"/>
+      <c r="E264" s="79"/>
+      <c r="F264" s="79"/>
+    </row>
+    <row r="265" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B265" s="53"/>
+      <c r="C265" s="53"/>
+      <c r="D265" s="48"/>
+      <c r="E265" s="79"/>
+      <c r="F265" s="79"/>
+    </row>
+    <row r="266" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B266" s="53"/>
+      <c r="C266" s="53"/>
+      <c r="D266" s="48"/>
+      <c r="E266" s="79"/>
+      <c r="F266" s="79"/>
+    </row>
+    <row r="267" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B267" s="53"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="48"/>
+      <c r="E267" s="79"/>
+      <c r="F267" s="79"/>
+    </row>
+    <row r="268" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B268" s="53"/>
+      <c r="C268" s="53"/>
+      <c r="D268" s="48"/>
+      <c r="E268" s="79"/>
+      <c r="F268" s="79"/>
+    </row>
+    <row r="269" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B269" s="53"/>
+      <c r="C269" s="53"/>
+      <c r="D269" s="48"/>
+      <c r="E269" s="79"/>
+      <c r="F269" s="79"/>
+    </row>
+    <row r="270" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B270" s="53"/>
+      <c r="C270" s="53"/>
+      <c r="D270" s="48"/>
+      <c r="E270" s="79"/>
+      <c r="F270" s="79"/>
+    </row>
+    <row r="271" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B271" s="53"/>
+      <c r="C271" s="53"/>
+      <c r="D271" s="48"/>
+      <c r="E271" s="79"/>
+      <c r="F271" s="79"/>
+    </row>
+    <row r="272" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B272" s="53"/>
+      <c r="C272" s="53"/>
+      <c r="D272" s="48"/>
+      <c r="E272" s="79"/>
+      <c r="F272" s="79"/>
+    </row>
+    <row r="273" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B273" s="53"/>
+      <c r="C273" s="53"/>
+      <c r="D273" s="48"/>
+      <c r="E273" s="79"/>
+      <c r="F273" s="79"/>
+    </row>
+    <row r="274" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B274" s="53"/>
+      <c r="C274" s="53"/>
+      <c r="D274" s="48"/>
+      <c r="E274" s="79"/>
+      <c r="F274" s="79"/>
+    </row>
+    <row r="275" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B275" s="53"/>
+      <c r="C275" s="53"/>
+      <c r="D275" s="48"/>
+      <c r="E275" s="79"/>
+      <c r="F275" s="79"/>
+    </row>
+    <row r="276" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B276" s="53"/>
+      <c r="C276" s="53"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="79"/>
+      <c r="F276" s="79"/>
+    </row>
+    <row r="277" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B277" s="53"/>
+      <c r="C277" s="53"/>
+      <c r="D277" s="48"/>
+      <c r="E277" s="79"/>
+      <c r="F277" s="79"/>
+    </row>
+    <row r="278" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B278" s="53"/>
+      <c r="C278" s="53"/>
+      <c r="D278" s="48"/>
+      <c r="E278" s="79"/>
+      <c r="F278" s="79"/>
+    </row>
+    <row r="279" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B279" s="53"/>
+      <c r="C279" s="53"/>
+      <c r="D279" s="48"/>
+      <c r="E279" s="79"/>
+      <c r="F279" s="79"/>
+    </row>
+    <row r="280" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B280" s="53"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="48"/>
+      <c r="E280" s="79"/>
+      <c r="F280" s="79"/>
+    </row>
+    <row r="281" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B281" s="53"/>
+      <c r="C281" s="53"/>
+      <c r="D281" s="48"/>
+      <c r="E281" s="79"/>
+      <c r="F281" s="79"/>
+    </row>
+    <row r="282" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B282" s="53"/>
+      <c r="C282" s="53"/>
+      <c r="D282" s="48"/>
+      <c r="E282" s="79"/>
+      <c r="F282" s="79"/>
+    </row>
+    <row r="283" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B283" s="53"/>
+      <c r="C283" s="53"/>
+      <c r="D283" s="48"/>
+      <c r="E283" s="79"/>
+      <c r="F283" s="79"/>
+    </row>
+    <row r="284" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B284" s="53"/>
+      <c r="C284" s="53"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="79"/>
+      <c r="F284" s="79"/>
+    </row>
+    <row r="285" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B285" s="53"/>
+      <c r="C285" s="53"/>
+      <c r="D285" s="48"/>
+      <c r="E285" s="79"/>
+      <c r="F285" s="79"/>
+    </row>
+    <row r="286" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B286" s="53"/>
+      <c r="C286" s="53"/>
+      <c r="D286" s="48"/>
+      <c r="E286" s="79"/>
+      <c r="F286" s="79"/>
+    </row>
+    <row r="287" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B287" s="53"/>
+      <c r="C287" s="53"/>
+      <c r="D287" s="48"/>
+      <c r="E287" s="79"/>
+      <c r="F287" s="79"/>
+    </row>
+    <row r="288" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B288" s="53"/>
+      <c r="C288" s="53"/>
+      <c r="D288" s="48"/>
+      <c r="E288" s="79"/>
+      <c r="F288" s="79"/>
+    </row>
+    <row r="289" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B289" s="53"/>
+      <c r="C289" s="53"/>
+      <c r="D289" s="48"/>
+      <c r="E289" s="79"/>
+      <c r="F289" s="79"/>
+    </row>
+    <row r="290" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B290" s="53"/>
+      <c r="C290" s="53"/>
+      <c r="D290" s="48"/>
+      <c r="E290" s="79"/>
+      <c r="F290" s="79"/>
+    </row>
+    <row r="291" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B291" s="53"/>
+      <c r="C291" s="53"/>
+      <c r="D291" s="48"/>
+      <c r="E291" s="79"/>
+      <c r="F291" s="79"/>
+    </row>
+    <row r="292" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B292" s="53"/>
+      <c r="C292" s="53"/>
+      <c r="D292" s="48"/>
+      <c r="E292" s="79"/>
+      <c r="F292" s="79"/>
+    </row>
+    <row r="293" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B293" s="53"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="48"/>
+      <c r="E293" s="79"/>
+      <c r="F293" s="79"/>
+    </row>
+    <row r="294" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B294" s="53"/>
+      <c r="C294" s="53"/>
+      <c r="D294" s="48"/>
+      <c r="E294" s="79"/>
+      <c r="F294" s="79"/>
+    </row>
+    <row r="295" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B295" s="53"/>
+      <c r="C295" s="53"/>
+      <c r="D295" s="48"/>
+      <c r="E295" s="79"/>
+      <c r="F295" s="79"/>
+    </row>
+    <row r="296" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B296" s="53"/>
+      <c r="C296" s="53"/>
+      <c r="D296" s="48"/>
+      <c r="E296" s="79"/>
+      <c r="F296" s="79"/>
+    </row>
+    <row r="297" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B297" s="53"/>
+      <c r="C297" s="53"/>
+      <c r="D297" s="48"/>
+      <c r="E297" s="79"/>
+      <c r="F297" s="79"/>
+    </row>
+    <row r="298" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B298" s="53"/>
+      <c r="C298" s="53"/>
+      <c r="D298" s="48"/>
+      <c r="E298" s="79"/>
+      <c r="F298" s="79"/>
+    </row>
+    <row r="299" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B299" s="53"/>
+      <c r="C299" s="53"/>
+      <c r="D299" s="48"/>
+      <c r="E299" s="79"/>
+      <c r="F299" s="79"/>
+    </row>
+    <row r="300" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B300" s="53"/>
+      <c r="C300" s="53"/>
+      <c r="D300" s="48"/>
+      <c r="E300" s="79"/>
+      <c r="F300" s="79"/>
+    </row>
+    <row r="301" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B301" s="53"/>
+      <c r="C301" s="53"/>
+      <c r="D301" s="48"/>
+      <c r="E301" s="79"/>
+      <c r="F301" s="79"/>
+    </row>
+    <row r="302" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B302" s="53"/>
+      <c r="C302" s="53"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="79"/>
+      <c r="F302" s="79"/>
+    </row>
+    <row r="303" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B303" s="53"/>
+      <c r="C303" s="53"/>
+      <c r="D303" s="48"/>
+      <c r="E303" s="79"/>
+      <c r="F303" s="79"/>
+    </row>
+    <row r="304" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B304" s="53"/>
+      <c r="C304" s="53"/>
+      <c r="D304" s="48"/>
+      <c r="E304" s="79"/>
+      <c r="F304" s="79"/>
+    </row>
+    <row r="305" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B305" s="53"/>
+      <c r="C305" s="53"/>
+      <c r="D305" s="48"/>
+      <c r="E305" s="79"/>
+      <c r="F305" s="79"/>
+    </row>
+    <row r="306" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B306" s="53"/>
+      <c r="C306" s="53"/>
+      <c r="D306" s="48"/>
+      <c r="E306" s="79"/>
+      <c r="F306" s="79"/>
+    </row>
+    <row r="307" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B307" s="53"/>
+      <c r="C307" s="53"/>
+      <c r="D307" s="48"/>
+      <c r="E307" s="79"/>
+      <c r="F307" s="79"/>
+    </row>
+    <row r="308" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B308" s="53"/>
+      <c r="C308" s="53"/>
+      <c r="D308" s="48"/>
+      <c r="E308" s="79"/>
+      <c r="F308" s="79"/>
+    </row>
+    <row r="309" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B309" s="53"/>
+      <c r="C309" s="53"/>
+      <c r="D309" s="48"/>
+      <c r="E309" s="79"/>
+      <c r="F309" s="79"/>
+    </row>
+    <row r="310" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B310" s="53"/>
+      <c r="C310" s="53"/>
+      <c r="D310" s="48"/>
+      <c r="E310" s="79"/>
+      <c r="F310" s="79"/>
+    </row>
+    <row r="311" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B311" s="53"/>
+      <c r="C311" s="53"/>
+      <c r="D311" s="48"/>
+      <c r="E311" s="79"/>
+      <c r="F311" s="79"/>
+    </row>
+    <row r="312" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B312" s="53"/>
+      <c r="C312" s="53"/>
+      <c r="D312" s="48"/>
+      <c r="E312" s="79"/>
+      <c r="F312" s="79"/>
+    </row>
+    <row r="313" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B313" s="53"/>
+      <c r="C313" s="53"/>
+      <c r="D313" s="48"/>
+      <c r="E313" s="79"/>
+      <c r="F313" s="79"/>
+    </row>
+    <row r="314" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B314" s="53"/>
+      <c r="C314" s="53"/>
+      <c r="D314" s="48"/>
+      <c r="E314" s="79"/>
+      <c r="F314" s="79"/>
+    </row>
+    <row r="315" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B315" s="53"/>
+      <c r="C315" s="53"/>
+      <c r="D315" s="48"/>
+      <c r="E315" s="79"/>
+      <c r="F315" s="79"/>
+    </row>
+    <row r="316" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B316" s="53"/>
+      <c r="C316" s="53"/>
+      <c r="D316" s="48"/>
+      <c r="E316" s="79"/>
+      <c r="F316" s="79"/>
+    </row>
+    <row r="317" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B317" s="53"/>
+      <c r="C317" s="53"/>
+      <c r="D317" s="48"/>
+      <c r="E317" s="79"/>
+      <c r="F317" s="79"/>
+    </row>
+    <row r="318" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B318" s="53"/>
+      <c r="C318" s="53"/>
+      <c r="D318" s="48"/>
+      <c r="E318" s="79"/>
+      <c r="F318" s="79"/>
+    </row>
+    <row r="319" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B319" s="53"/>
+      <c r="C319" s="53"/>
+      <c r="D319" s="48"/>
+      <c r="E319" s="79"/>
+      <c r="F319" s="79"/>
+    </row>
+    <row r="320" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B320" s="53"/>
+      <c r="C320" s="53"/>
+      <c r="D320" s="48"/>
+      <c r="E320" s="79"/>
+      <c r="F320" s="79"/>
+    </row>
+    <row r="321" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B321" s="53"/>
+      <c r="C321" s="53"/>
+      <c r="D321" s="48"/>
+      <c r="E321" s="79"/>
+      <c r="F321" s="79"/>
+    </row>
+    <row r="322" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B322" s="53"/>
+      <c r="C322" s="53"/>
+      <c r="D322" s="48"/>
+      <c r="E322" s="79"/>
+      <c r="F322" s="79"/>
+    </row>
+    <row r="323" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B323" s="53"/>
+      <c r="C323" s="53"/>
+      <c r="D323" s="48"/>
+      <c r="E323" s="79"/>
+      <c r="F323" s="79"/>
+    </row>
+    <row r="324" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B324" s="53"/>
+      <c r="C324" s="53"/>
+      <c r="D324" s="48"/>
+      <c r="E324" s="79"/>
+      <c r="F324" s="79"/>
+    </row>
+    <row r="325" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B325" s="53"/>
+      <c r="C325" s="53"/>
+      <c r="D325" s="48"/>
+      <c r="E325" s="79"/>
+      <c r="F325" s="79"/>
+    </row>
+    <row r="326" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B326" s="53"/>
+      <c r="C326" s="53"/>
+      <c r="D326" s="48"/>
+      <c r="E326" s="79"/>
+      <c r="F326" s="79"/>
+    </row>
+    <row r="327" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B327" s="53"/>
+      <c r="C327" s="53"/>
+      <c r="D327" s="48"/>
+      <c r="E327" s="79"/>
+      <c r="F327" s="79"/>
+    </row>
+    <row r="328" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B328" s="53"/>
+      <c r="C328" s="53"/>
+      <c r="D328" s="48"/>
+      <c r="E328" s="79"/>
+      <c r="F328" s="79"/>
+    </row>
+    <row r="329" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B329" s="53"/>
+      <c r="C329" s="53"/>
+      <c r="D329" s="48"/>
+      <c r="E329" s="79"/>
+      <c r="F329" s="79"/>
+    </row>
+    <row r="330" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B330" s="53"/>
+      <c r="C330" s="53"/>
+      <c r="D330" s="48"/>
+      <c r="E330" s="79"/>
+      <c r="F330" s="79"/>
+    </row>
+    <row r="331" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B331" s="53"/>
+      <c r="C331" s="53"/>
+      <c r="D331" s="48"/>
+      <c r="E331" s="79"/>
+      <c r="F331" s="79"/>
+    </row>
+    <row r="332" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B332" s="53"/>
+      <c r="C332" s="53"/>
+      <c r="D332" s="48"/>
+      <c r="E332" s="79"/>
+      <c r="F332" s="79"/>
+    </row>
+    <row r="333" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B333" s="53"/>
+      <c r="C333" s="53"/>
+      <c r="D333" s="48"/>
+      <c r="E333" s="79"/>
+      <c r="F333" s="79"/>
+    </row>
+    <row r="334" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B334" s="53"/>
+      <c r="C334" s="53"/>
+      <c r="D334" s="48"/>
+      <c r="E334" s="79"/>
+      <c r="F334" s="79"/>
+    </row>
+    <row r="335" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B335" s="53"/>
+      <c r="C335" s="53"/>
+      <c r="D335" s="48"/>
+      <c r="E335" s="79"/>
+      <c r="F335" s="79"/>
+    </row>
+    <row r="336" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B336" s="53"/>
+      <c r="C336" s="53"/>
+      <c r="D336" s="48"/>
+      <c r="E336" s="79"/>
+      <c r="F336" s="79"/>
+    </row>
+    <row r="337" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B337" s="53"/>
+      <c r="C337" s="53"/>
+      <c r="D337" s="48"/>
+      <c r="E337" s="79"/>
+      <c r="F337" s="79"/>
+    </row>
+    <row r="338" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B338" s="53"/>
+      <c r="C338" s="53"/>
+      <c r="D338" s="48"/>
+      <c r="E338" s="79"/>
+      <c r="F338" s="79"/>
+    </row>
+    <row r="339" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B339" s="53"/>
+      <c r="C339" s="53"/>
+      <c r="D339" s="48"/>
+      <c r="E339" s="79"/>
+      <c r="F339" s="79"/>
+    </row>
+    <row r="340" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B340" s="53"/>
+      <c r="C340" s="53"/>
+      <c r="D340" s="48"/>
+      <c r="E340" s="79"/>
+      <c r="F340" s="79"/>
+    </row>
+    <row r="341" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B341" s="53"/>
+      <c r="C341" s="53"/>
+      <c r="D341" s="48"/>
+      <c r="E341" s="79"/>
+      <c r="F341" s="79"/>
+    </row>
+    <row r="342" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B342" s="53"/>
+      <c r="C342" s="53"/>
+      <c r="D342" s="48"/>
+      <c r="E342" s="79"/>
+      <c r="F342" s="79"/>
+    </row>
+    <row r="343" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B343" s="53"/>
+      <c r="C343" s="53"/>
+      <c r="D343" s="48"/>
+      <c r="E343" s="79"/>
+      <c r="F343" s="79"/>
+    </row>
+    <row r="344" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B344" s="53"/>
+      <c r="C344" s="53"/>
+      <c r="D344" s="48"/>
+      <c r="E344" s="79"/>
+      <c r="F344" s="79"/>
+    </row>
+    <row r="345" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B345" s="53"/>
+      <c r="C345" s="53"/>
+      <c r="D345" s="48"/>
+      <c r="E345" s="79"/>
+      <c r="F345" s="79"/>
+    </row>
+    <row r="346" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B346" s="53"/>
+      <c r="C346" s="53"/>
+      <c r="D346" s="48"/>
+      <c r="E346" s="79"/>
+      <c r="F346" s="79"/>
+    </row>
+    <row r="347" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B347" s="53"/>
+      <c r="C347" s="53"/>
+      <c r="D347" s="48"/>
+      <c r="E347" s="79"/>
+      <c r="F347" s="79"/>
+    </row>
+    <row r="348" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B348" s="53"/>
+      <c r="C348" s="53"/>
+      <c r="D348" s="48"/>
+      <c r="E348" s="79"/>
+      <c r="F348" s="79"/>
+    </row>
+    <row r="349" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B349" s="53"/>
+      <c r="C349" s="53"/>
+      <c r="D349" s="48"/>
+      <c r="E349" s="79"/>
+      <c r="F349" s="79"/>
+    </row>
+    <row r="350" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B350" s="53"/>
+      <c r="C350" s="53"/>
+      <c r="D350" s="48"/>
+      <c r="E350" s="79"/>
+      <c r="F350" s="79"/>
+    </row>
+    <row r="351" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B351" s="53"/>
+      <c r="C351" s="53"/>
+      <c r="D351" s="48"/>
+      <c r="E351" s="79"/>
+      <c r="F351" s="79"/>
+    </row>
+    <row r="352" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B352" s="53"/>
+      <c r="C352" s="53"/>
+      <c r="D352" s="48"/>
+      <c r="E352" s="79"/>
+      <c r="F352" s="79"/>
+    </row>
+    <row r="353" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B353" s="53"/>
+      <c r="C353" s="53"/>
+      <c r="D353" s="48"/>
+      <c r="E353" s="79"/>
+      <c r="F353" s="79"/>
+    </row>
+    <row r="354" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B354" s="53"/>
+      <c r="C354" s="53"/>
+      <c r="D354" s="48"/>
+      <c r="E354" s="79"/>
+      <c r="F354" s="79"/>
+    </row>
+    <row r="355" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B355" s="53"/>
+      <c r="C355" s="53"/>
+      <c r="D355" s="48"/>
+      <c r="E355" s="79"/>
+      <c r="F355" s="79"/>
+    </row>
+    <row r="356" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B356" s="53"/>
+      <c r="C356" s="53"/>
+      <c r="D356" s="48"/>
+      <c r="E356" s="79"/>
+      <c r="F356" s="79"/>
+    </row>
+    <row r="357" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B357" s="53"/>
+      <c r="C357" s="53"/>
+      <c r="D357" s="48"/>
+      <c r="E357" s="79"/>
+      <c r="F357" s="79"/>
+    </row>
+    <row r="358" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B358" s="53"/>
+      <c r="C358" s="53"/>
+      <c r="D358" s="48"/>
+      <c r="E358" s="79"/>
+      <c r="F358" s="79"/>
+    </row>
+    <row r="359" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B359" s="53"/>
+      <c r="C359" s="53"/>
+      <c r="D359" s="48"/>
+      <c r="E359" s="79"/>
+      <c r="F359" s="79"/>
+    </row>
+    <row r="360" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B360" s="53"/>
+      <c r="C360" s="53"/>
+      <c r="D360" s="48"/>
+      <c r="E360" s="79"/>
+      <c r="F360" s="79"/>
+    </row>
+    <row r="361" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B361" s="53"/>
+      <c r="C361" s="53"/>
+      <c r="D361" s="48"/>
+      <c r="E361" s="79"/>
+      <c r="F361" s="79"/>
+    </row>
+    <row r="362" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B362" s="53"/>
+      <c r="C362" s="53"/>
+      <c r="D362" s="48"/>
+      <c r="E362" s="79"/>
+      <c r="F362" s="79"/>
+    </row>
+    <row r="363" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B363" s="53"/>
+      <c r="C363" s="53"/>
+      <c r="D363" s="48"/>
+      <c r="E363" s="79"/>
+      <c r="F363" s="79"/>
+    </row>
+    <row r="364" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B364" s="53"/>
+      <c r="C364" s="53"/>
+      <c r="D364" s="48"/>
+      <c r="E364" s="79"/>
+      <c r="F364" s="79"/>
+    </row>
+    <row r="365" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B365" s="53"/>
+      <c r="C365" s="53"/>
+      <c r="D365" s="48"/>
+      <c r="E365" s="79"/>
+      <c r="F365" s="79"/>
+    </row>
+    <row r="366" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B366" s="53"/>
+      <c r="C366" s="53"/>
+      <c r="D366" s="48"/>
+      <c r="E366" s="79"/>
+      <c r="F366" s="79"/>
+    </row>
+    <row r="367" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B367" s="53"/>
+      <c r="C367" s="53"/>
+      <c r="D367" s="48"/>
+      <c r="E367" s="79"/>
+      <c r="F367" s="79"/>
+    </row>
+    <row r="368" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B368" s="53"/>
+      <c r="C368" s="53"/>
+      <c r="D368" s="48"/>
+      <c r="E368" s="79"/>
+      <c r="F368" s="79"/>
+    </row>
+    <row r="369" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B369" s="53"/>
+      <c r="C369" s="53"/>
+      <c r="D369" s="48"/>
+      <c r="E369" s="79"/>
+      <c r="F369" s="79"/>
+    </row>
+    <row r="370" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B370" s="53"/>
+      <c r="C370" s="53"/>
+      <c r="D370" s="48"/>
+      <c r="E370" s="79"/>
+      <c r="F370" s="79"/>
+    </row>
+    <row r="371" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B371" s="53"/>
+      <c r="C371" s="53"/>
+      <c r="D371" s="48"/>
+      <c r="E371" s="79"/>
+      <c r="F371" s="79"/>
+    </row>
+    <row r="372" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B372" s="53"/>
+      <c r="C372" s="53"/>
+      <c r="D372" s="48"/>
+      <c r="E372" s="79"/>
+      <c r="F372" s="79"/>
+    </row>
+    <row r="373" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B373" s="53"/>
+      <c r="C373" s="53"/>
+      <c r="D373" s="48"/>
+      <c r="E373" s="79"/>
+      <c r="F373" s="79"/>
+    </row>
+    <row r="374" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B374" s="53"/>
+      <c r="C374" s="53"/>
+      <c r="D374" s="48"/>
+      <c r="E374" s="79"/>
+      <c r="F374" s="79"/>
+    </row>
+    <row r="375" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B375" s="53"/>
+      <c r="C375" s="53"/>
+      <c r="D375" s="48"/>
+      <c r="E375" s="79"/>
+      <c r="F375" s="79"/>
+    </row>
+    <row r="376" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B376" s="53"/>
+      <c r="C376" s="53"/>
+      <c r="D376" s="48"/>
+      <c r="E376" s="79"/>
+      <c r="F376" s="79"/>
+    </row>
+    <row r="377" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B377" s="53"/>
+      <c r="C377" s="53"/>
+      <c r="D377" s="48"/>
+      <c r="E377" s="79"/>
+      <c r="F377" s="79"/>
+    </row>
+    <row r="378" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B378" s="53"/>
+      <c r="C378" s="53"/>
+      <c r="D378" s="48"/>
+      <c r="E378" s="79"/>
+      <c r="F378" s="79"/>
+    </row>
+    <row r="379" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B379" s="53"/>
+      <c r="C379" s="53"/>
+      <c r="D379" s="48"/>
+      <c r="E379" s="79"/>
+      <c r="F379" s="79"/>
+    </row>
+    <row r="380" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B380" s="53"/>
+      <c r="C380" s="53"/>
+      <c r="D380" s="48"/>
+      <c r="E380" s="79"/>
+      <c r="F380" s="79"/>
+    </row>
+    <row r="381" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B381" s="53"/>
+      <c r="C381" s="53"/>
+      <c r="D381" s="48"/>
+      <c r="E381" s="79"/>
+      <c r="F381" s="79"/>
+    </row>
+    <row r="382" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B382" s="53"/>
+      <c r="C382" s="53"/>
+      <c r="D382" s="48"/>
+      <c r="E382" s="79"/>
+      <c r="F382" s="79"/>
+    </row>
+    <row r="383" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B383" s="53"/>
+      <c r="C383" s="53"/>
+      <c r="D383" s="48"/>
+      <c r="E383" s="79"/>
+      <c r="F383" s="79"/>
+    </row>
+    <row r="384" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B384" s="53"/>
+      <c r="C384" s="53"/>
+      <c r="D384" s="48"/>
+      <c r="E384" s="79"/>
+      <c r="F384" s="79"/>
+    </row>
+    <row r="385" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B385" s="53"/>
+      <c r="C385" s="53"/>
+      <c r="D385" s="48"/>
+      <c r="E385" s="79"/>
+      <c r="F385" s="79"/>
+    </row>
+    <row r="386" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B386" s="53"/>
+      <c r="C386" s="53"/>
+      <c r="D386" s="48"/>
+      <c r="E386" s="79"/>
+      <c r="F386" s="79"/>
+    </row>
+    <row r="387" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B387" s="53"/>
+      <c r="C387" s="53"/>
+      <c r="D387" s="48"/>
+      <c r="E387" s="79"/>
+      <c r="F387" s="79"/>
+    </row>
+    <row r="388" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B388" s="53"/>
+      <c r="C388" s="53"/>
+      <c r="D388" s="48"/>
+      <c r="E388" s="79"/>
+      <c r="F388" s="79"/>
+    </row>
+    <row r="389" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B389" s="53"/>
+      <c r="C389" s="53"/>
+      <c r="D389" s="48"/>
+      <c r="E389" s="79"/>
+      <c r="F389" s="79"/>
+    </row>
+    <row r="390" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B390" s="53"/>
+      <c r="C390" s="53"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="79"/>
+      <c r="F390" s="79"/>
+    </row>
+    <row r="391" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B391" s="53"/>
+      <c r="C391" s="53"/>
+      <c r="D391" s="48"/>
+      <c r="E391" s="79"/>
+      <c r="F391" s="79"/>
+    </row>
+    <row r="392" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B392" s="53"/>
+      <c r="C392" s="53"/>
+      <c r="D392" s="48"/>
+      <c r="E392" s="79"/>
+      <c r="F392" s="79"/>
+    </row>
+    <row r="393" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B393" s="53"/>
+      <c r="C393" s="53"/>
+      <c r="D393" s="48"/>
+      <c r="E393" s="79"/>
+      <c r="F393" s="79"/>
+    </row>
+    <row r="394" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B394" s="53"/>
+      <c r="C394" s="53"/>
+      <c r="D394" s="48"/>
+      <c r="E394" s="79"/>
+      <c r="F394" s="79"/>
+    </row>
+    <row r="395" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B395" s="53"/>
+      <c r="C395" s="53"/>
+      <c r="D395" s="48"/>
+      <c r="E395" s="79"/>
+      <c r="F395" s="79"/>
+    </row>
+    <row r="396" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B396" s="53"/>
+      <c r="C396" s="53"/>
+      <c r="D396" s="48"/>
+      <c r="E396" s="79"/>
+      <c r="F396" s="79"/>
+    </row>
+    <row r="397" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B397" s="53"/>
+      <c r="C397" s="53"/>
+      <c r="D397" s="48"/>
+      <c r="E397" s="79"/>
+      <c r="F397" s="79"/>
+    </row>
+    <row r="398" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B398" s="53"/>
+      <c r="C398" s="53"/>
+      <c r="D398" s="48"/>
+      <c r="E398" s="79"/>
+      <c r="F398" s="79"/>
+    </row>
+    <row r="399" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B399" s="53"/>
+      <c r="C399" s="53"/>
+      <c r="D399" s="48"/>
+      <c r="E399" s="79"/>
+      <c r="F399" s="79"/>
+    </row>
+    <row r="400" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B400" s="53"/>
+      <c r="C400" s="53"/>
+      <c r="D400" s="48"/>
+      <c r="E400" s="79"/>
+      <c r="F400" s="79"/>
+    </row>
+    <row r="401" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B401" s="53"/>
+      <c r="C401" s="53"/>
+      <c r="D401" s="48"/>
+      <c r="E401" s="79"/>
+      <c r="F401" s="79"/>
+    </row>
+    <row r="402" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B402" s="53"/>
+      <c r="C402" s="53"/>
+      <c r="D402" s="48"/>
+      <c r="E402" s="79"/>
+      <c r="F402" s="79"/>
+    </row>
+    <row r="403" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B403" s="53"/>
+      <c r="C403" s="53"/>
+      <c r="D403" s="48"/>
+      <c r="E403" s="79"/>
+      <c r="F403" s="79"/>
+    </row>
+    <row r="404" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B404" s="53"/>
+      <c r="C404" s="53"/>
+      <c r="D404" s="48"/>
+      <c r="E404" s="79"/>
+      <c r="F404" s="79"/>
+    </row>
+    <row r="405" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B405" s="53"/>
+      <c r="C405" s="53"/>
+      <c r="D405" s="48"/>
+      <c r="E405" s="79"/>
+      <c r="F405" s="79"/>
+    </row>
+    <row r="406" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B406" s="53"/>
+      <c r="C406" s="53"/>
+      <c r="D406" s="48"/>
+      <c r="E406" s="79"/>
+      <c r="F406" s="79"/>
+    </row>
+    <row r="407" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B407" s="53"/>
+      <c r="C407" s="53"/>
+      <c r="D407" s="48"/>
+      <c r="E407" s="79"/>
+      <c r="F407" s="79"/>
+    </row>
+    <row r="408" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B408" s="53"/>
+      <c r="C408" s="53"/>
+      <c r="D408" s="48"/>
+      <c r="E408" s="79"/>
+      <c r="F408" s="79"/>
+    </row>
+    <row r="409" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B409" s="53"/>
+      <c r="C409" s="53"/>
+      <c r="D409" s="48"/>
+      <c r="E409" s="79"/>
+      <c r="F409" s="79"/>
+    </row>
+    <row r="410" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B410" s="53"/>
+      <c r="C410" s="53"/>
+      <c r="D410" s="48"/>
+      <c r="E410" s="79"/>
+      <c r="F410" s="79"/>
+    </row>
+    <row r="411" spans="2:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B411" s="53"/>
+      <c r="C411" s="53"/>
+      <c r="D411" s="48"/>
+      <c r="E411" s="79"/>
+      <c r="F411" s="79"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13178,7 +14578,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86161956-F475-4702-984F-E6C82951C773}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:AG211"/>
+  <dimension ref="B1:AG411"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -13186,8 +14586,8 @@
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="18.58203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="18.58203125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="18.58203125" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="30" style="80" customWidth="1"/>
     <col min="6" max="10" width="18.58203125" customWidth="1"/>
   </cols>
@@ -14497,6 +15897,1206 @@
       <c r="C211" s="53"/>
       <c r="D211" s="48"/>
       <c r="E211" s="79"/>
+    </row>
+    <row r="212" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="79"/>
+    </row>
+    <row r="213" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="48"/>
+      <c r="E213" s="79"/>
+    </row>
+    <row r="214" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="79"/>
+    </row>
+    <row r="215" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="48"/>
+      <c r="E215" s="79"/>
+    </row>
+    <row r="216" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="48"/>
+      <c r="E216" s="79"/>
+    </row>
+    <row r="217" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="48"/>
+      <c r="E217" s="79"/>
+    </row>
+    <row r="218" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="79"/>
+    </row>
+    <row r="219" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="48"/>
+      <c r="E219" s="79"/>
+    </row>
+    <row r="220" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="48"/>
+      <c r="E220" s="79"/>
+    </row>
+    <row r="221" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="48"/>
+      <c r="E221" s="79"/>
+    </row>
+    <row r="222" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="48"/>
+      <c r="E222" s="79"/>
+    </row>
+    <row r="223" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="48"/>
+      <c r="E223" s="79"/>
+    </row>
+    <row r="224" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="79"/>
+    </row>
+    <row r="225" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="79"/>
+    </row>
+    <row r="226" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="79"/>
+    </row>
+    <row r="227" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="79"/>
+    </row>
+    <row r="228" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B228" s="53"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="48"/>
+      <c r="E228" s="79"/>
+    </row>
+    <row r="229" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B229" s="53"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="48"/>
+      <c r="E229" s="79"/>
+    </row>
+    <row r="230" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B230" s="53"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="48"/>
+      <c r="E230" s="79"/>
+    </row>
+    <row r="231" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="48"/>
+      <c r="E231" s="79"/>
+    </row>
+    <row r="232" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="48"/>
+      <c r="E232" s="79"/>
+    </row>
+    <row r="233" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B233" s="53"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="48"/>
+      <c r="E233" s="79"/>
+    </row>
+    <row r="234" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B234" s="53"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="79"/>
+    </row>
+    <row r="235" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B235" s="53"/>
+      <c r="C235" s="53"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="79"/>
+    </row>
+    <row r="236" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B236" s="53"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="48"/>
+      <c r="E236" s="79"/>
+    </row>
+    <row r="237" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B237" s="53"/>
+      <c r="C237" s="53"/>
+      <c r="D237" s="48"/>
+      <c r="E237" s="79"/>
+    </row>
+    <row r="238" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B238" s="53"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="48"/>
+      <c r="E238" s="79"/>
+    </row>
+    <row r="239" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B239" s="53"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="48"/>
+      <c r="E239" s="79"/>
+    </row>
+    <row r="240" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B240" s="53"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="79"/>
+    </row>
+    <row r="241" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B241" s="53"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="48"/>
+      <c r="E241" s="79"/>
+    </row>
+    <row r="242" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="79"/>
+    </row>
+    <row r="243" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B243" s="53"/>
+      <c r="C243" s="53"/>
+      <c r="D243" s="48"/>
+      <c r="E243" s="79"/>
+    </row>
+    <row r="244" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B244" s="53"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="48"/>
+      <c r="E244" s="79"/>
+    </row>
+    <row r="245" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B245" s="53"/>
+      <c r="C245" s="53"/>
+      <c r="D245" s="48"/>
+      <c r="E245" s="79"/>
+    </row>
+    <row r="246" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B246" s="53"/>
+      <c r="C246" s="53"/>
+      <c r="D246" s="48"/>
+      <c r="E246" s="79"/>
+    </row>
+    <row r="247" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B247" s="53"/>
+      <c r="C247" s="53"/>
+      <c r="D247" s="48"/>
+      <c r="E247" s="79"/>
+    </row>
+    <row r="248" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B248" s="53"/>
+      <c r="C248" s="53"/>
+      <c r="D248" s="48"/>
+      <c r="E248" s="79"/>
+    </row>
+    <row r="249" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B249" s="53"/>
+      <c r="C249" s="53"/>
+      <c r="D249" s="48"/>
+      <c r="E249" s="79"/>
+    </row>
+    <row r="250" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B250" s="53"/>
+      <c r="C250" s="53"/>
+      <c r="D250" s="48"/>
+      <c r="E250" s="79"/>
+    </row>
+    <row r="251" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B251" s="53"/>
+      <c r="C251" s="53"/>
+      <c r="D251" s="48"/>
+      <c r="E251" s="79"/>
+    </row>
+    <row r="252" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B252" s="53"/>
+      <c r="C252" s="53"/>
+      <c r="D252" s="48"/>
+      <c r="E252" s="79"/>
+    </row>
+    <row r="253" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B253" s="53"/>
+      <c r="C253" s="53"/>
+      <c r="D253" s="48"/>
+      <c r="E253" s="79"/>
+    </row>
+    <row r="254" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B254" s="53"/>
+      <c r="C254" s="53"/>
+      <c r="D254" s="48"/>
+      <c r="E254" s="79"/>
+    </row>
+    <row r="255" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B255" s="53"/>
+      <c r="C255" s="53"/>
+      <c r="D255" s="48"/>
+      <c r="E255" s="79"/>
+    </row>
+    <row r="256" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B256" s="53"/>
+      <c r="C256" s="53"/>
+      <c r="D256" s="48"/>
+      <c r="E256" s="79"/>
+    </row>
+    <row r="257" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B257" s="53"/>
+      <c r="C257" s="53"/>
+      <c r="D257" s="48"/>
+      <c r="E257" s="79"/>
+    </row>
+    <row r="258" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B258" s="53"/>
+      <c r="C258" s="53"/>
+      <c r="D258" s="48"/>
+      <c r="E258" s="79"/>
+    </row>
+    <row r="259" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B259" s="53"/>
+      <c r="C259" s="53"/>
+      <c r="D259" s="48"/>
+      <c r="E259" s="79"/>
+    </row>
+    <row r="260" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B260" s="53"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="48"/>
+      <c r="E260" s="79"/>
+    </row>
+    <row r="261" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B261" s="53"/>
+      <c r="C261" s="53"/>
+      <c r="D261" s="48"/>
+      <c r="E261" s="79"/>
+    </row>
+    <row r="262" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B262" s="53"/>
+      <c r="C262" s="53"/>
+      <c r="D262" s="48"/>
+      <c r="E262" s="79"/>
+    </row>
+    <row r="263" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B263" s="53"/>
+      <c r="C263" s="53"/>
+      <c r="D263" s="48"/>
+      <c r="E263" s="79"/>
+    </row>
+    <row r="264" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B264" s="53"/>
+      <c r="C264" s="53"/>
+      <c r="D264" s="48"/>
+      <c r="E264" s="79"/>
+    </row>
+    <row r="265" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B265" s="53"/>
+      <c r="C265" s="53"/>
+      <c r="D265" s="48"/>
+      <c r="E265" s="79"/>
+    </row>
+    <row r="266" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B266" s="53"/>
+      <c r="C266" s="53"/>
+      <c r="D266" s="48"/>
+      <c r="E266" s="79"/>
+    </row>
+    <row r="267" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B267" s="53"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="48"/>
+      <c r="E267" s="79"/>
+    </row>
+    <row r="268" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B268" s="53"/>
+      <c r="C268" s="53"/>
+      <c r="D268" s="48"/>
+      <c r="E268" s="79"/>
+    </row>
+    <row r="269" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B269" s="53"/>
+      <c r="C269" s="53"/>
+      <c r="D269" s="48"/>
+      <c r="E269" s="79"/>
+    </row>
+    <row r="270" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B270" s="53"/>
+      <c r="C270" s="53"/>
+      <c r="D270" s="48"/>
+      <c r="E270" s="79"/>
+    </row>
+    <row r="271" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B271" s="53"/>
+      <c r="C271" s="53"/>
+      <c r="D271" s="48"/>
+      <c r="E271" s="79"/>
+    </row>
+    <row r="272" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B272" s="53"/>
+      <c r="C272" s="53"/>
+      <c r="D272" s="48"/>
+      <c r="E272" s="79"/>
+    </row>
+    <row r="273" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B273" s="53"/>
+      <c r="C273" s="53"/>
+      <c r="D273" s="48"/>
+      <c r="E273" s="79"/>
+    </row>
+    <row r="274" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B274" s="53"/>
+      <c r="C274" s="53"/>
+      <c r="D274" s="48"/>
+      <c r="E274" s="79"/>
+    </row>
+    <row r="275" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B275" s="53"/>
+      <c r="C275" s="53"/>
+      <c r="D275" s="48"/>
+      <c r="E275" s="79"/>
+    </row>
+    <row r="276" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B276" s="53"/>
+      <c r="C276" s="53"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="79"/>
+    </row>
+    <row r="277" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B277" s="53"/>
+      <c r="C277" s="53"/>
+      <c r="D277" s="48"/>
+      <c r="E277" s="79"/>
+    </row>
+    <row r="278" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B278" s="53"/>
+      <c r="C278" s="53"/>
+      <c r="D278" s="48"/>
+      <c r="E278" s="79"/>
+    </row>
+    <row r="279" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B279" s="53"/>
+      <c r="C279" s="53"/>
+      <c r="D279" s="48"/>
+      <c r="E279" s="79"/>
+    </row>
+    <row r="280" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B280" s="53"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="48"/>
+      <c r="E280" s="79"/>
+    </row>
+    <row r="281" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B281" s="53"/>
+      <c r="C281" s="53"/>
+      <c r="D281" s="48"/>
+      <c r="E281" s="79"/>
+    </row>
+    <row r="282" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B282" s="53"/>
+      <c r="C282" s="53"/>
+      <c r="D282" s="48"/>
+      <c r="E282" s="79"/>
+    </row>
+    <row r="283" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B283" s="53"/>
+      <c r="C283" s="53"/>
+      <c r="D283" s="48"/>
+      <c r="E283" s="79"/>
+    </row>
+    <row r="284" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B284" s="53"/>
+      <c r="C284" s="53"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="79"/>
+    </row>
+    <row r="285" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B285" s="53"/>
+      <c r="C285" s="53"/>
+      <c r="D285" s="48"/>
+      <c r="E285" s="79"/>
+    </row>
+    <row r="286" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B286" s="53"/>
+      <c r="C286" s="53"/>
+      <c r="D286" s="48"/>
+      <c r="E286" s="79"/>
+    </row>
+    <row r="287" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B287" s="53"/>
+      <c r="C287" s="53"/>
+      <c r="D287" s="48"/>
+      <c r="E287" s="79"/>
+    </row>
+    <row r="288" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B288" s="53"/>
+      <c r="C288" s="53"/>
+      <c r="D288" s="48"/>
+      <c r="E288" s="79"/>
+    </row>
+    <row r="289" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B289" s="53"/>
+      <c r="C289" s="53"/>
+      <c r="D289" s="48"/>
+      <c r="E289" s="79"/>
+    </row>
+    <row r="290" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B290" s="53"/>
+      <c r="C290" s="53"/>
+      <c r="D290" s="48"/>
+      <c r="E290" s="79"/>
+    </row>
+    <row r="291" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B291" s="53"/>
+      <c r="C291" s="53"/>
+      <c r="D291" s="48"/>
+      <c r="E291" s="79"/>
+    </row>
+    <row r="292" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B292" s="53"/>
+      <c r="C292" s="53"/>
+      <c r="D292" s="48"/>
+      <c r="E292" s="79"/>
+    </row>
+    <row r="293" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B293" s="53"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="48"/>
+      <c r="E293" s="79"/>
+    </row>
+    <row r="294" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B294" s="53"/>
+      <c r="C294" s="53"/>
+      <c r="D294" s="48"/>
+      <c r="E294" s="79"/>
+    </row>
+    <row r="295" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B295" s="53"/>
+      <c r="C295" s="53"/>
+      <c r="D295" s="48"/>
+      <c r="E295" s="79"/>
+    </row>
+    <row r="296" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B296" s="53"/>
+      <c r="C296" s="53"/>
+      <c r="D296" s="48"/>
+      <c r="E296" s="79"/>
+    </row>
+    <row r="297" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B297" s="53"/>
+      <c r="C297" s="53"/>
+      <c r="D297" s="48"/>
+      <c r="E297" s="79"/>
+    </row>
+    <row r="298" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B298" s="53"/>
+      <c r="C298" s="53"/>
+      <c r="D298" s="48"/>
+      <c r="E298" s="79"/>
+    </row>
+    <row r="299" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B299" s="53"/>
+      <c r="C299" s="53"/>
+      <c r="D299" s="48"/>
+      <c r="E299" s="79"/>
+    </row>
+    <row r="300" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B300" s="53"/>
+      <c r="C300" s="53"/>
+      <c r="D300" s="48"/>
+      <c r="E300" s="79"/>
+    </row>
+    <row r="301" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B301" s="53"/>
+      <c r="C301" s="53"/>
+      <c r="D301" s="48"/>
+      <c r="E301" s="79"/>
+    </row>
+    <row r="302" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B302" s="53"/>
+      <c r="C302" s="53"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="79"/>
+    </row>
+    <row r="303" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B303" s="53"/>
+      <c r="C303" s="53"/>
+      <c r="D303" s="48"/>
+      <c r="E303" s="79"/>
+    </row>
+    <row r="304" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B304" s="53"/>
+      <c r="C304" s="53"/>
+      <c r="D304" s="48"/>
+      <c r="E304" s="79"/>
+    </row>
+    <row r="305" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B305" s="53"/>
+      <c r="C305" s="53"/>
+      <c r="D305" s="48"/>
+      <c r="E305" s="79"/>
+    </row>
+    <row r="306" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B306" s="53"/>
+      <c r="C306" s="53"/>
+      <c r="D306" s="48"/>
+      <c r="E306" s="79"/>
+    </row>
+    <row r="307" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B307" s="53"/>
+      <c r="C307" s="53"/>
+      <c r="D307" s="48"/>
+      <c r="E307" s="79"/>
+    </row>
+    <row r="308" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B308" s="53"/>
+      <c r="C308" s="53"/>
+      <c r="D308" s="48"/>
+      <c r="E308" s="79"/>
+    </row>
+    <row r="309" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B309" s="53"/>
+      <c r="C309" s="53"/>
+      <c r="D309" s="48"/>
+      <c r="E309" s="79"/>
+    </row>
+    <row r="310" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B310" s="53"/>
+      <c r="C310" s="53"/>
+      <c r="D310" s="48"/>
+      <c r="E310" s="79"/>
+    </row>
+    <row r="311" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B311" s="53"/>
+      <c r="C311" s="53"/>
+      <c r="D311" s="48"/>
+      <c r="E311" s="79"/>
+    </row>
+    <row r="312" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B312" s="53"/>
+      <c r="C312" s="53"/>
+      <c r="D312" s="48"/>
+      <c r="E312" s="79"/>
+    </row>
+    <row r="313" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B313" s="53"/>
+      <c r="C313" s="53"/>
+      <c r="D313" s="48"/>
+      <c r="E313" s="79"/>
+    </row>
+    <row r="314" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B314" s="53"/>
+      <c r="C314" s="53"/>
+      <c r="D314" s="48"/>
+      <c r="E314" s="79"/>
+    </row>
+    <row r="315" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B315" s="53"/>
+      <c r="C315" s="53"/>
+      <c r="D315" s="48"/>
+      <c r="E315" s="79"/>
+    </row>
+    <row r="316" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B316" s="53"/>
+      <c r="C316" s="53"/>
+      <c r="D316" s="48"/>
+      <c r="E316" s="79"/>
+    </row>
+    <row r="317" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B317" s="53"/>
+      <c r="C317" s="53"/>
+      <c r="D317" s="48"/>
+      <c r="E317" s="79"/>
+    </row>
+    <row r="318" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B318" s="53"/>
+      <c r="C318" s="53"/>
+      <c r="D318" s="48"/>
+      <c r="E318" s="79"/>
+    </row>
+    <row r="319" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B319" s="53"/>
+      <c r="C319" s="53"/>
+      <c r="D319" s="48"/>
+      <c r="E319" s="79"/>
+    </row>
+    <row r="320" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B320" s="53"/>
+      <c r="C320" s="53"/>
+      <c r="D320" s="48"/>
+      <c r="E320" s="79"/>
+    </row>
+    <row r="321" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B321" s="53"/>
+      <c r="C321" s="53"/>
+      <c r="D321" s="48"/>
+      <c r="E321" s="79"/>
+    </row>
+    <row r="322" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B322" s="53"/>
+      <c r="C322" s="53"/>
+      <c r="D322" s="48"/>
+      <c r="E322" s="79"/>
+    </row>
+    <row r="323" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B323" s="53"/>
+      <c r="C323" s="53"/>
+      <c r="D323" s="48"/>
+      <c r="E323" s="79"/>
+    </row>
+    <row r="324" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B324" s="53"/>
+      <c r="C324" s="53"/>
+      <c r="D324" s="48"/>
+      <c r="E324" s="79"/>
+    </row>
+    <row r="325" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B325" s="53"/>
+      <c r="C325" s="53"/>
+      <c r="D325" s="48"/>
+      <c r="E325" s="79"/>
+    </row>
+    <row r="326" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B326" s="53"/>
+      <c r="C326" s="53"/>
+      <c r="D326" s="48"/>
+      <c r="E326" s="79"/>
+    </row>
+    <row r="327" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B327" s="53"/>
+      <c r="C327" s="53"/>
+      <c r="D327" s="48"/>
+      <c r="E327" s="79"/>
+    </row>
+    <row r="328" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B328" s="53"/>
+      <c r="C328" s="53"/>
+      <c r="D328" s="48"/>
+      <c r="E328" s="79"/>
+    </row>
+    <row r="329" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B329" s="53"/>
+      <c r="C329" s="53"/>
+      <c r="D329" s="48"/>
+      <c r="E329" s="79"/>
+    </row>
+    <row r="330" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B330" s="53"/>
+      <c r="C330" s="53"/>
+      <c r="D330" s="48"/>
+      <c r="E330" s="79"/>
+    </row>
+    <row r="331" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B331" s="53"/>
+      <c r="C331" s="53"/>
+      <c r="D331" s="48"/>
+      <c r="E331" s="79"/>
+    </row>
+    <row r="332" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B332" s="53"/>
+      <c r="C332" s="53"/>
+      <c r="D332" s="48"/>
+      <c r="E332" s="79"/>
+    </row>
+    <row r="333" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B333" s="53"/>
+      <c r="C333" s="53"/>
+      <c r="D333" s="48"/>
+      <c r="E333" s="79"/>
+    </row>
+    <row r="334" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B334" s="53"/>
+      <c r="C334" s="53"/>
+      <c r="D334" s="48"/>
+      <c r="E334" s="79"/>
+    </row>
+    <row r="335" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B335" s="53"/>
+      <c r="C335" s="53"/>
+      <c r="D335" s="48"/>
+      <c r="E335" s="79"/>
+    </row>
+    <row r="336" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B336" s="53"/>
+      <c r="C336" s="53"/>
+      <c r="D336" s="48"/>
+      <c r="E336" s="79"/>
+    </row>
+    <row r="337" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B337" s="53"/>
+      <c r="C337" s="53"/>
+      <c r="D337" s="48"/>
+      <c r="E337" s="79"/>
+    </row>
+    <row r="338" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B338" s="53"/>
+      <c r="C338" s="53"/>
+      <c r="D338" s="48"/>
+      <c r="E338" s="79"/>
+    </row>
+    <row r="339" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B339" s="53"/>
+      <c r="C339" s="53"/>
+      <c r="D339" s="48"/>
+      <c r="E339" s="79"/>
+    </row>
+    <row r="340" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B340" s="53"/>
+      <c r="C340" s="53"/>
+      <c r="D340" s="48"/>
+      <c r="E340" s="79"/>
+    </row>
+    <row r="341" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B341" s="53"/>
+      <c r="C341" s="53"/>
+      <c r="D341" s="48"/>
+      <c r="E341" s="79"/>
+    </row>
+    <row r="342" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B342" s="53"/>
+      <c r="C342" s="53"/>
+      <c r="D342" s="48"/>
+      <c r="E342" s="79"/>
+    </row>
+    <row r="343" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B343" s="53"/>
+      <c r="C343" s="53"/>
+      <c r="D343" s="48"/>
+      <c r="E343" s="79"/>
+    </row>
+    <row r="344" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B344" s="53"/>
+      <c r="C344" s="53"/>
+      <c r="D344" s="48"/>
+      <c r="E344" s="79"/>
+    </row>
+    <row r="345" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B345" s="53"/>
+      <c r="C345" s="53"/>
+      <c r="D345" s="48"/>
+      <c r="E345" s="79"/>
+    </row>
+    <row r="346" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B346" s="53"/>
+      <c r="C346" s="53"/>
+      <c r="D346" s="48"/>
+      <c r="E346" s="79"/>
+    </row>
+    <row r="347" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B347" s="53"/>
+      <c r="C347" s="53"/>
+      <c r="D347" s="48"/>
+      <c r="E347" s="79"/>
+    </row>
+    <row r="348" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B348" s="53"/>
+      <c r="C348" s="53"/>
+      <c r="D348" s="48"/>
+      <c r="E348" s="79"/>
+    </row>
+    <row r="349" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B349" s="53"/>
+      <c r="C349" s="53"/>
+      <c r="D349" s="48"/>
+      <c r="E349" s="79"/>
+    </row>
+    <row r="350" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B350" s="53"/>
+      <c r="C350" s="53"/>
+      <c r="D350" s="48"/>
+      <c r="E350" s="79"/>
+    </row>
+    <row r="351" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B351" s="53"/>
+      <c r="C351" s="53"/>
+      <c r="D351" s="48"/>
+      <c r="E351" s="79"/>
+    </row>
+    <row r="352" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B352" s="53"/>
+      <c r="C352" s="53"/>
+      <c r="D352" s="48"/>
+      <c r="E352" s="79"/>
+    </row>
+    <row r="353" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B353" s="53"/>
+      <c r="C353" s="53"/>
+      <c r="D353" s="48"/>
+      <c r="E353" s="79"/>
+    </row>
+    <row r="354" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B354" s="53"/>
+      <c r="C354" s="53"/>
+      <c r="D354" s="48"/>
+      <c r="E354" s="79"/>
+    </row>
+    <row r="355" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B355" s="53"/>
+      <c r="C355" s="53"/>
+      <c r="D355" s="48"/>
+      <c r="E355" s="79"/>
+    </row>
+    <row r="356" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B356" s="53"/>
+      <c r="C356" s="53"/>
+      <c r="D356" s="48"/>
+      <c r="E356" s="79"/>
+    </row>
+    <row r="357" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B357" s="53"/>
+      <c r="C357" s="53"/>
+      <c r="D357" s="48"/>
+      <c r="E357" s="79"/>
+    </row>
+    <row r="358" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B358" s="53"/>
+      <c r="C358" s="53"/>
+      <c r="D358" s="48"/>
+      <c r="E358" s="79"/>
+    </row>
+    <row r="359" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B359" s="53"/>
+      <c r="C359" s="53"/>
+      <c r="D359" s="48"/>
+      <c r="E359" s="79"/>
+    </row>
+    <row r="360" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B360" s="53"/>
+      <c r="C360" s="53"/>
+      <c r="D360" s="48"/>
+      <c r="E360" s="79"/>
+    </row>
+    <row r="361" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B361" s="53"/>
+      <c r="C361" s="53"/>
+      <c r="D361" s="48"/>
+      <c r="E361" s="79"/>
+    </row>
+    <row r="362" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B362" s="53"/>
+      <c r="C362" s="53"/>
+      <c r="D362" s="48"/>
+      <c r="E362" s="79"/>
+    </row>
+    <row r="363" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B363" s="53"/>
+      <c r="C363" s="53"/>
+      <c r="D363" s="48"/>
+      <c r="E363" s="79"/>
+    </row>
+    <row r="364" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B364" s="53"/>
+      <c r="C364" s="53"/>
+      <c r="D364" s="48"/>
+      <c r="E364" s="79"/>
+    </row>
+    <row r="365" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B365" s="53"/>
+      <c r="C365" s="53"/>
+      <c r="D365" s="48"/>
+      <c r="E365" s="79"/>
+    </row>
+    <row r="366" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B366" s="53"/>
+      <c r="C366" s="53"/>
+      <c r="D366" s="48"/>
+      <c r="E366" s="79"/>
+    </row>
+    <row r="367" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B367" s="53"/>
+      <c r="C367" s="53"/>
+      <c r="D367" s="48"/>
+      <c r="E367" s="79"/>
+    </row>
+    <row r="368" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B368" s="53"/>
+      <c r="C368" s="53"/>
+      <c r="D368" s="48"/>
+      <c r="E368" s="79"/>
+    </row>
+    <row r="369" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B369" s="53"/>
+      <c r="C369" s="53"/>
+      <c r="D369" s="48"/>
+      <c r="E369" s="79"/>
+    </row>
+    <row r="370" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B370" s="53"/>
+      <c r="C370" s="53"/>
+      <c r="D370" s="48"/>
+      <c r="E370" s="79"/>
+    </row>
+    <row r="371" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B371" s="53"/>
+      <c r="C371" s="53"/>
+      <c r="D371" s="48"/>
+      <c r="E371" s="79"/>
+    </row>
+    <row r="372" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B372" s="53"/>
+      <c r="C372" s="53"/>
+      <c r="D372" s="48"/>
+      <c r="E372" s="79"/>
+    </row>
+    <row r="373" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B373" s="53"/>
+      <c r="C373" s="53"/>
+      <c r="D373" s="48"/>
+      <c r="E373" s="79"/>
+    </row>
+    <row r="374" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B374" s="53"/>
+      <c r="C374" s="53"/>
+      <c r="D374" s="48"/>
+      <c r="E374" s="79"/>
+    </row>
+    <row r="375" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B375" s="53"/>
+      <c r="C375" s="53"/>
+      <c r="D375" s="48"/>
+      <c r="E375" s="79"/>
+    </row>
+    <row r="376" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B376" s="53"/>
+      <c r="C376" s="53"/>
+      <c r="D376" s="48"/>
+      <c r="E376" s="79"/>
+    </row>
+    <row r="377" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B377" s="53"/>
+      <c r="C377" s="53"/>
+      <c r="D377" s="48"/>
+      <c r="E377" s="79"/>
+    </row>
+    <row r="378" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B378" s="53"/>
+      <c r="C378" s="53"/>
+      <c r="D378" s="48"/>
+      <c r="E378" s="79"/>
+    </row>
+    <row r="379" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B379" s="53"/>
+      <c r="C379" s="53"/>
+      <c r="D379" s="48"/>
+      <c r="E379" s="79"/>
+    </row>
+    <row r="380" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B380" s="53"/>
+      <c r="C380" s="53"/>
+      <c r="D380" s="48"/>
+      <c r="E380" s="79"/>
+    </row>
+    <row r="381" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B381" s="53"/>
+      <c r="C381" s="53"/>
+      <c r="D381" s="48"/>
+      <c r="E381" s="79"/>
+    </row>
+    <row r="382" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B382" s="53"/>
+      <c r="C382" s="53"/>
+      <c r="D382" s="48"/>
+      <c r="E382" s="79"/>
+    </row>
+    <row r="383" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B383" s="53"/>
+      <c r="C383" s="53"/>
+      <c r="D383" s="48"/>
+      <c r="E383" s="79"/>
+    </row>
+    <row r="384" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B384" s="53"/>
+      <c r="C384" s="53"/>
+      <c r="D384" s="48"/>
+      <c r="E384" s="79"/>
+    </row>
+    <row r="385" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B385" s="53"/>
+      <c r="C385" s="53"/>
+      <c r="D385" s="48"/>
+      <c r="E385" s="79"/>
+    </row>
+    <row r="386" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B386" s="53"/>
+      <c r="C386" s="53"/>
+      <c r="D386" s="48"/>
+      <c r="E386" s="79"/>
+    </row>
+    <row r="387" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B387" s="53"/>
+      <c r="C387" s="53"/>
+      <c r="D387" s="48"/>
+      <c r="E387" s="79"/>
+    </row>
+    <row r="388" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B388" s="53"/>
+      <c r="C388" s="53"/>
+      <c r="D388" s="48"/>
+      <c r="E388" s="79"/>
+    </row>
+    <row r="389" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B389" s="53"/>
+      <c r="C389" s="53"/>
+      <c r="D389" s="48"/>
+      <c r="E389" s="79"/>
+    </row>
+    <row r="390" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B390" s="53"/>
+      <c r="C390" s="53"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="79"/>
+    </row>
+    <row r="391" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B391" s="53"/>
+      <c r="C391" s="53"/>
+      <c r="D391" s="48"/>
+      <c r="E391" s="79"/>
+    </row>
+    <row r="392" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B392" s="53"/>
+      <c r="C392" s="53"/>
+      <c r="D392" s="48"/>
+      <c r="E392" s="79"/>
+    </row>
+    <row r="393" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B393" s="53"/>
+      <c r="C393" s="53"/>
+      <c r="D393" s="48"/>
+      <c r="E393" s="79"/>
+    </row>
+    <row r="394" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B394" s="53"/>
+      <c r="C394" s="53"/>
+      <c r="D394" s="48"/>
+      <c r="E394" s="79"/>
+    </row>
+    <row r="395" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B395" s="53"/>
+      <c r="C395" s="53"/>
+      <c r="D395" s="48"/>
+      <c r="E395" s="79"/>
+    </row>
+    <row r="396" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B396" s="53"/>
+      <c r="C396" s="53"/>
+      <c r="D396" s="48"/>
+      <c r="E396" s="79"/>
+    </row>
+    <row r="397" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B397" s="53"/>
+      <c r="C397" s="53"/>
+      <c r="D397" s="48"/>
+      <c r="E397" s="79"/>
+    </row>
+    <row r="398" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B398" s="53"/>
+      <c r="C398" s="53"/>
+      <c r="D398" s="48"/>
+      <c r="E398" s="79"/>
+    </row>
+    <row r="399" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B399" s="53"/>
+      <c r="C399" s="53"/>
+      <c r="D399" s="48"/>
+      <c r="E399" s="79"/>
+    </row>
+    <row r="400" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B400" s="53"/>
+      <c r="C400" s="53"/>
+      <c r="D400" s="48"/>
+      <c r="E400" s="79"/>
+    </row>
+    <row r="401" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B401" s="53"/>
+      <c r="C401" s="53"/>
+      <c r="D401" s="48"/>
+      <c r="E401" s="79"/>
+    </row>
+    <row r="402" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B402" s="53"/>
+      <c r="C402" s="53"/>
+      <c r="D402" s="48"/>
+      <c r="E402" s="79"/>
+    </row>
+    <row r="403" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B403" s="53"/>
+      <c r="C403" s="53"/>
+      <c r="D403" s="48"/>
+      <c r="E403" s="79"/>
+    </row>
+    <row r="404" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B404" s="53"/>
+      <c r="C404" s="53"/>
+      <c r="D404" s="48"/>
+      <c r="E404" s="79"/>
+    </row>
+    <row r="405" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B405" s="53"/>
+      <c r="C405" s="53"/>
+      <c r="D405" s="48"/>
+      <c r="E405" s="79"/>
+    </row>
+    <row r="406" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B406" s="53"/>
+      <c r="C406" s="53"/>
+      <c r="D406" s="48"/>
+      <c r="E406" s="79"/>
+    </row>
+    <row r="407" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B407" s="53"/>
+      <c r="C407" s="53"/>
+      <c r="D407" s="48"/>
+      <c r="E407" s="79"/>
+    </row>
+    <row r="408" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B408" s="53"/>
+      <c r="C408" s="53"/>
+      <c r="D408" s="48"/>
+      <c r="E408" s="79"/>
+    </row>
+    <row r="409" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B409" s="53"/>
+      <c r="C409" s="53"/>
+      <c r="D409" s="48"/>
+      <c r="E409" s="79"/>
+    </row>
+    <row r="410" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B410" s="53"/>
+      <c r="C410" s="53"/>
+      <c r="D410" s="48"/>
+      <c r="E410" s="79"/>
+    </row>
+    <row r="411" spans="2:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B411" s="53"/>
+      <c r="C411" s="53"/>
+      <c r="D411" s="48"/>
+      <c r="E411" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14508,7 +17108,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A978A70C-CAB5-4663-954A-8C3C4740B181}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z167"/>
+  <dimension ref="A1:Z315"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -19031,6 +21631,4150 @@
       <c r="Y167" s="48"/>
       <c r="Z167" s="48"/>
     </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A168" s="62"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="62"/>
+      <c r="E168" s="63"/>
+      <c r="F168" s="62"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="48"/>
+      <c r="I168" s="48"/>
+      <c r="J168" s="48"/>
+      <c r="K168" s="48"/>
+      <c r="L168" s="48"/>
+      <c r="M168" s="48"/>
+      <c r="N168" s="48"/>
+      <c r="O168" s="48"/>
+      <c r="P168" s="65"/>
+      <c r="Q168" s="64"/>
+      <c r="R168" s="64"/>
+      <c r="S168" s="64"/>
+      <c r="T168" s="48"/>
+      <c r="U168" s="48"/>
+      <c r="V168" s="48"/>
+      <c r="W168" s="48"/>
+      <c r="X168" s="48"/>
+      <c r="Y168" s="48"/>
+      <c r="Z168" s="48"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A169" s="62"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="63"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48"/>
+      <c r="K169" s="48"/>
+      <c r="L169" s="48"/>
+      <c r="M169" s="48"/>
+      <c r="N169" s="48"/>
+      <c r="O169" s="48"/>
+      <c r="P169" s="65"/>
+      <c r="Q169" s="64"/>
+      <c r="R169" s="64"/>
+      <c r="S169" s="64"/>
+      <c r="T169" s="48"/>
+      <c r="U169" s="48"/>
+      <c r="V169" s="48"/>
+      <c r="W169" s="48"/>
+      <c r="X169" s="48"/>
+      <c r="Y169" s="48"/>
+      <c r="Z169" s="48"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A170" s="62"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48"/>
+      <c r="K170" s="48"/>
+      <c r="L170" s="48"/>
+      <c r="M170" s="48"/>
+      <c r="N170" s="48"/>
+      <c r="O170" s="48"/>
+      <c r="P170" s="65"/>
+      <c r="Q170" s="64"/>
+      <c r="R170" s="64"/>
+      <c r="S170" s="64"/>
+      <c r="T170" s="48"/>
+      <c r="U170" s="48"/>
+      <c r="V170" s="48"/>
+      <c r="W170" s="48"/>
+      <c r="X170" s="48"/>
+      <c r="Y170" s="48"/>
+      <c r="Z170" s="48"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A171" s="62"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="62"/>
+      <c r="E171" s="63"/>
+      <c r="F171" s="62"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="48"/>
+      <c r="N171" s="48"/>
+      <c r="O171" s="48"/>
+      <c r="P171" s="65"/>
+      <c r="Q171" s="64"/>
+      <c r="R171" s="64"/>
+      <c r="S171" s="64"/>
+      <c r="T171" s="48"/>
+      <c r="U171" s="48"/>
+      <c r="V171" s="48"/>
+      <c r="W171" s="48"/>
+      <c r="X171" s="48"/>
+      <c r="Y171" s="48"/>
+      <c r="Z171" s="48"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A172" s="62"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="62"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="62"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="48"/>
+      <c r="I172" s="48"/>
+      <c r="J172" s="48"/>
+      <c r="K172" s="48"/>
+      <c r="L172" s="48"/>
+      <c r="M172" s="48"/>
+      <c r="N172" s="48"/>
+      <c r="O172" s="48"/>
+      <c r="P172" s="65"/>
+      <c r="Q172" s="64"/>
+      <c r="R172" s="64"/>
+      <c r="S172" s="64"/>
+      <c r="T172" s="48"/>
+      <c r="U172" s="48"/>
+      <c r="V172" s="48"/>
+      <c r="W172" s="48"/>
+      <c r="X172" s="48"/>
+      <c r="Y172" s="48"/>
+      <c r="Z172" s="48"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A173" s="62"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
+      <c r="J173" s="48"/>
+      <c r="K173" s="48"/>
+      <c r="L173" s="48"/>
+      <c r="M173" s="48"/>
+      <c r="N173" s="48"/>
+      <c r="O173" s="48"/>
+      <c r="P173" s="65"/>
+      <c r="Q173" s="64"/>
+      <c r="R173" s="64"/>
+      <c r="S173" s="64"/>
+      <c r="T173" s="48"/>
+      <c r="U173" s="48"/>
+      <c r="V173" s="48"/>
+      <c r="W173" s="48"/>
+      <c r="X173" s="48"/>
+      <c r="Y173" s="48"/>
+      <c r="Z173" s="48"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A174" s="62"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="62"/>
+      <c r="E174" s="63"/>
+      <c r="F174" s="62"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="48"/>
+      <c r="J174" s="48"/>
+      <c r="K174" s="48"/>
+      <c r="L174" s="48"/>
+      <c r="M174" s="48"/>
+      <c r="N174" s="48"/>
+      <c r="O174" s="48"/>
+      <c r="P174" s="65"/>
+      <c r="Q174" s="64"/>
+      <c r="R174" s="64"/>
+      <c r="S174" s="64"/>
+      <c r="T174" s="48"/>
+      <c r="U174" s="48"/>
+      <c r="V174" s="48"/>
+      <c r="W174" s="48"/>
+      <c r="X174" s="48"/>
+      <c r="Y174" s="48"/>
+      <c r="Z174" s="48"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A175" s="62"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="62"/>
+      <c r="E175" s="63"/>
+      <c r="F175" s="62"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="48"/>
+      <c r="J175" s="48"/>
+      <c r="K175" s="48"/>
+      <c r="L175" s="48"/>
+      <c r="M175" s="48"/>
+      <c r="N175" s="48"/>
+      <c r="O175" s="48"/>
+      <c r="P175" s="65"/>
+      <c r="Q175" s="64"/>
+      <c r="R175" s="64"/>
+      <c r="S175" s="64"/>
+      <c r="T175" s="48"/>
+      <c r="U175" s="48"/>
+      <c r="V175" s="48"/>
+      <c r="W175" s="48"/>
+      <c r="X175" s="48"/>
+      <c r="Y175" s="48"/>
+      <c r="Z175" s="48"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A176" s="62"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="64"/>
+      <c r="D176" s="62"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="48"/>
+      <c r="L176" s="48"/>
+      <c r="M176" s="48"/>
+      <c r="N176" s="48"/>
+      <c r="O176" s="48"/>
+      <c r="P176" s="65"/>
+      <c r="Q176" s="64"/>
+      <c r="R176" s="64"/>
+      <c r="S176" s="64"/>
+      <c r="T176" s="48"/>
+      <c r="U176" s="48"/>
+      <c r="V176" s="48"/>
+      <c r="W176" s="48"/>
+      <c r="X176" s="48"/>
+      <c r="Y176" s="48"/>
+      <c r="Z176" s="48"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A177" s="62"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="62"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="62"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
+      <c r="J177" s="48"/>
+      <c r="K177" s="48"/>
+      <c r="L177" s="48"/>
+      <c r="M177" s="48"/>
+      <c r="N177" s="48"/>
+      <c r="O177" s="48"/>
+      <c r="P177" s="65"/>
+      <c r="Q177" s="64"/>
+      <c r="R177" s="64"/>
+      <c r="S177" s="64"/>
+      <c r="T177" s="48"/>
+      <c r="U177" s="48"/>
+      <c r="V177" s="48"/>
+      <c r="W177" s="48"/>
+      <c r="X177" s="48"/>
+      <c r="Y177" s="48"/>
+      <c r="Z177" s="48"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A178" s="62"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="64"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="62"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48"/>
+      <c r="J178" s="48"/>
+      <c r="K178" s="48"/>
+      <c r="L178" s="48"/>
+      <c r="M178" s="48"/>
+      <c r="N178" s="48"/>
+      <c r="O178" s="48"/>
+      <c r="P178" s="65"/>
+      <c r="Q178" s="64"/>
+      <c r="R178" s="64"/>
+      <c r="S178" s="64"/>
+      <c r="T178" s="48"/>
+      <c r="U178" s="48"/>
+      <c r="V178" s="48"/>
+      <c r="W178" s="48"/>
+      <c r="X178" s="48"/>
+      <c r="Y178" s="48"/>
+      <c r="Z178" s="48"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A179" s="62"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="64"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="63"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48"/>
+      <c r="J179" s="48"/>
+      <c r="K179" s="48"/>
+      <c r="L179" s="48"/>
+      <c r="M179" s="48"/>
+      <c r="N179" s="48"/>
+      <c r="O179" s="48"/>
+      <c r="P179" s="65"/>
+      <c r="Q179" s="64"/>
+      <c r="R179" s="64"/>
+      <c r="S179" s="64"/>
+      <c r="T179" s="48"/>
+      <c r="U179" s="48"/>
+      <c r="V179" s="48"/>
+      <c r="W179" s="48"/>
+      <c r="X179" s="48"/>
+      <c r="Y179" s="48"/>
+      <c r="Z179" s="48"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A180" s="62"/>
+      <c r="B180" s="62"/>
+      <c r="C180" s="64"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="62"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48"/>
+      <c r="J180" s="48"/>
+      <c r="K180" s="48"/>
+      <c r="L180" s="48"/>
+      <c r="M180" s="48"/>
+      <c r="N180" s="48"/>
+      <c r="O180" s="48"/>
+      <c r="P180" s="65"/>
+      <c r="Q180" s="64"/>
+      <c r="R180" s="64"/>
+      <c r="S180" s="64"/>
+      <c r="T180" s="48"/>
+      <c r="U180" s="48"/>
+      <c r="V180" s="48"/>
+      <c r="W180" s="48"/>
+      <c r="X180" s="48"/>
+      <c r="Y180" s="48"/>
+      <c r="Z180" s="48"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A181" s="62"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="64"/>
+      <c r="D181" s="62"/>
+      <c r="E181" s="63"/>
+      <c r="F181" s="62"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
+      <c r="J181" s="48"/>
+      <c r="K181" s="48"/>
+      <c r="L181" s="48"/>
+      <c r="M181" s="48"/>
+      <c r="N181" s="48"/>
+      <c r="O181" s="48"/>
+      <c r="P181" s="65"/>
+      <c r="Q181" s="64"/>
+      <c r="R181" s="64"/>
+      <c r="S181" s="64"/>
+      <c r="T181" s="48"/>
+      <c r="U181" s="48"/>
+      <c r="V181" s="48"/>
+      <c r="W181" s="48"/>
+      <c r="X181" s="48"/>
+      <c r="Y181" s="48"/>
+      <c r="Z181" s="48"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A182" s="62"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="48"/>
+      <c r="J182" s="48"/>
+      <c r="K182" s="48"/>
+      <c r="L182" s="48"/>
+      <c r="M182" s="48"/>
+      <c r="N182" s="48"/>
+      <c r="O182" s="48"/>
+      <c r="P182" s="65"/>
+      <c r="Q182" s="64"/>
+      <c r="R182" s="64"/>
+      <c r="S182" s="64"/>
+      <c r="T182" s="48"/>
+      <c r="U182" s="48"/>
+      <c r="V182" s="48"/>
+      <c r="W182" s="48"/>
+      <c r="X182" s="48"/>
+      <c r="Y182" s="48"/>
+      <c r="Z182" s="48"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A183" s="62"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="64"/>
+      <c r="D183" s="62"/>
+      <c r="E183" s="63"/>
+      <c r="F183" s="62"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="48"/>
+      <c r="I183" s="48"/>
+      <c r="J183" s="48"/>
+      <c r="K183" s="48"/>
+      <c r="L183" s="48"/>
+      <c r="M183" s="48"/>
+      <c r="N183" s="48"/>
+      <c r="O183" s="48"/>
+      <c r="P183" s="65"/>
+      <c r="Q183" s="64"/>
+      <c r="R183" s="64"/>
+      <c r="S183" s="64"/>
+      <c r="T183" s="48"/>
+      <c r="U183" s="48"/>
+      <c r="V183" s="48"/>
+      <c r="W183" s="48"/>
+      <c r="X183" s="48"/>
+      <c r="Y183" s="48"/>
+      <c r="Z183" s="48"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A184" s="62"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="64"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="63"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="48"/>
+      <c r="J184" s="48"/>
+      <c r="K184" s="48"/>
+      <c r="L184" s="48"/>
+      <c r="M184" s="48"/>
+      <c r="N184" s="48"/>
+      <c r="O184" s="48"/>
+      <c r="P184" s="65"/>
+      <c r="Q184" s="64"/>
+      <c r="R184" s="64"/>
+      <c r="S184" s="64"/>
+      <c r="T184" s="48"/>
+      <c r="U184" s="48"/>
+      <c r="V184" s="48"/>
+      <c r="W184" s="48"/>
+      <c r="X184" s="48"/>
+      <c r="Y184" s="48"/>
+      <c r="Z184" s="48"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A185" s="62"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="64"/>
+      <c r="D185" s="62"/>
+      <c r="E185" s="63"/>
+      <c r="F185" s="62"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="48"/>
+      <c r="L185" s="48"/>
+      <c r="M185" s="48"/>
+      <c r="N185" s="48"/>
+      <c r="O185" s="48"/>
+      <c r="P185" s="65"/>
+      <c r="Q185" s="64"/>
+      <c r="R185" s="64"/>
+      <c r="S185" s="64"/>
+      <c r="T185" s="48"/>
+      <c r="U185" s="48"/>
+      <c r="V185" s="48"/>
+      <c r="W185" s="48"/>
+      <c r="X185" s="48"/>
+      <c r="Y185" s="48"/>
+      <c r="Z185" s="48"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A186" s="62"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="64"/>
+      <c r="D186" s="62"/>
+      <c r="E186" s="63"/>
+      <c r="F186" s="62"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="48"/>
+      <c r="I186" s="48"/>
+      <c r="J186" s="48"/>
+      <c r="K186" s="48"/>
+      <c r="L186" s="48"/>
+      <c r="M186" s="48"/>
+      <c r="N186" s="48"/>
+      <c r="O186" s="48"/>
+      <c r="P186" s="65"/>
+      <c r="Q186" s="64"/>
+      <c r="R186" s="64"/>
+      <c r="S186" s="64"/>
+      <c r="T186" s="48"/>
+      <c r="U186" s="48"/>
+      <c r="V186" s="48"/>
+      <c r="W186" s="48"/>
+      <c r="X186" s="48"/>
+      <c r="Y186" s="48"/>
+      <c r="Z186" s="48"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A187" s="62"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="64"/>
+      <c r="D187" s="62"/>
+      <c r="E187" s="63"/>
+      <c r="F187" s="62"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="48"/>
+      <c r="I187" s="48"/>
+      <c r="J187" s="48"/>
+      <c r="K187" s="48"/>
+      <c r="L187" s="48"/>
+      <c r="M187" s="48"/>
+      <c r="N187" s="48"/>
+      <c r="O187" s="48"/>
+      <c r="P187" s="65"/>
+      <c r="Q187" s="64"/>
+      <c r="R187" s="64"/>
+      <c r="S187" s="64"/>
+      <c r="T187" s="48"/>
+      <c r="U187" s="48"/>
+      <c r="V187" s="48"/>
+      <c r="W187" s="48"/>
+      <c r="X187" s="48"/>
+      <c r="Y187" s="48"/>
+      <c r="Z187" s="48"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A188" s="62"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="62"/>
+      <c r="E188" s="63"/>
+      <c r="F188" s="62"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="48"/>
+      <c r="I188" s="48"/>
+      <c r="J188" s="48"/>
+      <c r="K188" s="48"/>
+      <c r="L188" s="48"/>
+      <c r="M188" s="48"/>
+      <c r="N188" s="48"/>
+      <c r="O188" s="48"/>
+      <c r="P188" s="65"/>
+      <c r="Q188" s="64"/>
+      <c r="R188" s="64"/>
+      <c r="S188" s="64"/>
+      <c r="T188" s="48"/>
+      <c r="U188" s="48"/>
+      <c r="V188" s="48"/>
+      <c r="W188" s="48"/>
+      <c r="X188" s="48"/>
+      <c r="Y188" s="48"/>
+      <c r="Z188" s="48"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A189" s="62"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="64"/>
+      <c r="D189" s="62"/>
+      <c r="E189" s="63"/>
+      <c r="F189" s="62"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="48"/>
+      <c r="I189" s="48"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="48"/>
+      <c r="L189" s="48"/>
+      <c r="M189" s="48"/>
+      <c r="N189" s="48"/>
+      <c r="O189" s="48"/>
+      <c r="P189" s="65"/>
+      <c r="Q189" s="64"/>
+      <c r="R189" s="64"/>
+      <c r="S189" s="64"/>
+      <c r="T189" s="48"/>
+      <c r="U189" s="48"/>
+      <c r="V189" s="48"/>
+      <c r="W189" s="48"/>
+      <c r="X189" s="48"/>
+      <c r="Y189" s="48"/>
+      <c r="Z189" s="48"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A190" s="62"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="64"/>
+      <c r="D190" s="62"/>
+      <c r="E190" s="63"/>
+      <c r="F190" s="62"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="48"/>
+      <c r="I190" s="48"/>
+      <c r="J190" s="48"/>
+      <c r="K190" s="48"/>
+      <c r="L190" s="48"/>
+      <c r="M190" s="48"/>
+      <c r="N190" s="48"/>
+      <c r="O190" s="48"/>
+      <c r="P190" s="65"/>
+      <c r="Q190" s="64"/>
+      <c r="R190" s="64"/>
+      <c r="S190" s="64"/>
+      <c r="T190" s="48"/>
+      <c r="U190" s="48"/>
+      <c r="V190" s="48"/>
+      <c r="W190" s="48"/>
+      <c r="X190" s="48"/>
+      <c r="Y190" s="48"/>
+      <c r="Z190" s="48"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A191" s="62"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="64"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="63"/>
+      <c r="F191" s="62"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="48"/>
+      <c r="J191" s="48"/>
+      <c r="K191" s="48"/>
+      <c r="L191" s="48"/>
+      <c r="M191" s="48"/>
+      <c r="N191" s="48"/>
+      <c r="O191" s="48"/>
+      <c r="P191" s="65"/>
+      <c r="Q191" s="64"/>
+      <c r="R191" s="64"/>
+      <c r="S191" s="64"/>
+      <c r="T191" s="48"/>
+      <c r="U191" s="48"/>
+      <c r="V191" s="48"/>
+      <c r="W191" s="48"/>
+      <c r="X191" s="48"/>
+      <c r="Y191" s="48"/>
+      <c r="Z191" s="48"/>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A192" s="62"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="64"/>
+      <c r="D192" s="62"/>
+      <c r="E192" s="63"/>
+      <c r="F192" s="62"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="48"/>
+      <c r="I192" s="48"/>
+      <c r="J192" s="48"/>
+      <c r="K192" s="48"/>
+      <c r="L192" s="48"/>
+      <c r="M192" s="48"/>
+      <c r="N192" s="48"/>
+      <c r="O192" s="48"/>
+      <c r="P192" s="65"/>
+      <c r="Q192" s="64"/>
+      <c r="R192" s="64"/>
+      <c r="S192" s="64"/>
+      <c r="T192" s="48"/>
+      <c r="U192" s="48"/>
+      <c r="V192" s="48"/>
+      <c r="W192" s="48"/>
+      <c r="X192" s="48"/>
+      <c r="Y192" s="48"/>
+      <c r="Z192" s="48"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A193" s="62"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="64"/>
+      <c r="D193" s="62"/>
+      <c r="E193" s="63"/>
+      <c r="F193" s="62"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="48"/>
+      <c r="J193" s="48"/>
+      <c r="K193" s="48"/>
+      <c r="L193" s="48"/>
+      <c r="M193" s="48"/>
+      <c r="N193" s="48"/>
+      <c r="O193" s="48"/>
+      <c r="P193" s="65"/>
+      <c r="Q193" s="64"/>
+      <c r="R193" s="64"/>
+      <c r="S193" s="64"/>
+      <c r="T193" s="48"/>
+      <c r="U193" s="48"/>
+      <c r="V193" s="48"/>
+      <c r="W193" s="48"/>
+      <c r="X193" s="48"/>
+      <c r="Y193" s="48"/>
+      <c r="Z193" s="48"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A194" s="62"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="64"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="63"/>
+      <c r="F194" s="62"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="48"/>
+      <c r="I194" s="48"/>
+      <c r="J194" s="48"/>
+      <c r="K194" s="48"/>
+      <c r="L194" s="48"/>
+      <c r="M194" s="48"/>
+      <c r="N194" s="48"/>
+      <c r="O194" s="48"/>
+      <c r="P194" s="65"/>
+      <c r="Q194" s="64"/>
+      <c r="R194" s="64"/>
+      <c r="S194" s="64"/>
+      <c r="T194" s="48"/>
+      <c r="U194" s="48"/>
+      <c r="V194" s="48"/>
+      <c r="W194" s="48"/>
+      <c r="X194" s="48"/>
+      <c r="Y194" s="48"/>
+      <c r="Z194" s="48"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A195" s="62"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="64"/>
+      <c r="D195" s="62"/>
+      <c r="E195" s="63"/>
+      <c r="F195" s="62"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="48"/>
+      <c r="I195" s="48"/>
+      <c r="J195" s="48"/>
+      <c r="K195" s="48"/>
+      <c r="L195" s="48"/>
+      <c r="M195" s="48"/>
+      <c r="N195" s="48"/>
+      <c r="O195" s="48"/>
+      <c r="P195" s="65"/>
+      <c r="Q195" s="64"/>
+      <c r="R195" s="64"/>
+      <c r="S195" s="64"/>
+      <c r="T195" s="48"/>
+      <c r="U195" s="48"/>
+      <c r="V195" s="48"/>
+      <c r="W195" s="48"/>
+      <c r="X195" s="48"/>
+      <c r="Y195" s="48"/>
+      <c r="Z195" s="48"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A196" s="62"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="64"/>
+      <c r="D196" s="62"/>
+      <c r="E196" s="63"/>
+      <c r="F196" s="62"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="48"/>
+      <c r="I196" s="48"/>
+      <c r="J196" s="48"/>
+      <c r="K196" s="48"/>
+      <c r="L196" s="48"/>
+      <c r="M196" s="48"/>
+      <c r="N196" s="48"/>
+      <c r="O196" s="48"/>
+      <c r="P196" s="65"/>
+      <c r="Q196" s="64"/>
+      <c r="R196" s="64"/>
+      <c r="S196" s="64"/>
+      <c r="T196" s="48"/>
+      <c r="U196" s="48"/>
+      <c r="V196" s="48"/>
+      <c r="W196" s="48"/>
+      <c r="X196" s="48"/>
+      <c r="Y196" s="48"/>
+      <c r="Z196" s="48"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A197" s="62"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="64"/>
+      <c r="D197" s="62"/>
+      <c r="E197" s="63"/>
+      <c r="F197" s="62"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
+      <c r="I197" s="48"/>
+      <c r="J197" s="48"/>
+      <c r="K197" s="48"/>
+      <c r="L197" s="48"/>
+      <c r="M197" s="48"/>
+      <c r="N197" s="48"/>
+      <c r="O197" s="48"/>
+      <c r="P197" s="65"/>
+      <c r="Q197" s="64"/>
+      <c r="R197" s="64"/>
+      <c r="S197" s="64"/>
+      <c r="T197" s="48"/>
+      <c r="U197" s="48"/>
+      <c r="V197" s="48"/>
+      <c r="W197" s="48"/>
+      <c r="X197" s="48"/>
+      <c r="Y197" s="48"/>
+      <c r="Z197" s="48"/>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A198" s="62"/>
+      <c r="B198" s="62"/>
+      <c r="C198" s="64"/>
+      <c r="D198" s="62"/>
+      <c r="E198" s="63"/>
+      <c r="F198" s="62"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="48"/>
+      <c r="I198" s="48"/>
+      <c r="J198" s="48"/>
+      <c r="K198" s="48"/>
+      <c r="L198" s="48"/>
+      <c r="M198" s="48"/>
+      <c r="N198" s="48"/>
+      <c r="O198" s="48"/>
+      <c r="P198" s="65"/>
+      <c r="Q198" s="64"/>
+      <c r="R198" s="64"/>
+      <c r="S198" s="64"/>
+      <c r="T198" s="48"/>
+      <c r="U198" s="48"/>
+      <c r="V198" s="48"/>
+      <c r="W198" s="48"/>
+      <c r="X198" s="48"/>
+      <c r="Y198" s="48"/>
+      <c r="Z198" s="48"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A199" s="62"/>
+      <c r="B199" s="62"/>
+      <c r="C199" s="64"/>
+      <c r="D199" s="62"/>
+      <c r="E199" s="63"/>
+      <c r="F199" s="62"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="48"/>
+      <c r="I199" s="48"/>
+      <c r="J199" s="48"/>
+      <c r="K199" s="48"/>
+      <c r="L199" s="48"/>
+      <c r="M199" s="48"/>
+      <c r="N199" s="48"/>
+      <c r="O199" s="48"/>
+      <c r="P199" s="65"/>
+      <c r="Q199" s="64"/>
+      <c r="R199" s="64"/>
+      <c r="S199" s="64"/>
+      <c r="T199" s="48"/>
+      <c r="U199" s="48"/>
+      <c r="V199" s="48"/>
+      <c r="W199" s="48"/>
+      <c r="X199" s="48"/>
+      <c r="Y199" s="48"/>
+      <c r="Z199" s="48"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A200" s="62"/>
+      <c r="B200" s="62"/>
+      <c r="C200" s="64"/>
+      <c r="D200" s="62"/>
+      <c r="E200" s="63"/>
+      <c r="F200" s="62"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="48"/>
+      <c r="I200" s="48"/>
+      <c r="J200" s="48"/>
+      <c r="K200" s="48"/>
+      <c r="L200" s="48"/>
+      <c r="M200" s="48"/>
+      <c r="N200" s="48"/>
+      <c r="O200" s="48"/>
+      <c r="P200" s="65"/>
+      <c r="Q200" s="64"/>
+      <c r="R200" s="64"/>
+      <c r="S200" s="64"/>
+      <c r="T200" s="48"/>
+      <c r="U200" s="48"/>
+      <c r="V200" s="48"/>
+      <c r="W200" s="48"/>
+      <c r="X200" s="48"/>
+      <c r="Y200" s="48"/>
+      <c r="Z200" s="48"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A201" s="62"/>
+      <c r="B201" s="62"/>
+      <c r="C201" s="64"/>
+      <c r="D201" s="62"/>
+      <c r="E201" s="63"/>
+      <c r="F201" s="62"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
+      <c r="J201" s="48"/>
+      <c r="K201" s="48"/>
+      <c r="L201" s="48"/>
+      <c r="M201" s="48"/>
+      <c r="N201" s="48"/>
+      <c r="O201" s="48"/>
+      <c r="P201" s="65"/>
+      <c r="Q201" s="64"/>
+      <c r="R201" s="64"/>
+      <c r="S201" s="64"/>
+      <c r="T201" s="48"/>
+      <c r="U201" s="48"/>
+      <c r="V201" s="48"/>
+      <c r="W201" s="48"/>
+      <c r="X201" s="48"/>
+      <c r="Y201" s="48"/>
+      <c r="Z201" s="48"/>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A202" s="62"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="64"/>
+      <c r="D202" s="62"/>
+      <c r="E202" s="63"/>
+      <c r="F202" s="62"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="48"/>
+      <c r="I202" s="48"/>
+      <c r="J202" s="48"/>
+      <c r="K202" s="48"/>
+      <c r="L202" s="48"/>
+      <c r="M202" s="48"/>
+      <c r="N202" s="48"/>
+      <c r="O202" s="48"/>
+      <c r="P202" s="65"/>
+      <c r="Q202" s="64"/>
+      <c r="R202" s="64"/>
+      <c r="S202" s="64"/>
+      <c r="T202" s="48"/>
+      <c r="U202" s="48"/>
+      <c r="V202" s="48"/>
+      <c r="W202" s="48"/>
+      <c r="X202" s="48"/>
+      <c r="Y202" s="48"/>
+      <c r="Z202" s="48"/>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A203" s="62"/>
+      <c r="B203" s="62"/>
+      <c r="C203" s="64"/>
+      <c r="D203" s="62"/>
+      <c r="E203" s="63"/>
+      <c r="F203" s="62"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="48"/>
+      <c r="I203" s="48"/>
+      <c r="J203" s="48"/>
+      <c r="K203" s="48"/>
+      <c r="L203" s="48"/>
+      <c r="M203" s="48"/>
+      <c r="N203" s="48"/>
+      <c r="O203" s="48"/>
+      <c r="P203" s="65"/>
+      <c r="Q203" s="64"/>
+      <c r="R203" s="64"/>
+      <c r="S203" s="64"/>
+      <c r="T203" s="48"/>
+      <c r="U203" s="48"/>
+      <c r="V203" s="48"/>
+      <c r="W203" s="48"/>
+      <c r="X203" s="48"/>
+      <c r="Y203" s="48"/>
+      <c r="Z203" s="48"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A204" s="62"/>
+      <c r="B204" s="62"/>
+      <c r="C204" s="64"/>
+      <c r="D204" s="62"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="62"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="48"/>
+      <c r="I204" s="48"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="48"/>
+      <c r="L204" s="48"/>
+      <c r="M204" s="48"/>
+      <c r="N204" s="48"/>
+      <c r="O204" s="48"/>
+      <c r="P204" s="65"/>
+      <c r="Q204" s="64"/>
+      <c r="R204" s="64"/>
+      <c r="S204" s="64"/>
+      <c r="T204" s="48"/>
+      <c r="U204" s="48"/>
+      <c r="V204" s="48"/>
+      <c r="W204" s="48"/>
+      <c r="X204" s="48"/>
+      <c r="Y204" s="48"/>
+      <c r="Z204" s="48"/>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A205" s="62"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="64"/>
+      <c r="D205" s="62"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="62"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="48"/>
+      <c r="I205" s="48"/>
+      <c r="J205" s="48"/>
+      <c r="K205" s="48"/>
+      <c r="L205" s="48"/>
+      <c r="M205" s="48"/>
+      <c r="N205" s="48"/>
+      <c r="O205" s="48"/>
+      <c r="P205" s="65"/>
+      <c r="Q205" s="64"/>
+      <c r="R205" s="64"/>
+      <c r="S205" s="64"/>
+      <c r="T205" s="48"/>
+      <c r="U205" s="48"/>
+      <c r="V205" s="48"/>
+      <c r="W205" s="48"/>
+      <c r="X205" s="48"/>
+      <c r="Y205" s="48"/>
+      <c r="Z205" s="48"/>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A206" s="62"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="64"/>
+      <c r="D206" s="62"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="62"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="48"/>
+      <c r="L206" s="48"/>
+      <c r="M206" s="48"/>
+      <c r="N206" s="48"/>
+      <c r="O206" s="48"/>
+      <c r="P206" s="65"/>
+      <c r="Q206" s="64"/>
+      <c r="R206" s="64"/>
+      <c r="S206" s="64"/>
+      <c r="T206" s="48"/>
+      <c r="U206" s="48"/>
+      <c r="V206" s="48"/>
+      <c r="W206" s="48"/>
+      <c r="X206" s="48"/>
+      <c r="Y206" s="48"/>
+      <c r="Z206" s="48"/>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A207" s="62"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="64"/>
+      <c r="D207" s="62"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="62"/>
+      <c r="G207" s="48"/>
+      <c r="H207" s="48"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="48"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="48"/>
+      <c r="N207" s="48"/>
+      <c r="O207" s="48"/>
+      <c r="P207" s="65"/>
+      <c r="Q207" s="64"/>
+      <c r="R207" s="64"/>
+      <c r="S207" s="64"/>
+      <c r="T207" s="48"/>
+      <c r="U207" s="48"/>
+      <c r="V207" s="48"/>
+      <c r="W207" s="48"/>
+      <c r="X207" s="48"/>
+      <c r="Y207" s="48"/>
+      <c r="Z207" s="48"/>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A208" s="62"/>
+      <c r="B208" s="62"/>
+      <c r="C208" s="64"/>
+      <c r="D208" s="62"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="62"/>
+      <c r="G208" s="48"/>
+      <c r="H208" s="48"/>
+      <c r="I208" s="48"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="48"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="48"/>
+      <c r="N208" s="48"/>
+      <c r="O208" s="48"/>
+      <c r="P208" s="65"/>
+      <c r="Q208" s="64"/>
+      <c r="R208" s="64"/>
+      <c r="S208" s="64"/>
+      <c r="T208" s="48"/>
+      <c r="U208" s="48"/>
+      <c r="V208" s="48"/>
+      <c r="W208" s="48"/>
+      <c r="X208" s="48"/>
+      <c r="Y208" s="48"/>
+      <c r="Z208" s="48"/>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A209" s="62"/>
+      <c r="B209" s="62"/>
+      <c r="C209" s="64"/>
+      <c r="D209" s="62"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="62"/>
+      <c r="G209" s="48"/>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="48"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="48"/>
+      <c r="N209" s="48"/>
+      <c r="O209" s="48"/>
+      <c r="P209" s="65"/>
+      <c r="Q209" s="64"/>
+      <c r="R209" s="64"/>
+      <c r="S209" s="64"/>
+      <c r="T209" s="48"/>
+      <c r="U209" s="48"/>
+      <c r="V209" s="48"/>
+      <c r="W209" s="48"/>
+      <c r="X209" s="48"/>
+      <c r="Y209" s="48"/>
+      <c r="Z209" s="48"/>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A210" s="62"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="64"/>
+      <c r="D210" s="62"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="62"/>
+      <c r="G210" s="48"/>
+      <c r="H210" s="48"/>
+      <c r="I210" s="48"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="48"/>
+      <c r="L210" s="48"/>
+      <c r="M210" s="48"/>
+      <c r="N210" s="48"/>
+      <c r="O210" s="48"/>
+      <c r="P210" s="65"/>
+      <c r="Q210" s="64"/>
+      <c r="R210" s="64"/>
+      <c r="S210" s="64"/>
+      <c r="T210" s="48"/>
+      <c r="U210" s="48"/>
+      <c r="V210" s="48"/>
+      <c r="W210" s="48"/>
+      <c r="X210" s="48"/>
+      <c r="Y210" s="48"/>
+      <c r="Z210" s="48"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A211" s="62"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="64"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="63"/>
+      <c r="F211" s="62"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="48"/>
+      <c r="I211" s="48"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="48"/>
+      <c r="L211" s="48"/>
+      <c r="M211" s="48"/>
+      <c r="N211" s="48"/>
+      <c r="O211" s="48"/>
+      <c r="P211" s="65"/>
+      <c r="Q211" s="64"/>
+      <c r="R211" s="64"/>
+      <c r="S211" s="64"/>
+      <c r="T211" s="48"/>
+      <c r="U211" s="48"/>
+      <c r="V211" s="48"/>
+      <c r="W211" s="48"/>
+      <c r="X211" s="48"/>
+      <c r="Y211" s="48"/>
+      <c r="Z211" s="48"/>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A212" s="62"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="64"/>
+      <c r="D212" s="62"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="62"/>
+      <c r="G212" s="48"/>
+      <c r="H212" s="48"/>
+      <c r="I212" s="48"/>
+      <c r="J212" s="48"/>
+      <c r="K212" s="48"/>
+      <c r="L212" s="48"/>
+      <c r="M212" s="48"/>
+      <c r="N212" s="48"/>
+      <c r="O212" s="48"/>
+      <c r="P212" s="65"/>
+      <c r="Q212" s="64"/>
+      <c r="R212" s="64"/>
+      <c r="S212" s="64"/>
+      <c r="T212" s="48"/>
+      <c r="U212" s="48"/>
+      <c r="V212" s="48"/>
+      <c r="W212" s="48"/>
+      <c r="X212" s="48"/>
+      <c r="Y212" s="48"/>
+      <c r="Z212" s="48"/>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A213" s="62"/>
+      <c r="B213" s="62"/>
+      <c r="C213" s="64"/>
+      <c r="D213" s="62"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="62"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
+      <c r="J213" s="48"/>
+      <c r="K213" s="48"/>
+      <c r="L213" s="48"/>
+      <c r="M213" s="48"/>
+      <c r="N213" s="48"/>
+      <c r="O213" s="48"/>
+      <c r="P213" s="65"/>
+      <c r="Q213" s="64"/>
+      <c r="R213" s="64"/>
+      <c r="S213" s="64"/>
+      <c r="T213" s="48"/>
+      <c r="U213" s="48"/>
+      <c r="V213" s="48"/>
+      <c r="W213" s="48"/>
+      <c r="X213" s="48"/>
+      <c r="Y213" s="48"/>
+      <c r="Z213" s="48"/>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A214" s="62"/>
+      <c r="B214" s="62"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="62"/>
+      <c r="E214" s="63"/>
+      <c r="F214" s="62"/>
+      <c r="G214" s="48"/>
+      <c r="H214" s="48"/>
+      <c r="I214" s="48"/>
+      <c r="J214" s="48"/>
+      <c r="K214" s="48"/>
+      <c r="L214" s="48"/>
+      <c r="M214" s="48"/>
+      <c r="N214" s="48"/>
+      <c r="O214" s="48"/>
+      <c r="P214" s="65"/>
+      <c r="Q214" s="64"/>
+      <c r="R214" s="64"/>
+      <c r="S214" s="64"/>
+      <c r="T214" s="48"/>
+      <c r="U214" s="48"/>
+      <c r="V214" s="48"/>
+      <c r="W214" s="48"/>
+      <c r="X214" s="48"/>
+      <c r="Y214" s="48"/>
+      <c r="Z214" s="48"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A215" s="62"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="64"/>
+      <c r="D215" s="62"/>
+      <c r="E215" s="63"/>
+      <c r="F215" s="62"/>
+      <c r="G215" s="48"/>
+      <c r="H215" s="48"/>
+      <c r="I215" s="48"/>
+      <c r="J215" s="48"/>
+      <c r="K215" s="48"/>
+      <c r="L215" s="48"/>
+      <c r="M215" s="48"/>
+      <c r="N215" s="48"/>
+      <c r="O215" s="48"/>
+      <c r="P215" s="65"/>
+      <c r="Q215" s="64"/>
+      <c r="R215" s="64"/>
+      <c r="S215" s="64"/>
+      <c r="T215" s="48"/>
+      <c r="U215" s="48"/>
+      <c r="V215" s="48"/>
+      <c r="W215" s="48"/>
+      <c r="X215" s="48"/>
+      <c r="Y215" s="48"/>
+      <c r="Z215" s="48"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A216" s="62"/>
+      <c r="B216" s="62"/>
+      <c r="C216" s="64"/>
+      <c r="D216" s="62"/>
+      <c r="E216" s="63"/>
+      <c r="F216" s="62"/>
+      <c r="G216" s="48"/>
+      <c r="H216" s="48"/>
+      <c r="I216" s="48"/>
+      <c r="J216" s="48"/>
+      <c r="K216" s="48"/>
+      <c r="L216" s="48"/>
+      <c r="M216" s="48"/>
+      <c r="N216" s="48"/>
+      <c r="O216" s="48"/>
+      <c r="P216" s="65"/>
+      <c r="Q216" s="64"/>
+      <c r="R216" s="64"/>
+      <c r="S216" s="64"/>
+      <c r="T216" s="48"/>
+      <c r="U216" s="48"/>
+      <c r="V216" s="48"/>
+      <c r="W216" s="48"/>
+      <c r="X216" s="48"/>
+      <c r="Y216" s="48"/>
+      <c r="Z216" s="48"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A217" s="62"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="64"/>
+      <c r="D217" s="62"/>
+      <c r="E217" s="63"/>
+      <c r="F217" s="62"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="48"/>
+      <c r="I217" s="48"/>
+      <c r="J217" s="48"/>
+      <c r="K217" s="48"/>
+      <c r="L217" s="48"/>
+      <c r="M217" s="48"/>
+      <c r="N217" s="48"/>
+      <c r="O217" s="48"/>
+      <c r="P217" s="65"/>
+      <c r="Q217" s="64"/>
+      <c r="R217" s="64"/>
+      <c r="S217" s="64"/>
+      <c r="T217" s="48"/>
+      <c r="U217" s="48"/>
+      <c r="V217" s="48"/>
+      <c r="W217" s="48"/>
+      <c r="X217" s="48"/>
+      <c r="Y217" s="48"/>
+      <c r="Z217" s="48"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A218" s="62"/>
+      <c r="B218" s="62"/>
+      <c r="C218" s="64"/>
+      <c r="D218" s="62"/>
+      <c r="E218" s="63"/>
+      <c r="F218" s="62"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="48"/>
+      <c r="I218" s="48"/>
+      <c r="J218" s="48"/>
+      <c r="K218" s="48"/>
+      <c r="L218" s="48"/>
+      <c r="M218" s="48"/>
+      <c r="N218" s="48"/>
+      <c r="O218" s="48"/>
+      <c r="P218" s="65"/>
+      <c r="Q218" s="64"/>
+      <c r="R218" s="64"/>
+      <c r="S218" s="64"/>
+      <c r="T218" s="48"/>
+      <c r="U218" s="48"/>
+      <c r="V218" s="48"/>
+      <c r="W218" s="48"/>
+      <c r="X218" s="48"/>
+      <c r="Y218" s="48"/>
+      <c r="Z218" s="48"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A219" s="62"/>
+      <c r="B219" s="62"/>
+      <c r="C219" s="64"/>
+      <c r="D219" s="62"/>
+      <c r="E219" s="63"/>
+      <c r="F219" s="62"/>
+      <c r="G219" s="48"/>
+      <c r="H219" s="48"/>
+      <c r="I219" s="48"/>
+      <c r="J219" s="48"/>
+      <c r="K219" s="48"/>
+      <c r="L219" s="48"/>
+      <c r="M219" s="48"/>
+      <c r="N219" s="48"/>
+      <c r="O219" s="48"/>
+      <c r="P219" s="65"/>
+      <c r="Q219" s="64"/>
+      <c r="R219" s="64"/>
+      <c r="S219" s="64"/>
+      <c r="T219" s="48"/>
+      <c r="U219" s="48"/>
+      <c r="V219" s="48"/>
+      <c r="W219" s="48"/>
+      <c r="X219" s="48"/>
+      <c r="Y219" s="48"/>
+      <c r="Z219" s="48"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A220" s="62"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="62"/>
+      <c r="E220" s="63"/>
+      <c r="F220" s="62"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="48"/>
+      <c r="I220" s="48"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="48"/>
+      <c r="L220" s="48"/>
+      <c r="M220" s="48"/>
+      <c r="N220" s="48"/>
+      <c r="O220" s="48"/>
+      <c r="P220" s="65"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="64"/>
+      <c r="S220" s="64"/>
+      <c r="T220" s="48"/>
+      <c r="U220" s="48"/>
+      <c r="V220" s="48"/>
+      <c r="W220" s="48"/>
+      <c r="X220" s="48"/>
+      <c r="Y220" s="48"/>
+      <c r="Z220" s="48"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A221" s="62"/>
+      <c r="B221" s="62"/>
+      <c r="C221" s="64"/>
+      <c r="D221" s="62"/>
+      <c r="E221" s="63"/>
+      <c r="F221" s="62"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="48"/>
+      <c r="I221" s="48"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="48"/>
+      <c r="L221" s="48"/>
+      <c r="M221" s="48"/>
+      <c r="N221" s="48"/>
+      <c r="O221" s="48"/>
+      <c r="P221" s="65"/>
+      <c r="Q221" s="64"/>
+      <c r="R221" s="64"/>
+      <c r="S221" s="64"/>
+      <c r="T221" s="48"/>
+      <c r="U221" s="48"/>
+      <c r="V221" s="48"/>
+      <c r="W221" s="48"/>
+      <c r="X221" s="48"/>
+      <c r="Y221" s="48"/>
+      <c r="Z221" s="48"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A222" s="62"/>
+      <c r="B222" s="62"/>
+      <c r="C222" s="64"/>
+      <c r="D222" s="62"/>
+      <c r="E222" s="63"/>
+      <c r="F222" s="62"/>
+      <c r="G222" s="48"/>
+      <c r="H222" s="48"/>
+      <c r="I222" s="48"/>
+      <c r="J222" s="48"/>
+      <c r="K222" s="48"/>
+      <c r="L222" s="48"/>
+      <c r="M222" s="48"/>
+      <c r="N222" s="48"/>
+      <c r="O222" s="48"/>
+      <c r="P222" s="65"/>
+      <c r="Q222" s="64"/>
+      <c r="R222" s="64"/>
+      <c r="S222" s="64"/>
+      <c r="T222" s="48"/>
+      <c r="U222" s="48"/>
+      <c r="V222" s="48"/>
+      <c r="W222" s="48"/>
+      <c r="X222" s="48"/>
+      <c r="Y222" s="48"/>
+      <c r="Z222" s="48"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A223" s="62"/>
+      <c r="B223" s="62"/>
+      <c r="C223" s="64"/>
+      <c r="D223" s="62"/>
+      <c r="E223" s="63"/>
+      <c r="F223" s="62"/>
+      <c r="G223" s="48"/>
+      <c r="H223" s="48"/>
+      <c r="I223" s="48"/>
+      <c r="J223" s="48"/>
+      <c r="K223" s="48"/>
+      <c r="L223" s="48"/>
+      <c r="M223" s="48"/>
+      <c r="N223" s="48"/>
+      <c r="O223" s="48"/>
+      <c r="P223" s="65"/>
+      <c r="Q223" s="64"/>
+      <c r="R223" s="64"/>
+      <c r="S223" s="64"/>
+      <c r="T223" s="48"/>
+      <c r="U223" s="48"/>
+      <c r="V223" s="48"/>
+      <c r="W223" s="48"/>
+      <c r="X223" s="48"/>
+      <c r="Y223" s="48"/>
+      <c r="Z223" s="48"/>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A224" s="62"/>
+      <c r="B224" s="62"/>
+      <c r="C224" s="64"/>
+      <c r="D224" s="62"/>
+      <c r="E224" s="63"/>
+      <c r="F224" s="62"/>
+      <c r="G224" s="48"/>
+      <c r="H224" s="48"/>
+      <c r="I224" s="48"/>
+      <c r="J224" s="48"/>
+      <c r="K224" s="48"/>
+      <c r="L224" s="48"/>
+      <c r="M224" s="48"/>
+      <c r="N224" s="48"/>
+      <c r="O224" s="48"/>
+      <c r="P224" s="65"/>
+      <c r="Q224" s="64"/>
+      <c r="R224" s="64"/>
+      <c r="S224" s="64"/>
+      <c r="T224" s="48"/>
+      <c r="U224" s="48"/>
+      <c r="V224" s="48"/>
+      <c r="W224" s="48"/>
+      <c r="X224" s="48"/>
+      <c r="Y224" s="48"/>
+      <c r="Z224" s="48"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A225" s="62"/>
+      <c r="B225" s="62"/>
+      <c r="C225" s="64"/>
+      <c r="D225" s="62"/>
+      <c r="E225" s="63"/>
+      <c r="F225" s="62"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="48"/>
+      <c r="I225" s="48"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="48"/>
+      <c r="L225" s="48"/>
+      <c r="M225" s="48"/>
+      <c r="N225" s="48"/>
+      <c r="O225" s="48"/>
+      <c r="P225" s="65"/>
+      <c r="Q225" s="64"/>
+      <c r="R225" s="64"/>
+      <c r="S225" s="64"/>
+      <c r="T225" s="48"/>
+      <c r="U225" s="48"/>
+      <c r="V225" s="48"/>
+      <c r="W225" s="48"/>
+      <c r="X225" s="48"/>
+      <c r="Y225" s="48"/>
+      <c r="Z225" s="48"/>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A226" s="62"/>
+      <c r="B226" s="62"/>
+      <c r="C226" s="64"/>
+      <c r="D226" s="62"/>
+      <c r="E226" s="63"/>
+      <c r="F226" s="62"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="48"/>
+      <c r="I226" s="48"/>
+      <c r="J226" s="48"/>
+      <c r="K226" s="48"/>
+      <c r="L226" s="48"/>
+      <c r="M226" s="48"/>
+      <c r="N226" s="48"/>
+      <c r="O226" s="48"/>
+      <c r="P226" s="65"/>
+      <c r="Q226" s="64"/>
+      <c r="R226" s="64"/>
+      <c r="S226" s="64"/>
+      <c r="T226" s="48"/>
+      <c r="U226" s="48"/>
+      <c r="V226" s="48"/>
+      <c r="W226" s="48"/>
+      <c r="X226" s="48"/>
+      <c r="Y226" s="48"/>
+      <c r="Z226" s="48"/>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A227" s="62"/>
+      <c r="B227" s="62"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="62"/>
+      <c r="E227" s="63"/>
+      <c r="F227" s="62"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="48"/>
+      <c r="I227" s="48"/>
+      <c r="J227" s="48"/>
+      <c r="K227" s="48"/>
+      <c r="L227" s="48"/>
+      <c r="M227" s="48"/>
+      <c r="N227" s="48"/>
+      <c r="O227" s="48"/>
+      <c r="P227" s="65"/>
+      <c r="Q227" s="64"/>
+      <c r="R227" s="64"/>
+      <c r="S227" s="64"/>
+      <c r="T227" s="48"/>
+      <c r="U227" s="48"/>
+      <c r="V227" s="48"/>
+      <c r="W227" s="48"/>
+      <c r="X227" s="48"/>
+      <c r="Y227" s="48"/>
+      <c r="Z227" s="48"/>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A228" s="62"/>
+      <c r="B228" s="62"/>
+      <c r="C228" s="64"/>
+      <c r="D228" s="62"/>
+      <c r="E228" s="63"/>
+      <c r="F228" s="62"/>
+      <c r="G228" s="48"/>
+      <c r="H228" s="48"/>
+      <c r="I228" s="48"/>
+      <c r="J228" s="48"/>
+      <c r="K228" s="48"/>
+      <c r="L228" s="48"/>
+      <c r="M228" s="48"/>
+      <c r="N228" s="48"/>
+      <c r="O228" s="48"/>
+      <c r="P228" s="65"/>
+      <c r="Q228" s="64"/>
+      <c r="R228" s="64"/>
+      <c r="S228" s="64"/>
+      <c r="T228" s="48"/>
+      <c r="U228" s="48"/>
+      <c r="V228" s="48"/>
+      <c r="W228" s="48"/>
+      <c r="X228" s="48"/>
+      <c r="Y228" s="48"/>
+      <c r="Z228" s="48"/>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A229" s="62"/>
+      <c r="B229" s="62"/>
+      <c r="C229" s="64"/>
+      <c r="D229" s="62"/>
+      <c r="E229" s="63"/>
+      <c r="F229" s="62"/>
+      <c r="G229" s="48"/>
+      <c r="H229" s="48"/>
+      <c r="I229" s="48"/>
+      <c r="J229" s="48"/>
+      <c r="K229" s="48"/>
+      <c r="L229" s="48"/>
+      <c r="M229" s="48"/>
+      <c r="N229" s="48"/>
+      <c r="O229" s="48"/>
+      <c r="P229" s="65"/>
+      <c r="Q229" s="64"/>
+      <c r="R229" s="64"/>
+      <c r="S229" s="64"/>
+      <c r="T229" s="48"/>
+      <c r="U229" s="48"/>
+      <c r="V229" s="48"/>
+      <c r="W229" s="48"/>
+      <c r="X229" s="48"/>
+      <c r="Y229" s="48"/>
+      <c r="Z229" s="48"/>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A230" s="62"/>
+      <c r="B230" s="62"/>
+      <c r="C230" s="64"/>
+      <c r="D230" s="62"/>
+      <c r="E230" s="63"/>
+      <c r="F230" s="62"/>
+      <c r="G230" s="48"/>
+      <c r="H230" s="48"/>
+      <c r="I230" s="48"/>
+      <c r="J230" s="48"/>
+      <c r="K230" s="48"/>
+      <c r="L230" s="48"/>
+      <c r="M230" s="48"/>
+      <c r="N230" s="48"/>
+      <c r="O230" s="48"/>
+      <c r="P230" s="65"/>
+      <c r="Q230" s="64"/>
+      <c r="R230" s="64"/>
+      <c r="S230" s="64"/>
+      <c r="T230" s="48"/>
+      <c r="U230" s="48"/>
+      <c r="V230" s="48"/>
+      <c r="W230" s="48"/>
+      <c r="X230" s="48"/>
+      <c r="Y230" s="48"/>
+      <c r="Z230" s="48"/>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A231" s="62"/>
+      <c r="B231" s="62"/>
+      <c r="C231" s="64"/>
+      <c r="D231" s="62"/>
+      <c r="E231" s="63"/>
+      <c r="F231" s="62"/>
+      <c r="G231" s="48"/>
+      <c r="H231" s="48"/>
+      <c r="I231" s="48"/>
+      <c r="J231" s="48"/>
+      <c r="K231" s="48"/>
+      <c r="L231" s="48"/>
+      <c r="M231" s="48"/>
+      <c r="N231" s="48"/>
+      <c r="O231" s="48"/>
+      <c r="P231" s="65"/>
+      <c r="Q231" s="64"/>
+      <c r="R231" s="64"/>
+      <c r="S231" s="64"/>
+      <c r="T231" s="48"/>
+      <c r="U231" s="48"/>
+      <c r="V231" s="48"/>
+      <c r="W231" s="48"/>
+      <c r="X231" s="48"/>
+      <c r="Y231" s="48"/>
+      <c r="Z231" s="48"/>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A232" s="62"/>
+      <c r="B232" s="62"/>
+      <c r="C232" s="64"/>
+      <c r="D232" s="62"/>
+      <c r="E232" s="63"/>
+      <c r="F232" s="62"/>
+      <c r="G232" s="48"/>
+      <c r="H232" s="48"/>
+      <c r="I232" s="48"/>
+      <c r="J232" s="48"/>
+      <c r="K232" s="48"/>
+      <c r="L232" s="48"/>
+      <c r="M232" s="48"/>
+      <c r="N232" s="48"/>
+      <c r="O232" s="48"/>
+      <c r="P232" s="65"/>
+      <c r="Q232" s="64"/>
+      <c r="R232" s="64"/>
+      <c r="S232" s="64"/>
+      <c r="T232" s="48"/>
+      <c r="U232" s="48"/>
+      <c r="V232" s="48"/>
+      <c r="W232" s="48"/>
+      <c r="X232" s="48"/>
+      <c r="Y232" s="48"/>
+      <c r="Z232" s="48"/>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A233" s="62"/>
+      <c r="B233" s="62"/>
+      <c r="C233" s="64"/>
+      <c r="D233" s="62"/>
+      <c r="E233" s="63"/>
+      <c r="F233" s="62"/>
+      <c r="G233" s="48"/>
+      <c r="H233" s="48"/>
+      <c r="I233" s="48"/>
+      <c r="J233" s="48"/>
+      <c r="K233" s="48"/>
+      <c r="L233" s="48"/>
+      <c r="M233" s="48"/>
+      <c r="N233" s="48"/>
+      <c r="O233" s="48"/>
+      <c r="P233" s="65"/>
+      <c r="Q233" s="64"/>
+      <c r="R233" s="64"/>
+      <c r="S233" s="64"/>
+      <c r="T233" s="48"/>
+      <c r="U233" s="48"/>
+      <c r="V233" s="48"/>
+      <c r="W233" s="48"/>
+      <c r="X233" s="48"/>
+      <c r="Y233" s="48"/>
+      <c r="Z233" s="48"/>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A234" s="62"/>
+      <c r="B234" s="62"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="62"/>
+      <c r="E234" s="63"/>
+      <c r="F234" s="62"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="48"/>
+      <c r="I234" s="48"/>
+      <c r="J234" s="48"/>
+      <c r="K234" s="48"/>
+      <c r="L234" s="48"/>
+      <c r="M234" s="48"/>
+      <c r="N234" s="48"/>
+      <c r="O234" s="48"/>
+      <c r="P234" s="65"/>
+      <c r="Q234" s="64"/>
+      <c r="R234" s="64"/>
+      <c r="S234" s="64"/>
+      <c r="T234" s="48"/>
+      <c r="U234" s="48"/>
+      <c r="V234" s="48"/>
+      <c r="W234" s="48"/>
+      <c r="X234" s="48"/>
+      <c r="Y234" s="48"/>
+      <c r="Z234" s="48"/>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A235" s="62"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="64"/>
+      <c r="D235" s="62"/>
+      <c r="E235" s="63"/>
+      <c r="F235" s="62"/>
+      <c r="G235" s="48"/>
+      <c r="H235" s="48"/>
+      <c r="I235" s="48"/>
+      <c r="J235" s="48"/>
+      <c r="K235" s="48"/>
+      <c r="L235" s="48"/>
+      <c r="M235" s="48"/>
+      <c r="N235" s="48"/>
+      <c r="O235" s="48"/>
+      <c r="P235" s="65"/>
+      <c r="Q235" s="64"/>
+      <c r="R235" s="64"/>
+      <c r="S235" s="64"/>
+      <c r="T235" s="48"/>
+      <c r="U235" s="48"/>
+      <c r="V235" s="48"/>
+      <c r="W235" s="48"/>
+      <c r="X235" s="48"/>
+      <c r="Y235" s="48"/>
+      <c r="Z235" s="48"/>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A236" s="62"/>
+      <c r="B236" s="62"/>
+      <c r="C236" s="64"/>
+      <c r="D236" s="62"/>
+      <c r="E236" s="63"/>
+      <c r="F236" s="62"/>
+      <c r="G236" s="48"/>
+      <c r="H236" s="48"/>
+      <c r="I236" s="48"/>
+      <c r="J236" s="48"/>
+      <c r="K236" s="48"/>
+      <c r="L236" s="48"/>
+      <c r="M236" s="48"/>
+      <c r="N236" s="48"/>
+      <c r="O236" s="48"/>
+      <c r="P236" s="65"/>
+      <c r="Q236" s="64"/>
+      <c r="R236" s="64"/>
+      <c r="S236" s="64"/>
+      <c r="T236" s="48"/>
+      <c r="U236" s="48"/>
+      <c r="V236" s="48"/>
+      <c r="W236" s="48"/>
+      <c r="X236" s="48"/>
+      <c r="Y236" s="48"/>
+      <c r="Z236" s="48"/>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A237" s="62"/>
+      <c r="B237" s="62"/>
+      <c r="C237" s="64"/>
+      <c r="D237" s="62"/>
+      <c r="E237" s="63"/>
+      <c r="F237" s="62"/>
+      <c r="G237" s="48"/>
+      <c r="H237" s="48"/>
+      <c r="I237" s="48"/>
+      <c r="J237" s="48"/>
+      <c r="K237" s="48"/>
+      <c r="L237" s="48"/>
+      <c r="M237" s="48"/>
+      <c r="N237" s="48"/>
+      <c r="O237" s="48"/>
+      <c r="P237" s="65"/>
+      <c r="Q237" s="64"/>
+      <c r="R237" s="64"/>
+      <c r="S237" s="64"/>
+      <c r="T237" s="48"/>
+      <c r="U237" s="48"/>
+      <c r="V237" s="48"/>
+      <c r="W237" s="48"/>
+      <c r="X237" s="48"/>
+      <c r="Y237" s="48"/>
+      <c r="Z237" s="48"/>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A238" s="62"/>
+      <c r="B238" s="62"/>
+      <c r="C238" s="64"/>
+      <c r="D238" s="62"/>
+      <c r="E238" s="63"/>
+      <c r="F238" s="62"/>
+      <c r="G238" s="48"/>
+      <c r="H238" s="48"/>
+      <c r="I238" s="48"/>
+      <c r="J238" s="48"/>
+      <c r="K238" s="48"/>
+      <c r="L238" s="48"/>
+      <c r="M238" s="48"/>
+      <c r="N238" s="48"/>
+      <c r="O238" s="48"/>
+      <c r="P238" s="65"/>
+      <c r="Q238" s="64"/>
+      <c r="R238" s="64"/>
+      <c r="S238" s="64"/>
+      <c r="T238" s="48"/>
+      <c r="U238" s="48"/>
+      <c r="V238" s="48"/>
+      <c r="W238" s="48"/>
+      <c r="X238" s="48"/>
+      <c r="Y238" s="48"/>
+      <c r="Z238" s="48"/>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A239" s="62"/>
+      <c r="B239" s="62"/>
+      <c r="C239" s="64"/>
+      <c r="D239" s="62"/>
+      <c r="E239" s="63"/>
+      <c r="F239" s="62"/>
+      <c r="G239" s="48"/>
+      <c r="H239" s="48"/>
+      <c r="I239" s="48"/>
+      <c r="J239" s="48"/>
+      <c r="K239" s="48"/>
+      <c r="L239" s="48"/>
+      <c r="M239" s="48"/>
+      <c r="N239" s="48"/>
+      <c r="O239" s="48"/>
+      <c r="P239" s="65"/>
+      <c r="Q239" s="64"/>
+      <c r="R239" s="64"/>
+      <c r="S239" s="64"/>
+      <c r="T239" s="48"/>
+      <c r="U239" s="48"/>
+      <c r="V239" s="48"/>
+      <c r="W239" s="48"/>
+      <c r="X239" s="48"/>
+      <c r="Y239" s="48"/>
+      <c r="Z239" s="48"/>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A240" s="62"/>
+      <c r="B240" s="62"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="62"/>
+      <c r="E240" s="63"/>
+      <c r="F240" s="62"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="48"/>
+      <c r="I240" s="48"/>
+      <c r="J240" s="48"/>
+      <c r="K240" s="48"/>
+      <c r="L240" s="48"/>
+      <c r="M240" s="48"/>
+      <c r="N240" s="48"/>
+      <c r="O240" s="48"/>
+      <c r="P240" s="65"/>
+      <c r="Q240" s="64"/>
+      <c r="R240" s="64"/>
+      <c r="S240" s="64"/>
+      <c r="T240" s="48"/>
+      <c r="U240" s="48"/>
+      <c r="V240" s="48"/>
+      <c r="W240" s="48"/>
+      <c r="X240" s="48"/>
+      <c r="Y240" s="48"/>
+      <c r="Z240" s="48"/>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A241" s="62"/>
+      <c r="B241" s="62"/>
+      <c r="C241" s="64"/>
+      <c r="D241" s="62"/>
+      <c r="E241" s="63"/>
+      <c r="F241" s="62"/>
+      <c r="G241" s="48"/>
+      <c r="H241" s="48"/>
+      <c r="I241" s="48"/>
+      <c r="J241" s="48"/>
+      <c r="K241" s="48"/>
+      <c r="L241" s="48"/>
+      <c r="M241" s="48"/>
+      <c r="N241" s="48"/>
+      <c r="O241" s="48"/>
+      <c r="P241" s="65"/>
+      <c r="Q241" s="64"/>
+      <c r="R241" s="64"/>
+      <c r="S241" s="64"/>
+      <c r="T241" s="48"/>
+      <c r="U241" s="48"/>
+      <c r="V241" s="48"/>
+      <c r="W241" s="48"/>
+      <c r="X241" s="48"/>
+      <c r="Y241" s="48"/>
+      <c r="Z241" s="48"/>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A242" s="62"/>
+      <c r="B242" s="62"/>
+      <c r="C242" s="64"/>
+      <c r="D242" s="62"/>
+      <c r="E242" s="63"/>
+      <c r="F242" s="62"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="48"/>
+      <c r="I242" s="48"/>
+      <c r="J242" s="48"/>
+      <c r="K242" s="48"/>
+      <c r="L242" s="48"/>
+      <c r="M242" s="48"/>
+      <c r="N242" s="48"/>
+      <c r="O242" s="48"/>
+      <c r="P242" s="65"/>
+      <c r="Q242" s="64"/>
+      <c r="R242" s="64"/>
+      <c r="S242" s="64"/>
+      <c r="T242" s="48"/>
+      <c r="U242" s="48"/>
+      <c r="V242" s="48"/>
+      <c r="W242" s="48"/>
+      <c r="X242" s="48"/>
+      <c r="Y242" s="48"/>
+      <c r="Z242" s="48"/>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A243" s="62"/>
+      <c r="B243" s="62"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="62"/>
+      <c r="E243" s="63"/>
+      <c r="F243" s="62"/>
+      <c r="G243" s="48"/>
+      <c r="H243" s="48"/>
+      <c r="I243" s="48"/>
+      <c r="J243" s="48"/>
+      <c r="K243" s="48"/>
+      <c r="L243" s="48"/>
+      <c r="M243" s="48"/>
+      <c r="N243" s="48"/>
+      <c r="O243" s="48"/>
+      <c r="P243" s="65"/>
+      <c r="Q243" s="64"/>
+      <c r="R243" s="64"/>
+      <c r="S243" s="64"/>
+      <c r="T243" s="48"/>
+      <c r="U243" s="48"/>
+      <c r="V243" s="48"/>
+      <c r="W243" s="48"/>
+      <c r="X243" s="48"/>
+      <c r="Y243" s="48"/>
+      <c r="Z243" s="48"/>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A244" s="62"/>
+      <c r="B244" s="62"/>
+      <c r="C244" s="64"/>
+      <c r="D244" s="62"/>
+      <c r="E244" s="63"/>
+      <c r="F244" s="62"/>
+      <c r="G244" s="48"/>
+      <c r="H244" s="48"/>
+      <c r="I244" s="48"/>
+      <c r="J244" s="48"/>
+      <c r="K244" s="48"/>
+      <c r="L244" s="48"/>
+      <c r="M244" s="48"/>
+      <c r="N244" s="48"/>
+      <c r="O244" s="48"/>
+      <c r="P244" s="65"/>
+      <c r="Q244" s="64"/>
+      <c r="R244" s="64"/>
+      <c r="S244" s="64"/>
+      <c r="T244" s="48"/>
+      <c r="U244" s="48"/>
+      <c r="V244" s="48"/>
+      <c r="W244" s="48"/>
+      <c r="X244" s="48"/>
+      <c r="Y244" s="48"/>
+      <c r="Z244" s="48"/>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A245" s="62"/>
+      <c r="B245" s="62"/>
+      <c r="C245" s="64"/>
+      <c r="D245" s="62"/>
+      <c r="E245" s="63"/>
+      <c r="F245" s="62"/>
+      <c r="G245" s="48"/>
+      <c r="H245" s="48"/>
+      <c r="I245" s="48"/>
+      <c r="J245" s="48"/>
+      <c r="K245" s="48"/>
+      <c r="L245" s="48"/>
+      <c r="M245" s="48"/>
+      <c r="N245" s="48"/>
+      <c r="O245" s="48"/>
+      <c r="P245" s="65"/>
+      <c r="Q245" s="64"/>
+      <c r="R245" s="64"/>
+      <c r="S245" s="64"/>
+      <c r="T245" s="48"/>
+      <c r="U245" s="48"/>
+      <c r="V245" s="48"/>
+      <c r="W245" s="48"/>
+      <c r="X245" s="48"/>
+      <c r="Y245" s="48"/>
+      <c r="Z245" s="48"/>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A246" s="62"/>
+      <c r="B246" s="62"/>
+      <c r="C246" s="64"/>
+      <c r="D246" s="62"/>
+      <c r="E246" s="63"/>
+      <c r="F246" s="62"/>
+      <c r="G246" s="48"/>
+      <c r="H246" s="48"/>
+      <c r="I246" s="48"/>
+      <c r="J246" s="48"/>
+      <c r="K246" s="48"/>
+      <c r="L246" s="48"/>
+      <c r="M246" s="48"/>
+      <c r="N246" s="48"/>
+      <c r="O246" s="48"/>
+      <c r="P246" s="65"/>
+      <c r="Q246" s="64"/>
+      <c r="R246" s="64"/>
+      <c r="S246" s="64"/>
+      <c r="T246" s="48"/>
+      <c r="U246" s="48"/>
+      <c r="V246" s="48"/>
+      <c r="W246" s="48"/>
+      <c r="X246" s="48"/>
+      <c r="Y246" s="48"/>
+      <c r="Z246" s="48"/>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A247" s="62"/>
+      <c r="B247" s="62"/>
+      <c r="C247" s="64"/>
+      <c r="D247" s="62"/>
+      <c r="E247" s="63"/>
+      <c r="F247" s="62"/>
+      <c r="G247" s="48"/>
+      <c r="H247" s="48"/>
+      <c r="I247" s="48"/>
+      <c r="J247" s="48"/>
+      <c r="K247" s="48"/>
+      <c r="L247" s="48"/>
+      <c r="M247" s="48"/>
+      <c r="N247" s="48"/>
+      <c r="O247" s="48"/>
+      <c r="P247" s="65"/>
+      <c r="Q247" s="64"/>
+      <c r="R247" s="64"/>
+      <c r="S247" s="64"/>
+      <c r="T247" s="48"/>
+      <c r="U247" s="48"/>
+      <c r="V247" s="48"/>
+      <c r="W247" s="48"/>
+      <c r="X247" s="48"/>
+      <c r="Y247" s="48"/>
+      <c r="Z247" s="48"/>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A248" s="62"/>
+      <c r="B248" s="62"/>
+      <c r="C248" s="64"/>
+      <c r="D248" s="62"/>
+      <c r="E248" s="63"/>
+      <c r="F248" s="62"/>
+      <c r="G248" s="48"/>
+      <c r="H248" s="48"/>
+      <c r="I248" s="48"/>
+      <c r="J248" s="48"/>
+      <c r="K248" s="48"/>
+      <c r="L248" s="48"/>
+      <c r="M248" s="48"/>
+      <c r="N248" s="48"/>
+      <c r="O248" s="48"/>
+      <c r="P248" s="65"/>
+      <c r="Q248" s="64"/>
+      <c r="R248" s="64"/>
+      <c r="S248" s="64"/>
+      <c r="T248" s="48"/>
+      <c r="U248" s="48"/>
+      <c r="V248" s="48"/>
+      <c r="W248" s="48"/>
+      <c r="X248" s="48"/>
+      <c r="Y248" s="48"/>
+      <c r="Z248" s="48"/>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A249" s="62"/>
+      <c r="B249" s="62"/>
+      <c r="C249" s="64"/>
+      <c r="D249" s="62"/>
+      <c r="E249" s="63"/>
+      <c r="F249" s="62"/>
+      <c r="G249" s="48"/>
+      <c r="H249" s="48"/>
+      <c r="I249" s="48"/>
+      <c r="J249" s="48"/>
+      <c r="K249" s="48"/>
+      <c r="L249" s="48"/>
+      <c r="M249" s="48"/>
+      <c r="N249" s="48"/>
+      <c r="O249" s="48"/>
+      <c r="P249" s="65"/>
+      <c r="Q249" s="64"/>
+      <c r="R249" s="64"/>
+      <c r="S249" s="64"/>
+      <c r="T249" s="48"/>
+      <c r="U249" s="48"/>
+      <c r="V249" s="48"/>
+      <c r="W249" s="48"/>
+      <c r="X249" s="48"/>
+      <c r="Y249" s="48"/>
+      <c r="Z249" s="48"/>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A250" s="62"/>
+      <c r="B250" s="62"/>
+      <c r="C250" s="64"/>
+      <c r="D250" s="62"/>
+      <c r="E250" s="63"/>
+      <c r="F250" s="62"/>
+      <c r="G250" s="48"/>
+      <c r="H250" s="48"/>
+      <c r="I250" s="48"/>
+      <c r="J250" s="48"/>
+      <c r="K250" s="48"/>
+      <c r="L250" s="48"/>
+      <c r="M250" s="48"/>
+      <c r="N250" s="48"/>
+      <c r="O250" s="48"/>
+      <c r="P250" s="65"/>
+      <c r="Q250" s="64"/>
+      <c r="R250" s="64"/>
+      <c r="S250" s="64"/>
+      <c r="T250" s="48"/>
+      <c r="U250" s="48"/>
+      <c r="V250" s="48"/>
+      <c r="W250" s="48"/>
+      <c r="X250" s="48"/>
+      <c r="Y250" s="48"/>
+      <c r="Z250" s="48"/>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A251" s="62"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="64"/>
+      <c r="D251" s="62"/>
+      <c r="E251" s="63"/>
+      <c r="F251" s="62"/>
+      <c r="G251" s="48"/>
+      <c r="H251" s="48"/>
+      <c r="I251" s="48"/>
+      <c r="J251" s="48"/>
+      <c r="K251" s="48"/>
+      <c r="L251" s="48"/>
+      <c r="M251" s="48"/>
+      <c r="N251" s="48"/>
+      <c r="O251" s="48"/>
+      <c r="P251" s="65"/>
+      <c r="Q251" s="64"/>
+      <c r="R251" s="64"/>
+      <c r="S251" s="64"/>
+      <c r="T251" s="48"/>
+      <c r="U251" s="48"/>
+      <c r="V251" s="48"/>
+      <c r="W251" s="48"/>
+      <c r="X251" s="48"/>
+      <c r="Y251" s="48"/>
+      <c r="Z251" s="48"/>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A252" s="62"/>
+      <c r="B252" s="62"/>
+      <c r="C252" s="64"/>
+      <c r="D252" s="62"/>
+      <c r="E252" s="63"/>
+      <c r="F252" s="62"/>
+      <c r="G252" s="48"/>
+      <c r="H252" s="48"/>
+      <c r="I252" s="48"/>
+      <c r="J252" s="48"/>
+      <c r="K252" s="48"/>
+      <c r="L252" s="48"/>
+      <c r="M252" s="48"/>
+      <c r="N252" s="48"/>
+      <c r="O252" s="48"/>
+      <c r="P252" s="65"/>
+      <c r="Q252" s="64"/>
+      <c r="R252" s="64"/>
+      <c r="S252" s="64"/>
+      <c r="T252" s="48"/>
+      <c r="U252" s="48"/>
+      <c r="V252" s="48"/>
+      <c r="W252" s="48"/>
+      <c r="X252" s="48"/>
+      <c r="Y252" s="48"/>
+      <c r="Z252" s="48"/>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A253" s="62"/>
+      <c r="B253" s="62"/>
+      <c r="C253" s="64"/>
+      <c r="D253" s="62"/>
+      <c r="E253" s="63"/>
+      <c r="F253" s="62"/>
+      <c r="G253" s="48"/>
+      <c r="H253" s="48"/>
+      <c r="I253" s="48"/>
+      <c r="J253" s="48"/>
+      <c r="K253" s="48"/>
+      <c r="L253" s="48"/>
+      <c r="M253" s="48"/>
+      <c r="N253" s="48"/>
+      <c r="O253" s="48"/>
+      <c r="P253" s="65"/>
+      <c r="Q253" s="64"/>
+      <c r="R253" s="64"/>
+      <c r="S253" s="64"/>
+      <c r="T253" s="48"/>
+      <c r="U253" s="48"/>
+      <c r="V253" s="48"/>
+      <c r="W253" s="48"/>
+      <c r="X253" s="48"/>
+      <c r="Y253" s="48"/>
+      <c r="Z253" s="48"/>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A254" s="62"/>
+      <c r="B254" s="62"/>
+      <c r="C254" s="64"/>
+      <c r="D254" s="62"/>
+      <c r="E254" s="63"/>
+      <c r="F254" s="62"/>
+      <c r="G254" s="48"/>
+      <c r="H254" s="48"/>
+      <c r="I254" s="48"/>
+      <c r="J254" s="48"/>
+      <c r="K254" s="48"/>
+      <c r="L254" s="48"/>
+      <c r="M254" s="48"/>
+      <c r="N254" s="48"/>
+      <c r="O254" s="48"/>
+      <c r="P254" s="65"/>
+      <c r="Q254" s="64"/>
+      <c r="R254" s="64"/>
+      <c r="S254" s="64"/>
+      <c r="T254" s="48"/>
+      <c r="U254" s="48"/>
+      <c r="V254" s="48"/>
+      <c r="W254" s="48"/>
+      <c r="X254" s="48"/>
+      <c r="Y254" s="48"/>
+      <c r="Z254" s="48"/>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A255" s="62"/>
+      <c r="B255" s="62"/>
+      <c r="C255" s="64"/>
+      <c r="D255" s="62"/>
+      <c r="E255" s="63"/>
+      <c r="F255" s="62"/>
+      <c r="G255" s="48"/>
+      <c r="H255" s="48"/>
+      <c r="I255" s="48"/>
+      <c r="J255" s="48"/>
+      <c r="K255" s="48"/>
+      <c r="L255" s="48"/>
+      <c r="M255" s="48"/>
+      <c r="N255" s="48"/>
+      <c r="O255" s="48"/>
+      <c r="P255" s="65"/>
+      <c r="Q255" s="64"/>
+      <c r="R255" s="64"/>
+      <c r="S255" s="64"/>
+      <c r="T255" s="48"/>
+      <c r="U255" s="48"/>
+      <c r="V255" s="48"/>
+      <c r="W255" s="48"/>
+      <c r="X255" s="48"/>
+      <c r="Y255" s="48"/>
+      <c r="Z255" s="48"/>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A256" s="62"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="64"/>
+      <c r="D256" s="62"/>
+      <c r="E256" s="63"/>
+      <c r="F256" s="62"/>
+      <c r="G256" s="48"/>
+      <c r="H256" s="48"/>
+      <c r="I256" s="48"/>
+      <c r="J256" s="48"/>
+      <c r="K256" s="48"/>
+      <c r="L256" s="48"/>
+      <c r="M256" s="48"/>
+      <c r="N256" s="48"/>
+      <c r="O256" s="48"/>
+      <c r="P256" s="65"/>
+      <c r="Q256" s="64"/>
+      <c r="R256" s="64"/>
+      <c r="S256" s="64"/>
+      <c r="T256" s="48"/>
+      <c r="U256" s="48"/>
+      <c r="V256" s="48"/>
+      <c r="W256" s="48"/>
+      <c r="X256" s="48"/>
+      <c r="Y256" s="48"/>
+      <c r="Z256" s="48"/>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A257" s="62"/>
+      <c r="B257" s="62"/>
+      <c r="C257" s="64"/>
+      <c r="D257" s="62"/>
+      <c r="E257" s="63"/>
+      <c r="F257" s="62"/>
+      <c r="G257" s="48"/>
+      <c r="H257" s="48"/>
+      <c r="I257" s="48"/>
+      <c r="J257" s="48"/>
+      <c r="K257" s="48"/>
+      <c r="L257" s="48"/>
+      <c r="M257" s="48"/>
+      <c r="N257" s="48"/>
+      <c r="O257" s="48"/>
+      <c r="P257" s="65"/>
+      <c r="Q257" s="64"/>
+      <c r="R257" s="64"/>
+      <c r="S257" s="64"/>
+      <c r="T257" s="48"/>
+      <c r="U257" s="48"/>
+      <c r="V257" s="48"/>
+      <c r="W257" s="48"/>
+      <c r="X257" s="48"/>
+      <c r="Y257" s="48"/>
+      <c r="Z257" s="48"/>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A258" s="62"/>
+      <c r="B258" s="62"/>
+      <c r="C258" s="64"/>
+      <c r="D258" s="62"/>
+      <c r="E258" s="63"/>
+      <c r="F258" s="62"/>
+      <c r="G258" s="48"/>
+      <c r="H258" s="48"/>
+      <c r="I258" s="48"/>
+      <c r="J258" s="48"/>
+      <c r="K258" s="48"/>
+      <c r="L258" s="48"/>
+      <c r="M258" s="48"/>
+      <c r="N258" s="48"/>
+      <c r="O258" s="48"/>
+      <c r="P258" s="65"/>
+      <c r="Q258" s="64"/>
+      <c r="R258" s="64"/>
+      <c r="S258" s="64"/>
+      <c r="T258" s="48"/>
+      <c r="U258" s="48"/>
+      <c r="V258" s="48"/>
+      <c r="W258" s="48"/>
+      <c r="X258" s="48"/>
+      <c r="Y258" s="48"/>
+      <c r="Z258" s="48"/>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A259" s="62"/>
+      <c r="B259" s="62"/>
+      <c r="C259" s="64"/>
+      <c r="D259" s="62"/>
+      <c r="E259" s="63"/>
+      <c r="F259" s="62"/>
+      <c r="G259" s="48"/>
+      <c r="H259" s="48"/>
+      <c r="I259" s="48"/>
+      <c r="J259" s="48"/>
+      <c r="K259" s="48"/>
+      <c r="L259" s="48"/>
+      <c r="M259" s="48"/>
+      <c r="N259" s="48"/>
+      <c r="O259" s="48"/>
+      <c r="P259" s="65"/>
+      <c r="Q259" s="64"/>
+      <c r="R259" s="64"/>
+      <c r="S259" s="64"/>
+      <c r="T259" s="48"/>
+      <c r="U259" s="48"/>
+      <c r="V259" s="48"/>
+      <c r="W259" s="48"/>
+      <c r="X259" s="48"/>
+      <c r="Y259" s="48"/>
+      <c r="Z259" s="48"/>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A260" s="62"/>
+      <c r="B260" s="62"/>
+      <c r="C260" s="64"/>
+      <c r="D260" s="62"/>
+      <c r="E260" s="63"/>
+      <c r="F260" s="62"/>
+      <c r="G260" s="48"/>
+      <c r="H260" s="48"/>
+      <c r="I260" s="48"/>
+      <c r="J260" s="48"/>
+      <c r="K260" s="48"/>
+      <c r="L260" s="48"/>
+      <c r="M260" s="48"/>
+      <c r="N260" s="48"/>
+      <c r="O260" s="48"/>
+      <c r="P260" s="65"/>
+      <c r="Q260" s="64"/>
+      <c r="R260" s="64"/>
+      <c r="S260" s="64"/>
+      <c r="T260" s="48"/>
+      <c r="U260" s="48"/>
+      <c r="V260" s="48"/>
+      <c r="W260" s="48"/>
+      <c r="X260" s="48"/>
+      <c r="Y260" s="48"/>
+      <c r="Z260" s="48"/>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A261" s="62"/>
+      <c r="B261" s="62"/>
+      <c r="C261" s="64"/>
+      <c r="D261" s="62"/>
+      <c r="E261" s="63"/>
+      <c r="F261" s="62"/>
+      <c r="G261" s="48"/>
+      <c r="H261" s="48"/>
+      <c r="I261" s="48"/>
+      <c r="J261" s="48"/>
+      <c r="K261" s="48"/>
+      <c r="L261" s="48"/>
+      <c r="M261" s="48"/>
+      <c r="N261" s="48"/>
+      <c r="O261" s="48"/>
+      <c r="P261" s="65"/>
+      <c r="Q261" s="64"/>
+      <c r="R261" s="64"/>
+      <c r="S261" s="64"/>
+      <c r="T261" s="48"/>
+      <c r="U261" s="48"/>
+      <c r="V261" s="48"/>
+      <c r="W261" s="48"/>
+      <c r="X261" s="48"/>
+      <c r="Y261" s="48"/>
+      <c r="Z261" s="48"/>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A262" s="62"/>
+      <c r="B262" s="62"/>
+      <c r="C262" s="64"/>
+      <c r="D262" s="62"/>
+      <c r="E262" s="63"/>
+      <c r="F262" s="62"/>
+      <c r="G262" s="48"/>
+      <c r="H262" s="48"/>
+      <c r="I262" s="48"/>
+      <c r="J262" s="48"/>
+      <c r="K262" s="48"/>
+      <c r="L262" s="48"/>
+      <c r="M262" s="48"/>
+      <c r="N262" s="48"/>
+      <c r="O262" s="48"/>
+      <c r="P262" s="65"/>
+      <c r="Q262" s="64"/>
+      <c r="R262" s="64"/>
+      <c r="S262" s="64"/>
+      <c r="T262" s="48"/>
+      <c r="U262" s="48"/>
+      <c r="V262" s="48"/>
+      <c r="W262" s="48"/>
+      <c r="X262" s="48"/>
+      <c r="Y262" s="48"/>
+      <c r="Z262" s="48"/>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A263" s="62"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="64"/>
+      <c r="D263" s="62"/>
+      <c r="E263" s="63"/>
+      <c r="F263" s="62"/>
+      <c r="G263" s="48"/>
+      <c r="H263" s="48"/>
+      <c r="I263" s="48"/>
+      <c r="J263" s="48"/>
+      <c r="K263" s="48"/>
+      <c r="L263" s="48"/>
+      <c r="M263" s="48"/>
+      <c r="N263" s="48"/>
+      <c r="O263" s="48"/>
+      <c r="P263" s="65"/>
+      <c r="Q263" s="64"/>
+      <c r="R263" s="64"/>
+      <c r="S263" s="64"/>
+      <c r="T263" s="48"/>
+      <c r="U263" s="48"/>
+      <c r="V263" s="48"/>
+      <c r="W263" s="48"/>
+      <c r="X263" s="48"/>
+      <c r="Y263" s="48"/>
+      <c r="Z263" s="48"/>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A264" s="62"/>
+      <c r="B264" s="62"/>
+      <c r="C264" s="64"/>
+      <c r="D264" s="62"/>
+      <c r="E264" s="63"/>
+      <c r="F264" s="62"/>
+      <c r="G264" s="48"/>
+      <c r="H264" s="48"/>
+      <c r="I264" s="48"/>
+      <c r="J264" s="48"/>
+      <c r="K264" s="48"/>
+      <c r="L264" s="48"/>
+      <c r="M264" s="48"/>
+      <c r="N264" s="48"/>
+      <c r="O264" s="48"/>
+      <c r="P264" s="65"/>
+      <c r="Q264" s="64"/>
+      <c r="R264" s="64"/>
+      <c r="S264" s="64"/>
+      <c r="T264" s="48"/>
+      <c r="U264" s="48"/>
+      <c r="V264" s="48"/>
+      <c r="W264" s="48"/>
+      <c r="X264" s="48"/>
+      <c r="Y264" s="48"/>
+      <c r="Z264" s="48"/>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A265" s="62"/>
+      <c r="B265" s="62"/>
+      <c r="C265" s="64"/>
+      <c r="D265" s="62"/>
+      <c r="E265" s="63"/>
+      <c r="F265" s="62"/>
+      <c r="G265" s="48"/>
+      <c r="H265" s="48"/>
+      <c r="I265" s="48"/>
+      <c r="J265" s="48"/>
+      <c r="K265" s="48"/>
+      <c r="L265" s="48"/>
+      <c r="M265" s="48"/>
+      <c r="N265" s="48"/>
+      <c r="O265" s="48"/>
+      <c r="P265" s="65"/>
+      <c r="Q265" s="64"/>
+      <c r="R265" s="64"/>
+      <c r="S265" s="64"/>
+      <c r="T265" s="48"/>
+      <c r="U265" s="48"/>
+      <c r="V265" s="48"/>
+      <c r="W265" s="48"/>
+      <c r="X265" s="48"/>
+      <c r="Y265" s="48"/>
+      <c r="Z265" s="48"/>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A266" s="62"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="64"/>
+      <c r="D266" s="62"/>
+      <c r="E266" s="63"/>
+      <c r="F266" s="62"/>
+      <c r="G266" s="48"/>
+      <c r="H266" s="48"/>
+      <c r="I266" s="48"/>
+      <c r="J266" s="48"/>
+      <c r="K266" s="48"/>
+      <c r="L266" s="48"/>
+      <c r="M266" s="48"/>
+      <c r="N266" s="48"/>
+      <c r="O266" s="48"/>
+      <c r="P266" s="65"/>
+      <c r="Q266" s="64"/>
+      <c r="R266" s="64"/>
+      <c r="S266" s="64"/>
+      <c r="T266" s="48"/>
+      <c r="U266" s="48"/>
+      <c r="V266" s="48"/>
+      <c r="W266" s="48"/>
+      <c r="X266" s="48"/>
+      <c r="Y266" s="48"/>
+      <c r="Z266" s="48"/>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A267" s="62"/>
+      <c r="B267" s="62"/>
+      <c r="C267" s="64"/>
+      <c r="D267" s="62"/>
+      <c r="E267" s="63"/>
+      <c r="F267" s="62"/>
+      <c r="G267" s="48"/>
+      <c r="H267" s="48"/>
+      <c r="I267" s="48"/>
+      <c r="J267" s="48"/>
+      <c r="K267" s="48"/>
+      <c r="L267" s="48"/>
+      <c r="M267" s="48"/>
+      <c r="N267" s="48"/>
+      <c r="O267" s="48"/>
+      <c r="P267" s="65"/>
+      <c r="Q267" s="64"/>
+      <c r="R267" s="64"/>
+      <c r="S267" s="64"/>
+      <c r="T267" s="48"/>
+      <c r="U267" s="48"/>
+      <c r="V267" s="48"/>
+      <c r="W267" s="48"/>
+      <c r="X267" s="48"/>
+      <c r="Y267" s="48"/>
+      <c r="Z267" s="48"/>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A268" s="62"/>
+      <c r="B268" s="62"/>
+      <c r="C268" s="64"/>
+      <c r="D268" s="62"/>
+      <c r="E268" s="63"/>
+      <c r="F268" s="62"/>
+      <c r="G268" s="48"/>
+      <c r="H268" s="48"/>
+      <c r="I268" s="48"/>
+      <c r="J268" s="48"/>
+      <c r="K268" s="48"/>
+      <c r="L268" s="48"/>
+      <c r="M268" s="48"/>
+      <c r="N268" s="48"/>
+      <c r="O268" s="48"/>
+      <c r="P268" s="65"/>
+      <c r="Q268" s="64"/>
+      <c r="R268" s="64"/>
+      <c r="S268" s="64"/>
+      <c r="T268" s="48"/>
+      <c r="U268" s="48"/>
+      <c r="V268" s="48"/>
+      <c r="W268" s="48"/>
+      <c r="X268" s="48"/>
+      <c r="Y268" s="48"/>
+      <c r="Z268" s="48"/>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A269" s="62"/>
+      <c r="B269" s="62"/>
+      <c r="C269" s="64"/>
+      <c r="D269" s="62"/>
+      <c r="E269" s="63"/>
+      <c r="F269" s="62"/>
+      <c r="G269" s="48"/>
+      <c r="H269" s="48"/>
+      <c r="I269" s="48"/>
+      <c r="J269" s="48"/>
+      <c r="K269" s="48"/>
+      <c r="L269" s="48"/>
+      <c r="M269" s="48"/>
+      <c r="N269" s="48"/>
+      <c r="O269" s="48"/>
+      <c r="P269" s="65"/>
+      <c r="Q269" s="64"/>
+      <c r="R269" s="64"/>
+      <c r="S269" s="64"/>
+      <c r="T269" s="48"/>
+      <c r="U269" s="48"/>
+      <c r="V269" s="48"/>
+      <c r="W269" s="48"/>
+      <c r="X269" s="48"/>
+      <c r="Y269" s="48"/>
+      <c r="Z269" s="48"/>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A270" s="62"/>
+      <c r="B270" s="62"/>
+      <c r="C270" s="64"/>
+      <c r="D270" s="62"/>
+      <c r="E270" s="63"/>
+      <c r="F270" s="62"/>
+      <c r="G270" s="48"/>
+      <c r="H270" s="48"/>
+      <c r="I270" s="48"/>
+      <c r="J270" s="48"/>
+      <c r="K270" s="48"/>
+      <c r="L270" s="48"/>
+      <c r="M270" s="48"/>
+      <c r="N270" s="48"/>
+      <c r="O270" s="48"/>
+      <c r="P270" s="65"/>
+      <c r="Q270" s="64"/>
+      <c r="R270" s="64"/>
+      <c r="S270" s="64"/>
+      <c r="T270" s="48"/>
+      <c r="U270" s="48"/>
+      <c r="V270" s="48"/>
+      <c r="W270" s="48"/>
+      <c r="X270" s="48"/>
+      <c r="Y270" s="48"/>
+      <c r="Z270" s="48"/>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A271" s="62"/>
+      <c r="B271" s="62"/>
+      <c r="C271" s="64"/>
+      <c r="D271" s="62"/>
+      <c r="E271" s="63"/>
+      <c r="F271" s="62"/>
+      <c r="G271" s="48"/>
+      <c r="H271" s="48"/>
+      <c r="I271" s="48"/>
+      <c r="J271" s="48"/>
+      <c r="K271" s="48"/>
+      <c r="L271" s="48"/>
+      <c r="M271" s="48"/>
+      <c r="N271" s="48"/>
+      <c r="O271" s="48"/>
+      <c r="P271" s="65"/>
+      <c r="Q271" s="64"/>
+      <c r="R271" s="64"/>
+      <c r="S271" s="64"/>
+      <c r="T271" s="48"/>
+      <c r="U271" s="48"/>
+      <c r="V271" s="48"/>
+      <c r="W271" s="48"/>
+      <c r="X271" s="48"/>
+      <c r="Y271" s="48"/>
+      <c r="Z271" s="48"/>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A272" s="62"/>
+      <c r="B272" s="62"/>
+      <c r="C272" s="64"/>
+      <c r="D272" s="62"/>
+      <c r="E272" s="63"/>
+      <c r="F272" s="62"/>
+      <c r="G272" s="48"/>
+      <c r="H272" s="48"/>
+      <c r="I272" s="48"/>
+      <c r="J272" s="48"/>
+      <c r="K272" s="48"/>
+      <c r="L272" s="48"/>
+      <c r="M272" s="48"/>
+      <c r="N272" s="48"/>
+      <c r="O272" s="48"/>
+      <c r="P272" s="65"/>
+      <c r="Q272" s="64"/>
+      <c r="R272" s="64"/>
+      <c r="S272" s="64"/>
+      <c r="T272" s="48"/>
+      <c r="U272" s="48"/>
+      <c r="V272" s="48"/>
+      <c r="W272" s="48"/>
+      <c r="X272" s="48"/>
+      <c r="Y272" s="48"/>
+      <c r="Z272" s="48"/>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A273" s="62"/>
+      <c r="B273" s="62"/>
+      <c r="C273" s="64"/>
+      <c r="D273" s="62"/>
+      <c r="E273" s="63"/>
+      <c r="F273" s="62"/>
+      <c r="G273" s="48"/>
+      <c r="H273" s="48"/>
+      <c r="I273" s="48"/>
+      <c r="J273" s="48"/>
+      <c r="K273" s="48"/>
+      <c r="L273" s="48"/>
+      <c r="M273" s="48"/>
+      <c r="N273" s="48"/>
+      <c r="O273" s="48"/>
+      <c r="P273" s="65"/>
+      <c r="Q273" s="64"/>
+      <c r="R273" s="64"/>
+      <c r="S273" s="64"/>
+      <c r="T273" s="48"/>
+      <c r="U273" s="48"/>
+      <c r="V273" s="48"/>
+      <c r="W273" s="48"/>
+      <c r="X273" s="48"/>
+      <c r="Y273" s="48"/>
+      <c r="Z273" s="48"/>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A274" s="62"/>
+      <c r="B274" s="62"/>
+      <c r="C274" s="64"/>
+      <c r="D274" s="62"/>
+      <c r="E274" s="63"/>
+      <c r="F274" s="62"/>
+      <c r="G274" s="48"/>
+      <c r="H274" s="48"/>
+      <c r="I274" s="48"/>
+      <c r="J274" s="48"/>
+      <c r="K274" s="48"/>
+      <c r="L274" s="48"/>
+      <c r="M274" s="48"/>
+      <c r="N274" s="48"/>
+      <c r="O274" s="48"/>
+      <c r="P274" s="65"/>
+      <c r="Q274" s="64"/>
+      <c r="R274" s="64"/>
+      <c r="S274" s="64"/>
+      <c r="T274" s="48"/>
+      <c r="U274" s="48"/>
+      <c r="V274" s="48"/>
+      <c r="W274" s="48"/>
+      <c r="X274" s="48"/>
+      <c r="Y274" s="48"/>
+      <c r="Z274" s="48"/>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A275" s="62"/>
+      <c r="B275" s="62"/>
+      <c r="C275" s="64"/>
+      <c r="D275" s="62"/>
+      <c r="E275" s="63"/>
+      <c r="F275" s="62"/>
+      <c r="G275" s="48"/>
+      <c r="H275" s="48"/>
+      <c r="I275" s="48"/>
+      <c r="J275" s="48"/>
+      <c r="K275" s="48"/>
+      <c r="L275" s="48"/>
+      <c r="M275" s="48"/>
+      <c r="N275" s="48"/>
+      <c r="O275" s="48"/>
+      <c r="P275" s="65"/>
+      <c r="Q275" s="64"/>
+      <c r="R275" s="64"/>
+      <c r="S275" s="64"/>
+      <c r="T275" s="48"/>
+      <c r="U275" s="48"/>
+      <c r="V275" s="48"/>
+      <c r="W275" s="48"/>
+      <c r="X275" s="48"/>
+      <c r="Y275" s="48"/>
+      <c r="Z275" s="48"/>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A276" s="62"/>
+      <c r="B276" s="62"/>
+      <c r="C276" s="64"/>
+      <c r="D276" s="62"/>
+      <c r="E276" s="63"/>
+      <c r="F276" s="62"/>
+      <c r="G276" s="48"/>
+      <c r="H276" s="48"/>
+      <c r="I276" s="48"/>
+      <c r="J276" s="48"/>
+      <c r="K276" s="48"/>
+      <c r="L276" s="48"/>
+      <c r="M276" s="48"/>
+      <c r="N276" s="48"/>
+      <c r="O276" s="48"/>
+      <c r="P276" s="65"/>
+      <c r="Q276" s="64"/>
+      <c r="R276" s="64"/>
+      <c r="S276" s="64"/>
+      <c r="T276" s="48"/>
+      <c r="U276" s="48"/>
+      <c r="V276" s="48"/>
+      <c r="W276" s="48"/>
+      <c r="X276" s="48"/>
+      <c r="Y276" s="48"/>
+      <c r="Z276" s="48"/>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A277" s="62"/>
+      <c r="B277" s="62"/>
+      <c r="C277" s="64"/>
+      <c r="D277" s="62"/>
+      <c r="E277" s="63"/>
+      <c r="F277" s="62"/>
+      <c r="G277" s="48"/>
+      <c r="H277" s="48"/>
+      <c r="I277" s="48"/>
+      <c r="J277" s="48"/>
+      <c r="K277" s="48"/>
+      <c r="L277" s="48"/>
+      <c r="M277" s="48"/>
+      <c r="N277" s="48"/>
+      <c r="O277" s="48"/>
+      <c r="P277" s="65"/>
+      <c r="Q277" s="64"/>
+      <c r="R277" s="64"/>
+      <c r="S277" s="64"/>
+      <c r="T277" s="48"/>
+      <c r="U277" s="48"/>
+      <c r="V277" s="48"/>
+      <c r="W277" s="48"/>
+      <c r="X277" s="48"/>
+      <c r="Y277" s="48"/>
+      <c r="Z277" s="48"/>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A278" s="62"/>
+      <c r="B278" s="62"/>
+      <c r="C278" s="64"/>
+      <c r="D278" s="62"/>
+      <c r="E278" s="63"/>
+      <c r="F278" s="62"/>
+      <c r="G278" s="48"/>
+      <c r="H278" s="48"/>
+      <c r="I278" s="48"/>
+      <c r="J278" s="48"/>
+      <c r="K278" s="48"/>
+      <c r="L278" s="48"/>
+      <c r="M278" s="48"/>
+      <c r="N278" s="48"/>
+      <c r="O278" s="48"/>
+      <c r="P278" s="65"/>
+      <c r="Q278" s="64"/>
+      <c r="R278" s="64"/>
+      <c r="S278" s="64"/>
+      <c r="T278" s="48"/>
+      <c r="U278" s="48"/>
+      <c r="V278" s="48"/>
+      <c r="W278" s="48"/>
+      <c r="X278" s="48"/>
+      <c r="Y278" s="48"/>
+      <c r="Z278" s="48"/>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A279" s="62"/>
+      <c r="B279" s="62"/>
+      <c r="C279" s="64"/>
+      <c r="D279" s="62"/>
+      <c r="E279" s="63"/>
+      <c r="F279" s="62"/>
+      <c r="G279" s="48"/>
+      <c r="H279" s="48"/>
+      <c r="I279" s="48"/>
+      <c r="J279" s="48"/>
+      <c r="K279" s="48"/>
+      <c r="L279" s="48"/>
+      <c r="M279" s="48"/>
+      <c r="N279" s="48"/>
+      <c r="O279" s="48"/>
+      <c r="P279" s="65"/>
+      <c r="Q279" s="64"/>
+      <c r="R279" s="64"/>
+      <c r="S279" s="64"/>
+      <c r="T279" s="48"/>
+      <c r="U279" s="48"/>
+      <c r="V279" s="48"/>
+      <c r="W279" s="48"/>
+      <c r="X279" s="48"/>
+      <c r="Y279" s="48"/>
+      <c r="Z279" s="48"/>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A280" s="62"/>
+      <c r="B280" s="62"/>
+      <c r="C280" s="64"/>
+      <c r="D280" s="62"/>
+      <c r="E280" s="63"/>
+      <c r="F280" s="62"/>
+      <c r="G280" s="48"/>
+      <c r="H280" s="48"/>
+      <c r="I280" s="48"/>
+      <c r="J280" s="48"/>
+      <c r="K280" s="48"/>
+      <c r="L280" s="48"/>
+      <c r="M280" s="48"/>
+      <c r="N280" s="48"/>
+      <c r="O280" s="48"/>
+      <c r="P280" s="65"/>
+      <c r="Q280" s="64"/>
+      <c r="R280" s="64"/>
+      <c r="S280" s="64"/>
+      <c r="T280" s="48"/>
+      <c r="U280" s="48"/>
+      <c r="V280" s="48"/>
+      <c r="W280" s="48"/>
+      <c r="X280" s="48"/>
+      <c r="Y280" s="48"/>
+      <c r="Z280" s="48"/>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A281" s="62"/>
+      <c r="B281" s="62"/>
+      <c r="C281" s="64"/>
+      <c r="D281" s="62"/>
+      <c r="E281" s="63"/>
+      <c r="F281" s="62"/>
+      <c r="G281" s="48"/>
+      <c r="H281" s="48"/>
+      <c r="I281" s="48"/>
+      <c r="J281" s="48"/>
+      <c r="K281" s="48"/>
+      <c r="L281" s="48"/>
+      <c r="M281" s="48"/>
+      <c r="N281" s="48"/>
+      <c r="O281" s="48"/>
+      <c r="P281" s="65"/>
+      <c r="Q281" s="64"/>
+      <c r="R281" s="64"/>
+      <c r="S281" s="64"/>
+      <c r="T281" s="48"/>
+      <c r="U281" s="48"/>
+      <c r="V281" s="48"/>
+      <c r="W281" s="48"/>
+      <c r="X281" s="48"/>
+      <c r="Y281" s="48"/>
+      <c r="Z281" s="48"/>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A282" s="62"/>
+      <c r="B282" s="62"/>
+      <c r="C282" s="64"/>
+      <c r="D282" s="62"/>
+      <c r="E282" s="63"/>
+      <c r="F282" s="62"/>
+      <c r="G282" s="48"/>
+      <c r="H282" s="48"/>
+      <c r="I282" s="48"/>
+      <c r="J282" s="48"/>
+      <c r="K282" s="48"/>
+      <c r="L282" s="48"/>
+      <c r="M282" s="48"/>
+      <c r="N282" s="48"/>
+      <c r="O282" s="48"/>
+      <c r="P282" s="65"/>
+      <c r="Q282" s="64"/>
+      <c r="R282" s="64"/>
+      <c r="S282" s="64"/>
+      <c r="T282" s="48"/>
+      <c r="U282" s="48"/>
+      <c r="V282" s="48"/>
+      <c r="W282" s="48"/>
+      <c r="X282" s="48"/>
+      <c r="Y282" s="48"/>
+      <c r="Z282" s="48"/>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A283" s="62"/>
+      <c r="B283" s="62"/>
+      <c r="C283" s="64"/>
+      <c r="D283" s="62"/>
+      <c r="E283" s="63"/>
+      <c r="F283" s="62"/>
+      <c r="G283" s="48"/>
+      <c r="H283" s="48"/>
+      <c r="I283" s="48"/>
+      <c r="J283" s="48"/>
+      <c r="K283" s="48"/>
+      <c r="L283" s="48"/>
+      <c r="M283" s="48"/>
+      <c r="N283" s="48"/>
+      <c r="O283" s="48"/>
+      <c r="P283" s="65"/>
+      <c r="Q283" s="64"/>
+      <c r="R283" s="64"/>
+      <c r="S283" s="64"/>
+      <c r="T283" s="48"/>
+      <c r="U283" s="48"/>
+      <c r="V283" s="48"/>
+      <c r="W283" s="48"/>
+      <c r="X283" s="48"/>
+      <c r="Y283" s="48"/>
+      <c r="Z283" s="48"/>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A284" s="62"/>
+      <c r="B284" s="62"/>
+      <c r="C284" s="64"/>
+      <c r="D284" s="62"/>
+      <c r="E284" s="63"/>
+      <c r="F284" s="62"/>
+      <c r="G284" s="48"/>
+      <c r="H284" s="48"/>
+      <c r="I284" s="48"/>
+      <c r="J284" s="48"/>
+      <c r="K284" s="48"/>
+      <c r="L284" s="48"/>
+      <c r="M284" s="48"/>
+      <c r="N284" s="48"/>
+      <c r="O284" s="48"/>
+      <c r="P284" s="65"/>
+      <c r="Q284" s="64"/>
+      <c r="R284" s="64"/>
+      <c r="S284" s="64"/>
+      <c r="T284" s="48"/>
+      <c r="U284" s="48"/>
+      <c r="V284" s="48"/>
+      <c r="W284" s="48"/>
+      <c r="X284" s="48"/>
+      <c r="Y284" s="48"/>
+      <c r="Z284" s="48"/>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A285" s="62"/>
+      <c r="B285" s="62"/>
+      <c r="C285" s="64"/>
+      <c r="D285" s="62"/>
+      <c r="E285" s="63"/>
+      <c r="F285" s="62"/>
+      <c r="G285" s="48"/>
+      <c r="H285" s="48"/>
+      <c r="I285" s="48"/>
+      <c r="J285" s="48"/>
+      <c r="K285" s="48"/>
+      <c r="L285" s="48"/>
+      <c r="M285" s="48"/>
+      <c r="N285" s="48"/>
+      <c r="O285" s="48"/>
+      <c r="P285" s="65"/>
+      <c r="Q285" s="64"/>
+      <c r="R285" s="64"/>
+      <c r="S285" s="64"/>
+      <c r="T285" s="48"/>
+      <c r="U285" s="48"/>
+      <c r="V285" s="48"/>
+      <c r="W285" s="48"/>
+      <c r="X285" s="48"/>
+      <c r="Y285" s="48"/>
+      <c r="Z285" s="48"/>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A286" s="62"/>
+      <c r="B286" s="62"/>
+      <c r="C286" s="64"/>
+      <c r="D286" s="62"/>
+      <c r="E286" s="63"/>
+      <c r="F286" s="62"/>
+      <c r="G286" s="48"/>
+      <c r="H286" s="48"/>
+      <c r="I286" s="48"/>
+      <c r="J286" s="48"/>
+      <c r="K286" s="48"/>
+      <c r="L286" s="48"/>
+      <c r="M286" s="48"/>
+      <c r="N286" s="48"/>
+      <c r="O286" s="48"/>
+      <c r="P286" s="65"/>
+      <c r="Q286" s="64"/>
+      <c r="R286" s="64"/>
+      <c r="S286" s="64"/>
+      <c r="T286" s="48"/>
+      <c r="U286" s="48"/>
+      <c r="V286" s="48"/>
+      <c r="W286" s="48"/>
+      <c r="X286" s="48"/>
+      <c r="Y286" s="48"/>
+      <c r="Z286" s="48"/>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A287" s="62"/>
+      <c r="B287" s="62"/>
+      <c r="C287" s="64"/>
+      <c r="D287" s="62"/>
+      <c r="E287" s="63"/>
+      <c r="F287" s="62"/>
+      <c r="G287" s="48"/>
+      <c r="H287" s="48"/>
+      <c r="I287" s="48"/>
+      <c r="J287" s="48"/>
+      <c r="K287" s="48"/>
+      <c r="L287" s="48"/>
+      <c r="M287" s="48"/>
+      <c r="N287" s="48"/>
+      <c r="O287" s="48"/>
+      <c r="P287" s="65"/>
+      <c r="Q287" s="64"/>
+      <c r="R287" s="64"/>
+      <c r="S287" s="64"/>
+      <c r="T287" s="48"/>
+      <c r="U287" s="48"/>
+      <c r="V287" s="48"/>
+      <c r="W287" s="48"/>
+      <c r="X287" s="48"/>
+      <c r="Y287" s="48"/>
+      <c r="Z287" s="48"/>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A288" s="62"/>
+      <c r="B288" s="62"/>
+      <c r="C288" s="64"/>
+      <c r="D288" s="62"/>
+      <c r="E288" s="63"/>
+      <c r="F288" s="62"/>
+      <c r="G288" s="48"/>
+      <c r="H288" s="48"/>
+      <c r="I288" s="48"/>
+      <c r="J288" s="48"/>
+      <c r="K288" s="48"/>
+      <c r="L288" s="48"/>
+      <c r="M288" s="48"/>
+      <c r="N288" s="48"/>
+      <c r="O288" s="48"/>
+      <c r="P288" s="65"/>
+      <c r="Q288" s="64"/>
+      <c r="R288" s="64"/>
+      <c r="S288" s="64"/>
+      <c r="T288" s="48"/>
+      <c r="U288" s="48"/>
+      <c r="V288" s="48"/>
+      <c r="W288" s="48"/>
+      <c r="X288" s="48"/>
+      <c r="Y288" s="48"/>
+      <c r="Z288" s="48"/>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A289" s="62"/>
+      <c r="B289" s="62"/>
+      <c r="C289" s="64"/>
+      <c r="D289" s="62"/>
+      <c r="E289" s="63"/>
+      <c r="F289" s="62"/>
+      <c r="G289" s="48"/>
+      <c r="H289" s="48"/>
+      <c r="I289" s="48"/>
+      <c r="J289" s="48"/>
+      <c r="K289" s="48"/>
+      <c r="L289" s="48"/>
+      <c r="M289" s="48"/>
+      <c r="N289" s="48"/>
+      <c r="O289" s="48"/>
+      <c r="P289" s="65"/>
+      <c r="Q289" s="64"/>
+      <c r="R289" s="64"/>
+      <c r="S289" s="64"/>
+      <c r="T289" s="48"/>
+      <c r="U289" s="48"/>
+      <c r="V289" s="48"/>
+      <c r="W289" s="48"/>
+      <c r="X289" s="48"/>
+      <c r="Y289" s="48"/>
+      <c r="Z289" s="48"/>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A290" s="62"/>
+      <c r="B290" s="62"/>
+      <c r="C290" s="64"/>
+      <c r="D290" s="62"/>
+      <c r="E290" s="63"/>
+      <c r="F290" s="62"/>
+      <c r="G290" s="48"/>
+      <c r="H290" s="48"/>
+      <c r="I290" s="48"/>
+      <c r="J290" s="48"/>
+      <c r="K290" s="48"/>
+      <c r="L290" s="48"/>
+      <c r="M290" s="48"/>
+      <c r="N290" s="48"/>
+      <c r="O290" s="48"/>
+      <c r="P290" s="65"/>
+      <c r="Q290" s="64"/>
+      <c r="R290" s="64"/>
+      <c r="S290" s="64"/>
+      <c r="T290" s="48"/>
+      <c r="U290" s="48"/>
+      <c r="V290" s="48"/>
+      <c r="W290" s="48"/>
+      <c r="X290" s="48"/>
+      <c r="Y290" s="48"/>
+      <c r="Z290" s="48"/>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A291" s="62"/>
+      <c r="B291" s="62"/>
+      <c r="C291" s="64"/>
+      <c r="D291" s="62"/>
+      <c r="E291" s="63"/>
+      <c r="F291" s="62"/>
+      <c r="G291" s="48"/>
+      <c r="H291" s="48"/>
+      <c r="I291" s="48"/>
+      <c r="J291" s="48"/>
+      <c r="K291" s="48"/>
+      <c r="L291" s="48"/>
+      <c r="M291" s="48"/>
+      <c r="N291" s="48"/>
+      <c r="O291" s="48"/>
+      <c r="P291" s="65"/>
+      <c r="Q291" s="64"/>
+      <c r="R291" s="64"/>
+      <c r="S291" s="64"/>
+      <c r="T291" s="48"/>
+      <c r="U291" s="48"/>
+      <c r="V291" s="48"/>
+      <c r="W291" s="48"/>
+      <c r="X291" s="48"/>
+      <c r="Y291" s="48"/>
+      <c r="Z291" s="48"/>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A292" s="62"/>
+      <c r="B292" s="62"/>
+      <c r="C292" s="64"/>
+      <c r="D292" s="62"/>
+      <c r="E292" s="63"/>
+      <c r="F292" s="62"/>
+      <c r="G292" s="48"/>
+      <c r="H292" s="48"/>
+      <c r="I292" s="48"/>
+      <c r="J292" s="48"/>
+      <c r="K292" s="48"/>
+      <c r="L292" s="48"/>
+      <c r="M292" s="48"/>
+      <c r="N292" s="48"/>
+      <c r="O292" s="48"/>
+      <c r="P292" s="65"/>
+      <c r="Q292" s="64"/>
+      <c r="R292" s="64"/>
+      <c r="S292" s="64"/>
+      <c r="T292" s="48"/>
+      <c r="U292" s="48"/>
+      <c r="V292" s="48"/>
+      <c r="W292" s="48"/>
+      <c r="X292" s="48"/>
+      <c r="Y292" s="48"/>
+      <c r="Z292" s="48"/>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A293" s="62"/>
+      <c r="B293" s="62"/>
+      <c r="C293" s="64"/>
+      <c r="D293" s="62"/>
+      <c r="E293" s="63"/>
+      <c r="F293" s="62"/>
+      <c r="G293" s="48"/>
+      <c r="H293" s="48"/>
+      <c r="I293" s="48"/>
+      <c r="J293" s="48"/>
+      <c r="K293" s="48"/>
+      <c r="L293" s="48"/>
+      <c r="M293" s="48"/>
+      <c r="N293" s="48"/>
+      <c r="O293" s="48"/>
+      <c r="P293" s="65"/>
+      <c r="Q293" s="64"/>
+      <c r="R293" s="64"/>
+      <c r="S293" s="64"/>
+      <c r="T293" s="48"/>
+      <c r="U293" s="48"/>
+      <c r="V293" s="48"/>
+      <c r="W293" s="48"/>
+      <c r="X293" s="48"/>
+      <c r="Y293" s="48"/>
+      <c r="Z293" s="48"/>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A294" s="62"/>
+      <c r="B294" s="62"/>
+      <c r="C294" s="64"/>
+      <c r="D294" s="62"/>
+      <c r="E294" s="63"/>
+      <c r="F294" s="62"/>
+      <c r="G294" s="48"/>
+      <c r="H294" s="48"/>
+      <c r="I294" s="48"/>
+      <c r="J294" s="48"/>
+      <c r="K294" s="48"/>
+      <c r="L294" s="48"/>
+      <c r="M294" s="48"/>
+      <c r="N294" s="48"/>
+      <c r="O294" s="48"/>
+      <c r="P294" s="65"/>
+      <c r="Q294" s="64"/>
+      <c r="R294" s="64"/>
+      <c r="S294" s="64"/>
+      <c r="T294" s="48"/>
+      <c r="U294" s="48"/>
+      <c r="V294" s="48"/>
+      <c r="W294" s="48"/>
+      <c r="X294" s="48"/>
+      <c r="Y294" s="48"/>
+      <c r="Z294" s="48"/>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A295" s="62"/>
+      <c r="B295" s="62"/>
+      <c r="C295" s="64"/>
+      <c r="D295" s="62"/>
+      <c r="E295" s="63"/>
+      <c r="F295" s="62"/>
+      <c r="G295" s="48"/>
+      <c r="H295" s="48"/>
+      <c r="I295" s="48"/>
+      <c r="J295" s="48"/>
+      <c r="K295" s="48"/>
+      <c r="L295" s="48"/>
+      <c r="M295" s="48"/>
+      <c r="N295" s="48"/>
+      <c r="O295" s="48"/>
+      <c r="P295" s="65"/>
+      <c r="Q295" s="64"/>
+      <c r="R295" s="64"/>
+      <c r="S295" s="64"/>
+      <c r="T295" s="48"/>
+      <c r="U295" s="48"/>
+      <c r="V295" s="48"/>
+      <c r="W295" s="48"/>
+      <c r="X295" s="48"/>
+      <c r="Y295" s="48"/>
+      <c r="Z295" s="48"/>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A296" s="62"/>
+      <c r="B296" s="62"/>
+      <c r="C296" s="64"/>
+      <c r="D296" s="62"/>
+      <c r="E296" s="63"/>
+      <c r="F296" s="62"/>
+      <c r="G296" s="48"/>
+      <c r="H296" s="48"/>
+      <c r="I296" s="48"/>
+      <c r="J296" s="48"/>
+      <c r="K296" s="48"/>
+      <c r="L296" s="48"/>
+      <c r="M296" s="48"/>
+      <c r="N296" s="48"/>
+      <c r="O296" s="48"/>
+      <c r="P296" s="65"/>
+      <c r="Q296" s="64"/>
+      <c r="R296" s="64"/>
+      <c r="S296" s="64"/>
+      <c r="T296" s="48"/>
+      <c r="U296" s="48"/>
+      <c r="V296" s="48"/>
+      <c r="W296" s="48"/>
+      <c r="X296" s="48"/>
+      <c r="Y296" s="48"/>
+      <c r="Z296" s="48"/>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A297" s="62"/>
+      <c r="B297" s="62"/>
+      <c r="C297" s="64"/>
+      <c r="D297" s="62"/>
+      <c r="E297" s="63"/>
+      <c r="F297" s="62"/>
+      <c r="G297" s="48"/>
+      <c r="H297" s="48"/>
+      <c r="I297" s="48"/>
+      <c r="J297" s="48"/>
+      <c r="K297" s="48"/>
+      <c r="L297" s="48"/>
+      <c r="M297" s="48"/>
+      <c r="N297" s="48"/>
+      <c r="O297" s="48"/>
+      <c r="P297" s="65"/>
+      <c r="Q297" s="64"/>
+      <c r="R297" s="64"/>
+      <c r="S297" s="64"/>
+      <c r="T297" s="48"/>
+      <c r="U297" s="48"/>
+      <c r="V297" s="48"/>
+      <c r="W297" s="48"/>
+      <c r="X297" s="48"/>
+      <c r="Y297" s="48"/>
+      <c r="Z297" s="48"/>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A298" s="62"/>
+      <c r="B298" s="62"/>
+      <c r="C298" s="64"/>
+      <c r="D298" s="62"/>
+      <c r="E298" s="63"/>
+      <c r="F298" s="62"/>
+      <c r="G298" s="48"/>
+      <c r="H298" s="48"/>
+      <c r="I298" s="48"/>
+      <c r="J298" s="48"/>
+      <c r="K298" s="48"/>
+      <c r="L298" s="48"/>
+      <c r="M298" s="48"/>
+      <c r="N298" s="48"/>
+      <c r="O298" s="48"/>
+      <c r="P298" s="65"/>
+      <c r="Q298" s="64"/>
+      <c r="R298" s="64"/>
+      <c r="S298" s="64"/>
+      <c r="T298" s="48"/>
+      <c r="U298" s="48"/>
+      <c r="V298" s="48"/>
+      <c r="W298" s="48"/>
+      <c r="X298" s="48"/>
+      <c r="Y298" s="48"/>
+      <c r="Z298" s="48"/>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A299" s="62"/>
+      <c r="B299" s="62"/>
+      <c r="C299" s="64"/>
+      <c r="D299" s="62"/>
+      <c r="E299" s="63"/>
+      <c r="F299" s="62"/>
+      <c r="G299" s="48"/>
+      <c r="H299" s="48"/>
+      <c r="I299" s="48"/>
+      <c r="J299" s="48"/>
+      <c r="K299" s="48"/>
+      <c r="L299" s="48"/>
+      <c r="M299" s="48"/>
+      <c r="N299" s="48"/>
+      <c r="O299" s="48"/>
+      <c r="P299" s="65"/>
+      <c r="Q299" s="64"/>
+      <c r="R299" s="64"/>
+      <c r="S299" s="64"/>
+      <c r="T299" s="48"/>
+      <c r="U299" s="48"/>
+      <c r="V299" s="48"/>
+      <c r="W299" s="48"/>
+      <c r="X299" s="48"/>
+      <c r="Y299" s="48"/>
+      <c r="Z299" s="48"/>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A300" s="62"/>
+      <c r="B300" s="62"/>
+      <c r="C300" s="64"/>
+      <c r="D300" s="62"/>
+      <c r="E300" s="63"/>
+      <c r="F300" s="62"/>
+      <c r="G300" s="48"/>
+      <c r="H300" s="48"/>
+      <c r="I300" s="48"/>
+      <c r="J300" s="48"/>
+      <c r="K300" s="48"/>
+      <c r="L300" s="48"/>
+      <c r="M300" s="48"/>
+      <c r="N300" s="48"/>
+      <c r="O300" s="48"/>
+      <c r="P300" s="65"/>
+      <c r="Q300" s="64"/>
+      <c r="R300" s="64"/>
+      <c r="S300" s="64"/>
+      <c r="T300" s="48"/>
+      <c r="U300" s="48"/>
+      <c r="V300" s="48"/>
+      <c r="W300" s="48"/>
+      <c r="X300" s="48"/>
+      <c r="Y300" s="48"/>
+      <c r="Z300" s="48"/>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A301" s="62"/>
+      <c r="B301" s="62"/>
+      <c r="C301" s="64"/>
+      <c r="D301" s="62"/>
+      <c r="E301" s="63"/>
+      <c r="F301" s="62"/>
+      <c r="G301" s="48"/>
+      <c r="H301" s="48"/>
+      <c r="I301" s="48"/>
+      <c r="J301" s="48"/>
+      <c r="K301" s="48"/>
+      <c r="L301" s="48"/>
+      <c r="M301" s="48"/>
+      <c r="N301" s="48"/>
+      <c r="O301" s="48"/>
+      <c r="P301" s="65"/>
+      <c r="Q301" s="64"/>
+      <c r="R301" s="64"/>
+      <c r="S301" s="64"/>
+      <c r="T301" s="48"/>
+      <c r="U301" s="48"/>
+      <c r="V301" s="48"/>
+      <c r="W301" s="48"/>
+      <c r="X301" s="48"/>
+      <c r="Y301" s="48"/>
+      <c r="Z301" s="48"/>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A302" s="62"/>
+      <c r="B302" s="62"/>
+      <c r="C302" s="64"/>
+      <c r="D302" s="62"/>
+      <c r="E302" s="63"/>
+      <c r="F302" s="62"/>
+      <c r="G302" s="48"/>
+      <c r="H302" s="48"/>
+      <c r="I302" s="48"/>
+      <c r="J302" s="48"/>
+      <c r="K302" s="48"/>
+      <c r="L302" s="48"/>
+      <c r="M302" s="48"/>
+      <c r="N302" s="48"/>
+      <c r="O302" s="48"/>
+      <c r="P302" s="65"/>
+      <c r="Q302" s="64"/>
+      <c r="R302" s="64"/>
+      <c r="S302" s="64"/>
+      <c r="T302" s="48"/>
+      <c r="U302" s="48"/>
+      <c r="V302" s="48"/>
+      <c r="W302" s="48"/>
+      <c r="X302" s="48"/>
+      <c r="Y302" s="48"/>
+      <c r="Z302" s="48"/>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A303" s="62"/>
+      <c r="B303" s="62"/>
+      <c r="C303" s="64"/>
+      <c r="D303" s="62"/>
+      <c r="E303" s="63"/>
+      <c r="F303" s="62"/>
+      <c r="G303" s="48"/>
+      <c r="H303" s="48"/>
+      <c r="I303" s="48"/>
+      <c r="J303" s="48"/>
+      <c r="K303" s="48"/>
+      <c r="L303" s="48"/>
+      <c r="M303" s="48"/>
+      <c r="N303" s="48"/>
+      <c r="O303" s="48"/>
+      <c r="P303" s="65"/>
+      <c r="Q303" s="64"/>
+      <c r="R303" s="64"/>
+      <c r="S303" s="64"/>
+      <c r="T303" s="48"/>
+      <c r="U303" s="48"/>
+      <c r="V303" s="48"/>
+      <c r="W303" s="48"/>
+      <c r="X303" s="48"/>
+      <c r="Y303" s="48"/>
+      <c r="Z303" s="48"/>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A304" s="62"/>
+      <c r="B304" s="62"/>
+      <c r="C304" s="64"/>
+      <c r="D304" s="62"/>
+      <c r="E304" s="63"/>
+      <c r="F304" s="62"/>
+      <c r="G304" s="48"/>
+      <c r="H304" s="48"/>
+      <c r="I304" s="48"/>
+      <c r="J304" s="48"/>
+      <c r="K304" s="48"/>
+      <c r="L304" s="48"/>
+      <c r="M304" s="48"/>
+      <c r="N304" s="48"/>
+      <c r="O304" s="48"/>
+      <c r="P304" s="65"/>
+      <c r="Q304" s="64"/>
+      <c r="R304" s="64"/>
+      <c r="S304" s="64"/>
+      <c r="T304" s="48"/>
+      <c r="U304" s="48"/>
+      <c r="V304" s="48"/>
+      <c r="W304" s="48"/>
+      <c r="X304" s="48"/>
+      <c r="Y304" s="48"/>
+      <c r="Z304" s="48"/>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A305" s="62"/>
+      <c r="B305" s="62"/>
+      <c r="C305" s="64"/>
+      <c r="D305" s="62"/>
+      <c r="E305" s="63"/>
+      <c r="F305" s="62"/>
+      <c r="G305" s="48"/>
+      <c r="H305" s="48"/>
+      <c r="I305" s="48"/>
+      <c r="J305" s="48"/>
+      <c r="K305" s="48"/>
+      <c r="L305" s="48"/>
+      <c r="M305" s="48"/>
+      <c r="N305" s="48"/>
+      <c r="O305" s="48"/>
+      <c r="P305" s="65"/>
+      <c r="Q305" s="64"/>
+      <c r="R305" s="64"/>
+      <c r="S305" s="64"/>
+      <c r="T305" s="48"/>
+      <c r="U305" s="48"/>
+      <c r="V305" s="48"/>
+      <c r="W305" s="48"/>
+      <c r="X305" s="48"/>
+      <c r="Y305" s="48"/>
+      <c r="Z305" s="48"/>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A306" s="62"/>
+      <c r="B306" s="62"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="62"/>
+      <c r="E306" s="63"/>
+      <c r="F306" s="62"/>
+      <c r="G306" s="48"/>
+      <c r="H306" s="48"/>
+      <c r="I306" s="48"/>
+      <c r="J306" s="48"/>
+      <c r="K306" s="48"/>
+      <c r="L306" s="48"/>
+      <c r="M306" s="48"/>
+      <c r="N306" s="48"/>
+      <c r="O306" s="48"/>
+      <c r="P306" s="65"/>
+      <c r="Q306" s="64"/>
+      <c r="R306" s="64"/>
+      <c r="S306" s="64"/>
+      <c r="T306" s="48"/>
+      <c r="U306" s="48"/>
+      <c r="V306" s="48"/>
+      <c r="W306" s="48"/>
+      <c r="X306" s="48"/>
+      <c r="Y306" s="48"/>
+      <c r="Z306" s="48"/>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A307" s="62"/>
+      <c r="B307" s="62"/>
+      <c r="C307" s="64"/>
+      <c r="D307" s="62"/>
+      <c r="E307" s="63"/>
+      <c r="F307" s="62"/>
+      <c r="G307" s="48"/>
+      <c r="H307" s="48"/>
+      <c r="I307" s="48"/>
+      <c r="J307" s="48"/>
+      <c r="K307" s="48"/>
+      <c r="L307" s="48"/>
+      <c r="M307" s="48"/>
+      <c r="N307" s="48"/>
+      <c r="O307" s="48"/>
+      <c r="P307" s="65"/>
+      <c r="Q307" s="64"/>
+      <c r="R307" s="64"/>
+      <c r="S307" s="64"/>
+      <c r="T307" s="48"/>
+      <c r="U307" s="48"/>
+      <c r="V307" s="48"/>
+      <c r="W307" s="48"/>
+      <c r="X307" s="48"/>
+      <c r="Y307" s="48"/>
+      <c r="Z307" s="48"/>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A308" s="62"/>
+      <c r="B308" s="62"/>
+      <c r="C308" s="64"/>
+      <c r="D308" s="62"/>
+      <c r="E308" s="63"/>
+      <c r="F308" s="62"/>
+      <c r="G308" s="48"/>
+      <c r="H308" s="48"/>
+      <c r="I308" s="48"/>
+      <c r="J308" s="48"/>
+      <c r="K308" s="48"/>
+      <c r="L308" s="48"/>
+      <c r="M308" s="48"/>
+      <c r="N308" s="48"/>
+      <c r="O308" s="48"/>
+      <c r="P308" s="65"/>
+      <c r="Q308" s="64"/>
+      <c r="R308" s="64"/>
+      <c r="S308" s="64"/>
+      <c r="T308" s="48"/>
+      <c r="U308" s="48"/>
+      <c r="V308" s="48"/>
+      <c r="W308" s="48"/>
+      <c r="X308" s="48"/>
+      <c r="Y308" s="48"/>
+      <c r="Z308" s="48"/>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A309" s="62"/>
+      <c r="B309" s="62"/>
+      <c r="C309" s="64"/>
+      <c r="D309" s="62"/>
+      <c r="E309" s="63"/>
+      <c r="F309" s="62"/>
+      <c r="G309" s="48"/>
+      <c r="H309" s="48"/>
+      <c r="I309" s="48"/>
+      <c r="J309" s="48"/>
+      <c r="K309" s="48"/>
+      <c r="L309" s="48"/>
+      <c r="M309" s="48"/>
+      <c r="N309" s="48"/>
+      <c r="O309" s="48"/>
+      <c r="P309" s="65"/>
+      <c r="Q309" s="64"/>
+      <c r="R309" s="64"/>
+      <c r="S309" s="64"/>
+      <c r="T309" s="48"/>
+      <c r="U309" s="48"/>
+      <c r="V309" s="48"/>
+      <c r="W309" s="48"/>
+      <c r="X309" s="48"/>
+      <c r="Y309" s="48"/>
+      <c r="Z309" s="48"/>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A310" s="62"/>
+      <c r="B310" s="62"/>
+      <c r="C310" s="64"/>
+      <c r="D310" s="62"/>
+      <c r="E310" s="63"/>
+      <c r="F310" s="62"/>
+      <c r="G310" s="48"/>
+      <c r="H310" s="48"/>
+      <c r="I310" s="48"/>
+      <c r="J310" s="48"/>
+      <c r="K310" s="48"/>
+      <c r="L310" s="48"/>
+      <c r="M310" s="48"/>
+      <c r="N310" s="48"/>
+      <c r="O310" s="48"/>
+      <c r="P310" s="65"/>
+      <c r="Q310" s="64"/>
+      <c r="R310" s="64"/>
+      <c r="S310" s="64"/>
+      <c r="T310" s="48"/>
+      <c r="U310" s="48"/>
+      <c r="V310" s="48"/>
+      <c r="W310" s="48"/>
+      <c r="X310" s="48"/>
+      <c r="Y310" s="48"/>
+      <c r="Z310" s="48"/>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A311" s="62"/>
+      <c r="B311" s="62"/>
+      <c r="C311" s="64"/>
+      <c r="D311" s="62"/>
+      <c r="E311" s="63"/>
+      <c r="F311" s="62"/>
+      <c r="G311" s="48"/>
+      <c r="H311" s="48"/>
+      <c r="I311" s="48"/>
+      <c r="J311" s="48"/>
+      <c r="K311" s="48"/>
+      <c r="L311" s="48"/>
+      <c r="M311" s="48"/>
+      <c r="N311" s="48"/>
+      <c r="O311" s="48"/>
+      <c r="P311" s="65"/>
+      <c r="Q311" s="64"/>
+      <c r="R311" s="64"/>
+      <c r="S311" s="64"/>
+      <c r="T311" s="48"/>
+      <c r="U311" s="48"/>
+      <c r="V311" s="48"/>
+      <c r="W311" s="48"/>
+      <c r="X311" s="48"/>
+      <c r="Y311" s="48"/>
+      <c r="Z311" s="48"/>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A312" s="62"/>
+      <c r="B312" s="62"/>
+      <c r="C312" s="64"/>
+      <c r="D312" s="62"/>
+      <c r="E312" s="63"/>
+      <c r="F312" s="62"/>
+      <c r="G312" s="48"/>
+      <c r="H312" s="48"/>
+      <c r="I312" s="48"/>
+      <c r="J312" s="48"/>
+      <c r="K312" s="48"/>
+      <c r="L312" s="48"/>
+      <c r="M312" s="48"/>
+      <c r="N312" s="48"/>
+      <c r="O312" s="48"/>
+      <c r="P312" s="65"/>
+      <c r="Q312" s="64"/>
+      <c r="R312" s="64"/>
+      <c r="S312" s="64"/>
+      <c r="T312" s="48"/>
+      <c r="U312" s="48"/>
+      <c r="V312" s="48"/>
+      <c r="W312" s="48"/>
+      <c r="X312" s="48"/>
+      <c r="Y312" s="48"/>
+      <c r="Z312" s="48"/>
+    </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A313" s="62"/>
+      <c r="B313" s="62"/>
+      <c r="C313" s="64"/>
+      <c r="D313" s="62"/>
+      <c r="E313" s="63"/>
+      <c r="F313" s="62"/>
+      <c r="G313" s="48"/>
+      <c r="H313" s="48"/>
+      <c r="I313" s="48"/>
+      <c r="J313" s="48"/>
+      <c r="K313" s="48"/>
+      <c r="L313" s="48"/>
+      <c r="M313" s="48"/>
+      <c r="N313" s="48"/>
+      <c r="O313" s="48"/>
+      <c r="P313" s="65"/>
+      <c r="Q313" s="64"/>
+      <c r="R313" s="64"/>
+      <c r="S313" s="64"/>
+      <c r="T313" s="48"/>
+      <c r="U313" s="48"/>
+      <c r="V313" s="48"/>
+      <c r="W313" s="48"/>
+      <c r="X313" s="48"/>
+      <c r="Y313" s="48"/>
+      <c r="Z313" s="48"/>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A314" s="62"/>
+      <c r="B314" s="62"/>
+      <c r="C314" s="64"/>
+      <c r="D314" s="62"/>
+      <c r="E314" s="63"/>
+      <c r="F314" s="62"/>
+      <c r="G314" s="48"/>
+      <c r="H314" s="48"/>
+      <c r="I314" s="48"/>
+      <c r="J314" s="48"/>
+      <c r="K314" s="48"/>
+      <c r="L314" s="48"/>
+      <c r="M314" s="48"/>
+      <c r="N314" s="48"/>
+      <c r="O314" s="48"/>
+      <c r="P314" s="65"/>
+      <c r="Q314" s="64"/>
+      <c r="R314" s="64"/>
+      <c r="S314" s="64"/>
+      <c r="T314" s="48"/>
+      <c r="U314" s="48"/>
+      <c r="V314" s="48"/>
+      <c r="W314" s="48"/>
+      <c r="X314" s="48"/>
+      <c r="Y314" s="48"/>
+      <c r="Z314" s="48"/>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A315" s="62"/>
+      <c r="B315" s="62"/>
+      <c r="C315" s="64"/>
+      <c r="D315" s="62"/>
+      <c r="E315" s="63"/>
+      <c r="F315" s="62"/>
+      <c r="G315" s="48"/>
+      <c r="H315" s="48"/>
+      <c r="I315" s="48"/>
+      <c r="J315" s="48"/>
+      <c r="K315" s="48"/>
+      <c r="L315" s="48"/>
+      <c r="M315" s="48"/>
+      <c r="N315" s="48"/>
+      <c r="O315" s="48"/>
+      <c r="P315" s="65"/>
+      <c r="Q315" s="64"/>
+      <c r="R315" s="64"/>
+      <c r="S315" s="64"/>
+      <c r="T315" s="48"/>
+      <c r="U315" s="48"/>
+      <c r="V315" s="48"/>
+      <c r="W315" s="48"/>
+      <c r="X315" s="48"/>
+      <c r="Y315" s="48"/>
+      <c r="Z315" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L13:O13">
